--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -5106,17 +5106,13 @@
         <v>33.19999999999997</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K135" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
@@ -5151,1044 +5147,866 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13117.6926</v>
+      </c>
+      <c r="G137" t="n">
+        <v>33.09999999999997</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>33.2</v>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="C138" t="n">
+        <v>33</v>
+      </c>
+      <c r="D138" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>33</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16923.5926</v>
+      </c>
+      <c r="G138" t="n">
+        <v>33.04999999999997</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>33</v>
+      </c>
+      <c r="C139" t="n">
+        <v>33</v>
+      </c>
+      <c r="D139" t="n">
+        <v>33</v>
+      </c>
+      <c r="E139" t="n">
+        <v>33</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10192.3949</v>
+      </c>
+      <c r="G139" t="n">
+        <v>32.99999999999997</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>33</v>
+      </c>
+      <c r="C140" t="n">
+        <v>33</v>
+      </c>
+      <c r="D140" t="n">
+        <v>33</v>
+      </c>
+      <c r="E140" t="n">
+        <v>33</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2917.8415</v>
+      </c>
+      <c r="G140" t="n">
+        <v>32.99999999999997</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>33</v>
+      </c>
+      <c r="C141" t="n">
+        <v>33</v>
+      </c>
+      <c r="D141" t="n">
+        <v>33</v>
+      </c>
+      <c r="E141" t="n">
+        <v>33</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1356.0623</v>
+      </c>
+      <c r="G141" t="n">
+        <v>32.99999999999997</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>33</v>
+      </c>
+      <c r="C142" t="n">
+        <v>33</v>
+      </c>
+      <c r="D142" t="n">
+        <v>33</v>
+      </c>
+      <c r="E142" t="n">
+        <v>33</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4173.9338</v>
+      </c>
+      <c r="G142" t="n">
+        <v>32.99999999999997</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>33</v>
+      </c>
+      <c r="C143" t="n">
+        <v>33</v>
+      </c>
+      <c r="D143" t="n">
+        <v>33</v>
+      </c>
+      <c r="E143" t="n">
+        <v>33</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1949.5816</v>
+      </c>
+      <c r="G143" t="n">
+        <v>32.99999999999997</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>33</v>
+      </c>
+      <c r="C144" t="n">
+        <v>33</v>
+      </c>
+      <c r="D144" t="n">
+        <v>33</v>
+      </c>
+      <c r="E144" t="n">
+        <v>33</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1356.0622</v>
+      </c>
+      <c r="G144" t="n">
+        <v>32.99999999999997</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>33</v>
+      </c>
+      <c r="C145" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>33</v>
+      </c>
+      <c r="E145" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>39415.7915</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32.94999999999997</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2881.0063</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32.89999999999998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="n">
+        <v>33.04999999999998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>89164.0003</v>
+      </c>
+      <c r="G148" t="n">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>143106.5837</v>
+      </c>
+      <c r="G149" t="n">
+        <v>32.74999999999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>74083.2141</v>
+      </c>
+      <c r="G150" t="n">
+        <v>32.94999999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20</v>
+      </c>
+      <c r="G151" t="n">
+        <v>32.94999999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>532</v>
+      </c>
+      <c r="G152" t="n">
+        <v>32.69999999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2171.5641</v>
+      </c>
+      <c r="G153" t="n">
+        <v>32.69999999999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>33</v>
+      </c>
+      <c r="D154" t="n">
+        <v>33</v>
+      </c>
+      <c r="E154" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>570</v>
+      </c>
+      <c r="G154" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>33</v>
+      </c>
+      <c r="C155" t="n">
+        <v>33</v>
+      </c>
+      <c r="D155" t="n">
+        <v>33</v>
+      </c>
+      <c r="E155" t="n">
+        <v>33</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2028.5682</v>
+      </c>
+      <c r="G155" t="n">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>15007.6471</v>
+      </c>
+      <c r="G156" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>33</v>
+      </c>
+      <c r="C157" t="n">
+        <v>33</v>
+      </c>
+      <c r="D157" t="n">
+        <v>33</v>
+      </c>
+      <c r="E157" t="n">
+        <v>33</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>44688.3078</v>
+      </c>
+      <c r="G158" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>33</v>
+      </c>
+      <c r="K158" t="n">
+        <v>33</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>267</v>
+      </c>
+      <c r="G159" t="n">
+        <v>32.69999999999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>33</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>13117.6926</v>
-      </c>
-      <c r="G137" t="n">
-        <v>33.09999999999997</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>33</v>
-      </c>
-      <c r="D138" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>33</v>
-      </c>
-      <c r="F138" t="n">
-        <v>16923.5926</v>
-      </c>
-      <c r="G138" t="n">
-        <v>33.04999999999997</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K138" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>33</v>
+      </c>
+      <c r="D160" t="n">
+        <v>33</v>
+      </c>
+      <c r="E160" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>371</v>
+      </c>
+      <c r="G160" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K160" t="n">
+        <v>33</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>33</v>
-      </c>
-      <c r="C139" t="n">
-        <v>33</v>
-      </c>
-      <c r="D139" t="n">
-        <v>33</v>
-      </c>
-      <c r="E139" t="n">
-        <v>33</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10192.3949</v>
-      </c>
-      <c r="G139" t="n">
-        <v>32.99999999999997</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>33</v>
-      </c>
-      <c r="K139" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>33</v>
-      </c>
-      <c r="C140" t="n">
-        <v>33</v>
-      </c>
-      <c r="D140" t="n">
-        <v>33</v>
-      </c>
-      <c r="E140" t="n">
-        <v>33</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2917.8415</v>
-      </c>
-      <c r="G140" t="n">
-        <v>32.99999999999997</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>33</v>
-      </c>
-      <c r="K140" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>33</v>
-      </c>
-      <c r="C141" t="n">
-        <v>33</v>
-      </c>
-      <c r="D141" t="n">
-        <v>33</v>
-      </c>
-      <c r="E141" t="n">
-        <v>33</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1356.0623</v>
-      </c>
-      <c r="G141" t="n">
-        <v>32.99999999999997</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>33</v>
-      </c>
-      <c r="K141" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>33</v>
-      </c>
-      <c r="C142" t="n">
-        <v>33</v>
-      </c>
-      <c r="D142" t="n">
-        <v>33</v>
-      </c>
-      <c r="E142" t="n">
-        <v>33</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4173.9338</v>
-      </c>
-      <c r="G142" t="n">
-        <v>32.99999999999997</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>33</v>
-      </c>
-      <c r="K142" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>33</v>
-      </c>
-      <c r="C143" t="n">
-        <v>33</v>
-      </c>
-      <c r="D143" t="n">
-        <v>33</v>
-      </c>
-      <c r="E143" t="n">
-        <v>33</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1949.5816</v>
-      </c>
-      <c r="G143" t="n">
-        <v>32.99999999999997</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>33</v>
-      </c>
-      <c r="K143" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>33</v>
-      </c>
-      <c r="C144" t="n">
-        <v>33</v>
-      </c>
-      <c r="D144" t="n">
-        <v>33</v>
-      </c>
-      <c r="E144" t="n">
-        <v>33</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1356.0622</v>
-      </c>
-      <c r="G144" t="n">
-        <v>32.99999999999997</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>33</v>
-      </c>
-      <c r="K144" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>33</v>
-      </c>
-      <c r="C145" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>33</v>
-      </c>
-      <c r="E145" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>39415.7915</v>
-      </c>
-      <c r="G145" t="n">
-        <v>32.94999999999997</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>33</v>
-      </c>
-      <c r="K145" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2881.0063</v>
-      </c>
-      <c r="G146" t="n">
-        <v>32.89999999999998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K146" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>16</v>
-      </c>
-      <c r="G147" t="n">
-        <v>33.04999999999998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K147" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C148" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E148" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>89164.0003</v>
-      </c>
-      <c r="G148" t="n">
-        <v>32.99999999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K148" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>143106.5837</v>
-      </c>
-      <c r="G149" t="n">
-        <v>32.74999999999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K149" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>74083.2141</v>
-      </c>
-      <c r="G150" t="n">
-        <v>32.94999999999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K150" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>20</v>
-      </c>
-      <c r="G151" t="n">
-        <v>32.94999999999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K151" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>532</v>
-      </c>
-      <c r="G152" t="n">
-        <v>32.69999999999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K152" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2171.5641</v>
-      </c>
-      <c r="G153" t="n">
-        <v>32.69999999999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K153" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>33</v>
-      </c>
-      <c r="D154" t="n">
-        <v>33</v>
-      </c>
-      <c r="E154" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>570</v>
-      </c>
-      <c r="G154" t="n">
-        <v>32.84999999999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K154" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>33</v>
-      </c>
-      <c r="C155" t="n">
-        <v>33</v>
-      </c>
-      <c r="D155" t="n">
-        <v>33</v>
-      </c>
-      <c r="E155" t="n">
-        <v>33</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2028.5682</v>
-      </c>
-      <c r="G155" t="n">
-        <v>32.99999999999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>33</v>
-      </c>
-      <c r="K155" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D156" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>15007.6471</v>
-      </c>
-      <c r="G156" t="n">
-        <v>32.84999999999999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K156" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>33</v>
-      </c>
-      <c r="C157" t="n">
-        <v>33</v>
-      </c>
-      <c r="D157" t="n">
-        <v>33</v>
-      </c>
-      <c r="E157" t="n">
-        <v>33</v>
-      </c>
-      <c r="F157" t="n">
-        <v>16</v>
-      </c>
-      <c r="G157" t="n">
-        <v>32.84999999999999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>33</v>
-      </c>
-      <c r="K157" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C158" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>44688.3078</v>
-      </c>
-      <c r="G158" t="n">
-        <v>32.84999999999999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K158" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E159" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>267</v>
-      </c>
-      <c r="G159" t="n">
-        <v>32.69999999999999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K159" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>33</v>
-      </c>
-      <c r="D160" t="n">
-        <v>33</v>
-      </c>
-      <c r="E160" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>371</v>
-      </c>
-      <c r="G160" t="n">
-        <v>32.84999999999999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K160" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6216,16 +6034,14 @@
         <v>32.84999999999999</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>33</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6259,16 +6075,14 @@
         <v>32.69999999999999</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6302,16 +6116,14 @@
         <v>32.64999999999998</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6345,16 +6157,14 @@
         <v>32.64999999999998</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6388,16 +6198,14 @@
         <v>32.64999999999999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6431,16 +6239,14 @@
         <v>32.59999999999999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6474,16 +6280,14 @@
         <v>32.59999999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6517,16 +6321,14 @@
         <v>32.59999999999999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6560,16 +6362,14 @@
         <v>32.59999999999999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6603,16 +6403,14 @@
         <v>32.69999999999999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6646,16 +6444,14 @@
         <v>32.69999999999999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6689,16 +6485,14 @@
         <v>32.74999999999999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6732,16 +6526,14 @@
         <v>32.75</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6775,16 +6567,14 @@
         <v>32.65000000000001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6818,16 +6608,14 @@
         <v>32.7</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6861,16 +6649,14 @@
         <v>32.7</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6904,16 +6690,14 @@
         <v>32.9</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>33</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6947,16 +6731,14 @@
         <v>33.3</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>33.5</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6990,16 +6772,14 @@
         <v>33.5</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>33.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7033,16 +6813,14 @@
         <v>33.65</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>33.5</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7076,16 +6854,14 @@
         <v>33.9</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7119,16 +6895,14 @@
         <v>33.9</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>34</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7169,7 +6943,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7210,7 +6984,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7251,7 +7025,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7292,7 +7066,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7333,7 +7107,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7374,7 +7148,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7415,7 +7189,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7452,19 +7226,19 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>1</v>
+        <v>1.031363636363636</v>
       </c>
     </row>
     <row r="191">
@@ -7493,17 +7267,11 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7537,14 +7305,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7575,17 +7337,11 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7616,17 +7372,11 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7660,14 +7410,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7701,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7742,14 +7480,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7783,14 +7515,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7824,14 +7550,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7865,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7906,14 +7620,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7947,14 +7655,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7988,14 +7690,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8029,14 +7725,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8070,14 +7760,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8111,14 +7795,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8146,22 +7824,14 @@
         <v>33.10000000000002</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>33</v>
-      </c>
-      <c r="K207" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8189,22 +7859,14 @@
         <v>32.90000000000003</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K208" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8232,22 +7894,14 @@
         <v>32.85000000000002</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K209" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8275,22 +7929,14 @@
         <v>32.90000000000002</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>33</v>
-      </c>
-      <c r="K210" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8318,22 +7964,14 @@
         <v>33.00000000000002</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>33</v>
-      </c>
-      <c r="K211" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8361,22 +7999,14 @@
         <v>32.95000000000002</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K212" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8404,22 +8034,14 @@
         <v>32.95000000000002</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>33</v>
-      </c>
-      <c r="K213" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8447,22 +8069,14 @@
         <v>33.00000000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>33</v>
-      </c>
-      <c r="K214" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8490,22 +8104,14 @@
         <v>32.95000000000002</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K215" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8533,22 +8139,14 @@
         <v>32.85000000000002</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K216" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8576,22 +8174,14 @@
         <v>32.80000000000001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K217" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8619,22 +8209,14 @@
         <v>32.90000000000001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>33</v>
-      </c>
-      <c r="K218" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8662,22 +8244,14 @@
         <v>32.90000000000001</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K219" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8705,22 +8279,14 @@
         <v>32.80000000000001</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K220" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8756,12 +8322,10 @@
       <c r="J221" t="n">
         <v>32.8</v>
       </c>
-      <c r="K221" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -8799,9 +8363,7 @@
       <c r="J222" t="n">
         <v>32.7</v>
       </c>
-      <c r="K222" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8842,9 +8404,7 @@
       <c r="J223" t="n">
         <v>32.7</v>
       </c>
-      <c r="K223" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,11 +8443,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K224" t="n">
-        <v>33.2</v>
-      </c>
+        <v>32.7</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,9 +8486,7 @@
       <c r="J225" t="n">
         <v>32.8</v>
       </c>
-      <c r="K225" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,9 +8527,7 @@
       <c r="J226" t="n">
         <v>32.8</v>
       </c>
-      <c r="K226" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,9 +8568,7 @@
       <c r="J227" t="n">
         <v>32.8</v>
       </c>
-      <c r="K227" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,11 +8607,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K228" t="n">
-        <v>33.2</v>
-      </c>
+        <v>32.8</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,11 +8648,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K229" t="n">
-        <v>33.2</v>
-      </c>
+        <v>32.9</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,11 +8689,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K230" t="n">
-        <v>33.2</v>
-      </c>
+        <v>32.8</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9178,17 +8724,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K231" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9221,17 +8763,13 @@
         <v>32.95000000000002</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>33</v>
-      </c>
-      <c r="K232" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,17 +8802,13 @@
         <v>33.00000000000001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>33</v>
-      </c>
-      <c r="K233" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9307,17 +8841,13 @@
         <v>33.35000000000002</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>33</v>
-      </c>
-      <c r="K234" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,17 +8880,13 @@
         <v>33.40000000000002</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K235" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9393,17 +8919,13 @@
         <v>33.10000000000002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K236" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,17 +8958,13 @@
         <v>33.10000000000002</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K237" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,17 +8997,13 @@
         <v>33.00000000000003</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>33</v>
-      </c>
-      <c r="K238" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9522,17 +9036,13 @@
         <v>32.95000000000003</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K239" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,17 +9075,13 @@
         <v>32.90000000000003</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K240" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9608,17 +9114,13 @@
         <v>32.80000000000003</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K241" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9651,17 +9153,13 @@
         <v>32.90000000000003</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>33</v>
-      </c>
-      <c r="K242" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,17 +9192,13 @@
         <v>32.95000000000004</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>33</v>
-      </c>
-      <c r="K243" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,17 +9231,13 @@
         <v>32.90000000000003</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K244" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9780,17 +9270,13 @@
         <v>32.90000000000003</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K245" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9823,17 +9309,13 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K246" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9866,17 +9348,13 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K247" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9909,17 +9387,13 @@
         <v>33.30000000000004</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>33</v>
-      </c>
-      <c r="K248" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,17 +9426,13 @@
         <v>33.50000000000004</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K249" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,17 +9465,13 @@
         <v>33.05000000000004</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K250" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10038,17 +9504,13 @@
         <v>33.10000000000004</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K251" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10081,17 +9543,13 @@
         <v>33.20000000000005</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>33</v>
-      </c>
-      <c r="K252" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10124,17 +9582,13 @@
         <v>32.95000000000005</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K253" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10167,17 +9621,13 @@
         <v>32.95000000000005</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>33</v>
-      </c>
-      <c r="K254" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10210,17 +9660,13 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>33</v>
-      </c>
-      <c r="K255" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10253,17 +9699,13 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>33</v>
-      </c>
-      <c r="K256" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10296,17 +9738,13 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>33</v>
-      </c>
-      <c r="K257" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,17 +9777,13 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>33</v>
-      </c>
-      <c r="K258" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10382,17 +9816,13 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>33</v>
-      </c>
-      <c r="K259" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10425,17 +9855,13 @@
         <v>33.10000000000004</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K260" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10468,17 +9894,13 @@
         <v>33.20000000000005</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K261" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10511,17 +9933,13 @@
         <v>33.25000000000004</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K262" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10554,17 +9972,13 @@
         <v>33.35000000000004</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K263" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C2" t="n">
         <v>34.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>34.9</v>
       </c>
       <c r="D2" t="n">
         <v>35.3</v>
@@ -445,10 +445,10 @@
         <v>34.8</v>
       </c>
       <c r="F2" t="n">
-        <v>308426.36397365</v>
+        <v>129150.32827195</v>
       </c>
       <c r="G2" t="n">
-        <v>34.84999999999999</v>
+        <v>31.59333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>34.8</v>
       </c>
       <c r="C3" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="D3" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E3" t="n">
         <v>34.8</v>
       </c>
-      <c r="E3" t="n">
-        <v>34.6</v>
-      </c>
       <c r="F3" t="n">
-        <v>64424.5535</v>
+        <v>308426.36397365</v>
       </c>
       <c r="G3" t="n">
-        <v>34.74999999999999</v>
+        <v>31.66333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C4" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D4" t="n">
         <v>34.8</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F4" t="n">
-        <v>11782.0893</v>
+        <v>64424.5535</v>
       </c>
       <c r="G4" t="n">
-        <v>34.64999999999999</v>
+        <v>31.72833333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C5" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D5" t="n">
         <v>34.8</v>
       </c>
       <c r="E5" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F5" t="n">
-        <v>255770.2178</v>
+        <v>11782.0893</v>
       </c>
       <c r="G5" t="n">
-        <v>34.74999999999999</v>
+        <v>31.79833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>34.8</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E6" t="n">
         <v>34.6</v>
       </c>
       <c r="F6" t="n">
-        <v>134412.8153</v>
+        <v>255770.2178</v>
       </c>
       <c r="G6" t="n">
-        <v>34.69999999999998</v>
+        <v>31.87333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C7" t="n">
         <v>34.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>34.2</v>
-      </c>
       <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="n">
         <v>34.6</v>
       </c>
-      <c r="E7" t="n">
-        <v>34.2</v>
-      </c>
       <c r="F7" t="n">
-        <v>179232.5641</v>
+        <v>134412.8153</v>
       </c>
       <c r="G7" t="n">
-        <v>34.39999999999998</v>
+        <v>31.95166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>34.2</v>
       </c>
-      <c r="C8" t="n">
-        <v>34.3</v>
-      </c>
       <c r="D8" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="E8" t="n">
         <v>34.2</v>
       </c>
       <c r="F8" t="n">
-        <v>57224.8023</v>
+        <v>179232.5641</v>
       </c>
       <c r="G8" t="n">
-        <v>34.24999999999999</v>
+        <v>32.02166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C9" t="n">
         <v>34.3</v>
       </c>
       <c r="D9" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E9" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F9" t="n">
-        <v>99786.545</v>
+        <v>57224.8023</v>
       </c>
       <c r="G9" t="n">
-        <v>34.29999999999998</v>
+        <v>32.09333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="C10" t="n">
-        <v>33.9</v>
+        <v>34.3</v>
       </c>
       <c r="D10" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E10" t="n">
-        <v>33.9</v>
+        <v>34.3</v>
       </c>
       <c r="F10" t="n">
-        <v>73653.427</v>
+        <v>99786.545</v>
       </c>
       <c r="G10" t="n">
-        <v>34.09999999999999</v>
+        <v>32.165</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E11" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="F11" t="n">
-        <v>89457.9975</v>
+        <v>73653.427</v>
       </c>
       <c r="G11" t="n">
-        <v>34.04999999999999</v>
+        <v>32.23</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D12" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="F12" t="n">
-        <v>6112.4245</v>
+        <v>89457.9975</v>
       </c>
       <c r="G12" t="n">
-        <v>34.14999999999999</v>
+        <v>32.30166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E13" t="n">
         <v>34</v>
       </c>
-      <c r="C13" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>34</v>
-      </c>
-      <c r="E13" t="n">
-        <v>33.9</v>
-      </c>
       <c r="F13" t="n">
-        <v>66025.5996</v>
+        <v>6112.4245</v>
       </c>
       <c r="G13" t="n">
-        <v>33.99999999999999</v>
+        <v>32.37</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
         <v>33.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>34</v>
@@ -865,10 +865,10 @@
         <v>33.9</v>
       </c>
       <c r="F14" t="n">
-        <v>17013.61</v>
+        <v>66025.5996</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94999999999999</v>
+        <v>32.435</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="F15" t="n">
-        <v>51868.6699</v>
+        <v>17013.61</v>
       </c>
       <c r="G15" t="n">
-        <v>34.24999999999999</v>
+        <v>32.49666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="C16" t="n">
         <v>34.5</v>
@@ -932,13 +932,13 @@
         <v>34.5</v>
       </c>
       <c r="E16" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F16" t="n">
-        <v>53123.9817</v>
+        <v>51868.6699</v>
       </c>
       <c r="G16" t="n">
-        <v>34.49999999999999</v>
+        <v>32.57000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="C17" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="D17" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E17" t="n">
         <v>34.3</v>
       </c>
       <c r="F17" t="n">
-        <v>15796.7327</v>
+        <v>53123.9817</v>
       </c>
       <c r="G17" t="n">
-        <v>34.39999999999998</v>
+        <v>32.645</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C18" t="n">
         <v>34.3</v>
       </c>
       <c r="D18" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E18" t="n">
         <v>34.3</v>
       </c>
       <c r="F18" t="n">
-        <v>15571.4814</v>
+        <v>15796.7327</v>
       </c>
       <c r="G18" t="n">
-        <v>34.29999999999998</v>
+        <v>32.71666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C19" t="n">
         <v>34.3</v>
       </c>
       <c r="D19" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="F19" t="n">
-        <v>200964.712</v>
+        <v>15571.4814</v>
       </c>
       <c r="G19" t="n">
-        <v>34.29999999999998</v>
+        <v>32.785</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>34.3</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="D20" t="n">
         <v>34.6</v>
       </c>
       <c r="E20" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>124952.3125</v>
+        <v>200964.712</v>
       </c>
       <c r="G20" t="n">
-        <v>34.39999999999998</v>
+        <v>32.85</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C21" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D21" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E21" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>124952.3125</v>
       </c>
       <c r="G21" t="n">
-        <v>34.44999999999998</v>
+        <v>32.91</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F22" t="n">
-        <v>106.9654</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>34.44999999999998</v>
+        <v>32.96833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C23" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D23" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="F23" t="n">
-        <v>49195.6747</v>
+        <v>106.9654</v>
       </c>
       <c r="G23" t="n">
-        <v>34.29999999999998</v>
+        <v>33.035</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C24" t="n">
         <v>34.1</v>
       </c>
-      <c r="C24" t="n">
-        <v>34</v>
-      </c>
       <c r="D24" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E24" t="n">
         <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>67396.9259</v>
+        <v>49195.6747</v>
       </c>
       <c r="G24" t="n">
-        <v>34.04999999999998</v>
+        <v>33.095</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,32 +1238,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C25" t="n">
         <v>34</v>
       </c>
-      <c r="C25" t="n">
-        <v>33.9</v>
-      </c>
       <c r="D25" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E25" t="n">
         <v>34</v>
       </c>
-      <c r="E25" t="n">
-        <v>33.9</v>
-      </c>
       <c r="F25" t="n">
-        <v>90810.3496</v>
+        <v>67396.9259</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94999999999999</v>
+        <v>33.15166666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>34.1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1291,10 @@
         <v>33.9</v>
       </c>
       <c r="F26" t="n">
-        <v>22651.50383529</v>
+        <v>90810.3496</v>
       </c>
       <c r="G26" t="n">
-        <v>33.89999999999999</v>
+        <v>33.20333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1304,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1311,19 +1321,19 @@
         <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="D27" t="n">
         <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>22651.50383529</v>
       </c>
       <c r="G27" t="n">
-        <v>33.94999999999999</v>
+        <v>33.26000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1343,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1357,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C28" t="n">
-        <v>34.3</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>34.3</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>65000</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>34.14999999999999</v>
+        <v>33.31666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1382,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C29" t="n">
         <v>34.3</v>
       </c>
-      <c r="C29" t="n">
-        <v>34.7</v>
-      </c>
       <c r="D29" t="n">
-        <v>34.8</v>
+        <v>34.3</v>
       </c>
       <c r="E29" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="F29" t="n">
-        <v>688747.3719</v>
+        <v>65000</v>
       </c>
       <c r="G29" t="n">
-        <v>34.49999999999999</v>
+        <v>33.37833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1421,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1435,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C30" t="n">
         <v>34.7</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>34.8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>34.9</v>
       </c>
       <c r="E30" t="n">
         <v>34.3</v>
       </c>
       <c r="F30" t="n">
-        <v>334934.09154514</v>
+        <v>688747.3719</v>
       </c>
       <c r="G30" t="n">
-        <v>34.74999999999999</v>
+        <v>33.44500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1460,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1474,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="C31" t="n">
-        <v>34.4</v>
+        <v>34.8</v>
       </c>
       <c r="D31" t="n">
         <v>34.9</v>
       </c>
       <c r="E31" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F31" t="n">
-        <v>68275.3894</v>
+        <v>334934.09154514</v>
       </c>
       <c r="G31" t="n">
-        <v>34.59999999999999</v>
+        <v>33.51333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1499,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1489,16 +1519,16 @@
         <v>34.4</v>
       </c>
       <c r="D32" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E32" t="n">
         <v>34.4</v>
       </c>
       <c r="F32" t="n">
-        <v>48730.48880259</v>
+        <v>68275.3894</v>
       </c>
       <c r="G32" t="n">
-        <v>34.39999999999998</v>
+        <v>33.575</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1538,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="C33" t="n">
         <v>34.4</v>
@@ -1530,10 +1564,10 @@
         <v>34.4</v>
       </c>
       <c r="F33" t="n">
-        <v>178654.0495</v>
+        <v>48730.48880259</v>
       </c>
       <c r="G33" t="n">
-        <v>34.39999999999998</v>
+        <v>33.63666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1577,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1591,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C34" t="n">
         <v>34.4</v>
       </c>
-      <c r="C34" t="n">
-        <v>34</v>
-      </c>
       <c r="D34" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E34" t="n">
         <v>34.4</v>
       </c>
-      <c r="E34" t="n">
-        <v>34</v>
-      </c>
       <c r="F34" t="n">
-        <v>35338.2226</v>
+        <v>178654.0495</v>
       </c>
       <c r="G34" t="n">
-        <v>34.19999999999997</v>
+        <v>33.68833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1616,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1630,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E35" t="n">
         <v>34</v>
       </c>
       <c r="F35" t="n">
-        <v>48997.6112</v>
+        <v>35338.2226</v>
       </c>
       <c r="G35" t="n">
-        <v>34.04999999999997</v>
+        <v>33.73333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1655,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1669,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="D36" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="E36" t="n">
         <v>34</v>
       </c>
       <c r="F36" t="n">
-        <v>178984.2561</v>
+        <v>48997.6112</v>
       </c>
       <c r="G36" t="n">
-        <v>34.04999999999997</v>
+        <v>33.78666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1694,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1711,19 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E37" t="n">
         <v>34</v>
       </c>
       <c r="F37" t="n">
-        <v>64530.469</v>
+        <v>178984.2561</v>
       </c>
       <c r="G37" t="n">
-        <v>34.04999999999997</v>
+        <v>33.83166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1733,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1747,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D38" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E38" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="F38" t="n">
-        <v>13589.2962</v>
+        <v>64530.469</v>
       </c>
       <c r="G38" t="n">
-        <v>33.99999999999997</v>
+        <v>33.87833333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1772,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="D39" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="E39" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="F39" t="n">
-        <v>37674.7057</v>
+        <v>13589.2962</v>
       </c>
       <c r="G39" t="n">
-        <v>34.19999999999997</v>
+        <v>33.93000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1811,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1825,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="C40" t="n">
         <v>34.5</v>
@@ -1772,13 +1834,13 @@
         <v>34.6</v>
       </c>
       <c r="E40" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="F40" t="n">
-        <v>8108.6688</v>
+        <v>37674.7057</v>
       </c>
       <c r="G40" t="n">
-        <v>34.49999999999997</v>
+        <v>33.98666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1850,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1867,19 @@
         <v>34.5</v>
       </c>
       <c r="C41" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D41" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E41" t="n">
         <v>34.5</v>
       </c>
-      <c r="E41" t="n">
-        <v>34.2</v>
-      </c>
       <c r="F41" t="n">
-        <v>10452.018</v>
+        <v>8108.6688</v>
       </c>
       <c r="G41" t="n">
-        <v>34.34999999999997</v>
+        <v>34.04000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1889,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1903,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C42" t="n">
         <v>34.2</v>
       </c>
-      <c r="C42" t="n">
-        <v>34.3</v>
-      </c>
       <c r="D42" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E42" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F42" t="n">
-        <v>23666.7178</v>
+        <v>10452.018</v>
       </c>
       <c r="G42" t="n">
-        <v>34.24999999999997</v>
+        <v>34.08000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1928,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1942,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C43" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="D43" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E43" t="n">
         <v>34.1</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>23666.7178</v>
       </c>
       <c r="G43" t="n">
-        <v>34.34999999999997</v>
+        <v>34.11333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1967,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1981,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C44" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D44" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E44" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F44" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G44" t="n">
-        <v>34.29999999999998</v>
+        <v>34.15000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2006,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +2023,19 @@
         <v>34.2</v>
       </c>
       <c r="C45" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="D45" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E45" t="n">
         <v>34.2</v>
       </c>
-      <c r="E45" t="n">
-        <v>33.7</v>
-      </c>
       <c r="F45" t="n">
-        <v>210965.01</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>33.94999999999997</v>
+        <v>34.18</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2045,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2059,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="C46" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D46" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="E46" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="F46" t="n">
-        <v>68516.2135</v>
+        <v>210965.01</v>
       </c>
       <c r="G46" t="n">
-        <v>33.64999999999997</v>
+        <v>34.19166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2084,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2098,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C47" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="D47" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E47" t="n">
         <v>33.4</v>
       </c>
       <c r="F47" t="n">
-        <v>159382.3513</v>
+        <v>68516.2135</v>
       </c>
       <c r="G47" t="n">
-        <v>33.49999999999996</v>
+        <v>34.19666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2123,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,32 +2137,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="C48" t="n">
         <v>33.4</v>
       </c>
       <c r="D48" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E48" t="n">
         <v>33.4</v>
       </c>
-      <c r="E48" t="n">
-        <v>33.3</v>
-      </c>
       <c r="F48" t="n">
-        <v>15490.3375</v>
+        <v>159382.3513</v>
       </c>
       <c r="G48" t="n">
-        <v>33.39999999999996</v>
+        <v>34.195</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>33.6</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2087,23 +2187,29 @@
         <v>33.4</v>
       </c>
       <c r="E49" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15490.3375</v>
+      </c>
+      <c r="G49" t="n">
+        <v>34.195</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>33.4</v>
       </c>
-      <c r="F49" t="n">
-        <v>176</v>
-      </c>
-      <c r="G49" t="n">
-        <v>33.39999999999996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,29 +2222,35 @@
         <v>33.4</v>
       </c>
       <c r="C50" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="D50" t="n">
         <v>33.4</v>
       </c>
       <c r="E50" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="F50" t="n">
-        <v>402756.5389</v>
+        <v>176</v>
       </c>
       <c r="G50" t="n">
-        <v>33.09999999999997</v>
+        <v>34.2</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,32 +2260,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C51" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D51" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E51" t="n">
         <v>32.8</v>
       </c>
       <c r="F51" t="n">
-        <v>11208.9589</v>
+        <v>402756.5389</v>
       </c>
       <c r="G51" t="n">
-        <v>32.89999999999996</v>
+        <v>34.19666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,32 +2301,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="C52" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="E52" t="n">
-        <v>33.3</v>
+        <v>32.8</v>
       </c>
       <c r="F52" t="n">
-        <v>56552.5312</v>
+        <v>11208.9589</v>
       </c>
       <c r="G52" t="n">
-        <v>33.29999999999996</v>
+        <v>34.19500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>32.8</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,32 +2342,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C53" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="D53" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="E53" t="n">
         <v>33.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1549.9938</v>
+        <v>56552.5312</v>
       </c>
       <c r="G53" t="n">
-        <v>33.44999999999996</v>
+        <v>34.2</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>33</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,29 +2386,35 @@
         <v>33.4</v>
       </c>
       <c r="C54" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D54" t="n">
         <v>33.4</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1549.9938</v>
+      </c>
+      <c r="G54" t="n">
+        <v>34.19833333333334</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>33.6</v>
       </c>
-      <c r="E54" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="F54" t="n">
-        <v>470</v>
-      </c>
-      <c r="G54" t="n">
-        <v>33.34999999999997</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2291,19 +2427,19 @@
         <v>33.4</v>
       </c>
       <c r="C55" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D55" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E55" t="n">
         <v>33.4</v>
       </c>
-      <c r="E55" t="n">
-        <v>33.3</v>
-      </c>
       <c r="F55" t="n">
-        <v>860.0554</v>
+        <v>470</v>
       </c>
       <c r="G55" t="n">
-        <v>33.34999999999997</v>
+        <v>34.18333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2449,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2463,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C56" t="n">
         <v>33.3</v>
       </c>
-      <c r="C56" t="n">
-        <v>33.1</v>
-      </c>
       <c r="D56" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E56" t="n">
         <v>33.3</v>
       </c>
-      <c r="E56" t="n">
-        <v>33.1</v>
-      </c>
       <c r="F56" t="n">
-        <v>22153.8388</v>
+        <v>860.0554</v>
       </c>
       <c r="G56" t="n">
-        <v>33.19999999999996</v>
+        <v>34.16666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2488,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2502,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="C57" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="D57" t="n">
         <v>33.3</v>
       </c>
       <c r="E57" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F57" t="n">
-        <v>18740.5068</v>
+        <v>22153.8388</v>
       </c>
       <c r="G57" t="n">
-        <v>33.14999999999996</v>
+        <v>34.14333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2527,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2541,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>33.8</v>
+        <v>33.2</v>
       </c>
       <c r="D58" t="n">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="E58" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="F58" t="n">
-        <v>139252.22102477</v>
+        <v>18740.5068</v>
       </c>
       <c r="G58" t="n">
-        <v>33.49999999999996</v>
+        <v>34.13</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2566,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2580,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="C59" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="D59" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="E59" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="F59" t="n">
-        <v>58644.65797238</v>
+        <v>139252.22102477</v>
       </c>
       <c r="G59" t="n">
-        <v>33.74999999999996</v>
+        <v>34.11166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2605,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2619,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C60" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="D60" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E60" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F60" t="n">
-        <v>111716.6461</v>
+        <v>58644.65797238</v>
       </c>
       <c r="G60" t="n">
-        <v>33.49999999999996</v>
+        <v>34.08833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2644,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2658,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C61" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="D61" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E61" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F61" t="n">
-        <v>1633.7862</v>
+        <v>111716.6461</v>
       </c>
       <c r="G61" t="n">
-        <v>33.39999999999996</v>
+        <v>34.06166666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2683,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,7 +2697,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C62" t="n">
         <v>33.5</v>
@@ -2542,13 +2706,13 @@
         <v>33.5</v>
       </c>
       <c r="E62" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="F62" t="n">
-        <v>83766.1476</v>
+        <v>1633.7862</v>
       </c>
       <c r="G62" t="n">
-        <v>33.49999999999996</v>
+        <v>34.04</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2722,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2736,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="C63" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D63" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E63" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="F63" t="n">
-        <v>9141.3496</v>
+        <v>83766.1476</v>
       </c>
       <c r="G63" t="n">
-        <v>33.59999999999996</v>
+        <v>34.01666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2761,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2778,19 @@
         <v>33.7</v>
       </c>
       <c r="C64" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="D64" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="E64" t="n">
         <v>33.7</v>
       </c>
       <c r="F64" t="n">
-        <v>20684.5044</v>
+        <v>9141.3496</v>
       </c>
       <c r="G64" t="n">
-        <v>33.74999999999996</v>
+        <v>34.00166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2800,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2814,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C65" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="D65" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="E65" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>20684.5044</v>
       </c>
       <c r="G65" t="n">
-        <v>33.69999999999995</v>
+        <v>33.98666666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2839,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2853,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C66" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D66" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E66" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F66" t="n">
-        <v>1387.1617</v>
+        <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>33.54999999999995</v>
+        <v>33.96666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2878,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +2895,19 @@
         <v>33.7</v>
       </c>
       <c r="C67" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D67" t="n">
         <v>33.7</v>
       </c>
       <c r="E67" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F67" t="n">
-        <v>264.481</v>
+        <v>1387.1617</v>
       </c>
       <c r="G67" t="n">
-        <v>33.54999999999995</v>
+        <v>33.94833333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2917,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2934,19 @@
         <v>33.7</v>
       </c>
       <c r="C68" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="D68" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="E68" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F68" t="n">
-        <v>20301.0394</v>
+        <v>264.481</v>
       </c>
       <c r="G68" t="n">
-        <v>33.79999999999995</v>
+        <v>33.93833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2956,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,7 +2970,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="C69" t="n">
         <v>34</v>
@@ -2787,13 +2979,13 @@
         <v>34</v>
       </c>
       <c r="E69" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="F69" t="n">
-        <v>44085.7887</v>
+        <v>20301.0394</v>
       </c>
       <c r="G69" t="n">
-        <v>33.99999999999996</v>
+        <v>33.93333333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2995,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2819,16 +3015,16 @@
         <v>34</v>
       </c>
       <c r="D70" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E70" t="n">
         <v>34</v>
       </c>
       <c r="F70" t="n">
-        <v>155</v>
+        <v>44085.7887</v>
       </c>
       <c r="G70" t="n">
-        <v>33.99999999999996</v>
+        <v>33.92833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3034,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3048,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>34</v>
+      </c>
+      <c r="C71" t="n">
+        <v>34</v>
+      </c>
+      <c r="D71" t="n">
         <v>34.2</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34.5</v>
       </c>
       <c r="E71" t="n">
         <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>11590</v>
+        <v>155</v>
       </c>
       <c r="G71" t="n">
-        <v>34.14999999999996</v>
+        <v>33.92999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3073,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3087,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D72" t="n">
         <v>34.5</v>
       </c>
-      <c r="C72" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>34.6</v>
-      </c>
       <c r="E72" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F72" t="n">
-        <v>301227.0898</v>
+        <v>11590</v>
       </c>
       <c r="G72" t="n">
-        <v>34.39999999999996</v>
+        <v>33.93166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3112,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +3129,19 @@
         <v>34.5</v>
       </c>
       <c r="C73" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D73" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E73" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F73" t="n">
-        <v>4801.765</v>
+        <v>301227.0898</v>
       </c>
       <c r="G73" t="n">
-        <v>34.29999999999996</v>
+        <v>33.93833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3151,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +3168,19 @@
         <v>34.5</v>
       </c>
       <c r="C74" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D74" t="n">
         <v>34.5</v>
       </c>
       <c r="E74" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F74" t="n">
-        <v>15</v>
+        <v>4801.765</v>
       </c>
       <c r="G74" t="n">
-        <v>34.29999999999996</v>
+        <v>33.94166666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3190,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2991,19 +3207,19 @@
         <v>34.5</v>
       </c>
       <c r="C75" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D75" t="n">
         <v>34.5</v>
       </c>
       <c r="E75" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F75" t="n">
-        <v>159.98550724</v>
+        <v>15</v>
       </c>
       <c r="G75" t="n">
-        <v>34.29999999999997</v>
+        <v>33.95</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3229,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3026,19 +3246,19 @@
         <v>34.5</v>
       </c>
       <c r="C76" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="D76" t="n">
         <v>34.5</v>
       </c>
       <c r="E76" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F76" t="n">
-        <v>2584.8971</v>
+        <v>159.98550724</v>
       </c>
       <c r="G76" t="n">
-        <v>34.19999999999997</v>
+        <v>33.94333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3268,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3282,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C77" t="n">
         <v>34.3</v>
       </c>
-      <c r="C77" t="n">
-        <v>34.1</v>
-      </c>
       <c r="D77" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="E77" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F77" t="n">
-        <v>100801.4651</v>
+        <v>2584.8971</v>
       </c>
       <c r="G77" t="n">
-        <v>34.19999999999997</v>
+        <v>33.93999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3307,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3321,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C78" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D78" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E78" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F78" t="n">
-        <v>223.1234</v>
+        <v>100801.4651</v>
       </c>
       <c r="G78" t="n">
-        <v>34.14999999999998</v>
+        <v>33.93666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3346,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3360,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C79" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D79" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E79" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F79" t="n">
-        <v>10192.8797</v>
+        <v>223.1234</v>
       </c>
       <c r="G79" t="n">
-        <v>34.14999999999998</v>
+        <v>33.935</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3385,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3402,19 @@
         <v>34.1</v>
       </c>
       <c r="C80" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D80" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E80" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F80" t="n">
-        <v>18359.2304</v>
+        <v>10192.8797</v>
       </c>
       <c r="G80" t="n">
-        <v>33.94999999999997</v>
+        <v>33.93166666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3424,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3201,19 +3441,19 @@
         <v>34.1</v>
       </c>
       <c r="C81" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D81" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E81" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F81" t="n">
-        <v>842.5214999999999</v>
+        <v>18359.2304</v>
       </c>
       <c r="G81" t="n">
-        <v>33.94999999999997</v>
+        <v>33.91999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3463,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3489,10 @@
         <v>34.1</v>
       </c>
       <c r="F82" t="n">
-        <v>880.5581</v>
+        <v>842.5214999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>34.09999999999997</v>
+        <v>33.91499999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3502,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3516,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="C83" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D83" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="E83" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F83" t="n">
-        <v>37251</v>
+        <v>880.5581</v>
       </c>
       <c r="G83" t="n">
-        <v>33.89999999999998</v>
+        <v>33.90833333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3541,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3555,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C84" t="n">
         <v>33.7</v>
       </c>
-      <c r="C84" t="n">
-        <v>33.3</v>
-      </c>
       <c r="D84" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E84" t="n">
         <v>33.7</v>
       </c>
-      <c r="E84" t="n">
-        <v>33.3</v>
-      </c>
       <c r="F84" t="n">
-        <v>173994.3783</v>
+        <v>37251</v>
       </c>
       <c r="G84" t="n">
-        <v>33.49999999999997</v>
+        <v>33.90166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3580,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3594,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="C85" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D85" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E85" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F85" t="n">
-        <v>13857.3808</v>
+        <v>173994.3783</v>
       </c>
       <c r="G85" t="n">
-        <v>33.34999999999997</v>
+        <v>33.88999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3619,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3633,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C86" t="n">
         <v>33.4</v>
       </c>
       <c r="D86" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E86" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="F86" t="n">
-        <v>48214.8109</v>
+        <v>13857.3808</v>
       </c>
       <c r="G86" t="n">
-        <v>33.39999999999997</v>
+        <v>33.88166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3658,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3672,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C87" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D87" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E87" t="n">
         <v>33.3</v>
       </c>
       <c r="F87" t="n">
-        <v>13098.7412</v>
+        <v>48214.8109</v>
       </c>
       <c r="G87" t="n">
-        <v>33.34999999999997</v>
+        <v>33.87333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3697,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3711,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="C88" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="D88" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="E88" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="F88" t="n">
-        <v>88</v>
+        <v>13098.7412</v>
       </c>
       <c r="G88" t="n">
-        <v>33.49999999999997</v>
+        <v>33.86166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3736,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3481,19 +3753,19 @@
         <v>33.7</v>
       </c>
       <c r="C89" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="D89" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="E89" t="n">
         <v>33.7</v>
       </c>
       <c r="F89" t="n">
-        <v>61449.56309883</v>
+        <v>88</v>
       </c>
       <c r="G89" t="n">
-        <v>33.94999999999997</v>
+        <v>33.85166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3775,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3792,19 @@
         <v>33.7</v>
       </c>
       <c r="C90" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D90" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E90" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F90" t="n">
-        <v>4073.0516</v>
+        <v>61449.56309883</v>
       </c>
       <c r="G90" t="n">
-        <v>34.14999999999997</v>
+        <v>33.84333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3814,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3828,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="C91" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D91" t="n">
         <v>34.1</v>
       </c>
       <c r="E91" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F91" t="n">
-        <v>1915.0881</v>
+        <v>4073.0516</v>
       </c>
       <c r="G91" t="n">
-        <v>33.89999999999997</v>
+        <v>33.83166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3853,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3867,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>34</v>
+      </c>
+      <c r="C92" t="n">
         <v>33.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>34.1</v>
       </c>
       <c r="D92" t="n">
         <v>34.1</v>
       </c>
       <c r="E92" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F92" t="n">
-        <v>10568.276</v>
+        <v>1915.0881</v>
       </c>
       <c r="G92" t="n">
-        <v>33.89999999999998</v>
+        <v>33.82</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3892,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3627,13 +3915,13 @@
         <v>34.1</v>
       </c>
       <c r="E93" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F93" t="n">
-        <v>183</v>
+        <v>10568.276</v>
       </c>
       <c r="G93" t="n">
-        <v>34.09999999999997</v>
+        <v>33.81499999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3931,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +3948,19 @@
         <v>33.7</v>
       </c>
       <c r="C94" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E94" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F94" t="n">
-        <v>12644.0256</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
-        <v>33.84999999999998</v>
+        <v>33.80999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3970,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3984,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="C95" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D95" t="n">
         <v>34</v>
       </c>
       <c r="E95" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F95" t="n">
-        <v>21529.6219</v>
+        <v>12644.0256</v>
       </c>
       <c r="G95" t="n">
-        <v>33.54999999999998</v>
+        <v>33.80333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +4009,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4023,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="C96" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="D96" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="E96" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="F96" t="n">
-        <v>55</v>
+        <v>21529.6219</v>
       </c>
       <c r="G96" t="n">
-        <v>33.69999999999999</v>
+        <v>33.79333333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4048,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4062,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="C97" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="D97" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="E97" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="F97" t="n">
-        <v>8235.7016</v>
+        <v>55</v>
       </c>
       <c r="G97" t="n">
-        <v>33.84999999999999</v>
+        <v>33.79166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4087,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +4113,10 @@
         <v>33.8</v>
       </c>
       <c r="F98" t="n">
-        <v>73.0977</v>
+        <v>8235.7016</v>
       </c>
       <c r="G98" t="n">
-        <v>33.79999999999998</v>
+        <v>33.78666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4126,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4152,10 @@
         <v>33.8</v>
       </c>
       <c r="F99" t="n">
-        <v>915.7591</v>
+        <v>73.0977</v>
       </c>
       <c r="G99" t="n">
-        <v>33.79999999999998</v>
+        <v>33.785</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4165,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4179,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="C100" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="D100" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="E100" t="n">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="F100" t="n">
-        <v>5886.8789</v>
+        <v>915.7591</v>
       </c>
       <c r="G100" t="n">
-        <v>33.74999999999999</v>
+        <v>33.77333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4204,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4218,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C101" t="n">
         <v>33.7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>33.4</v>
       </c>
       <c r="D101" t="n">
         <v>33.7</v>
       </c>
       <c r="E101" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F101" t="n">
-        <v>33349.4072</v>
+        <v>5886.8789</v>
       </c>
       <c r="G101" t="n">
-        <v>33.54999999999999</v>
+        <v>33.76</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4243,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4257,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="C102" t="n">
         <v>33.4</v>
       </c>
       <c r="D102" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E102" t="n">
         <v>33.4</v>
       </c>
       <c r="F102" t="n">
-        <v>3493.6088</v>
+        <v>33349.4072</v>
       </c>
       <c r="G102" t="n">
-        <v>33.39999999999998</v>
+        <v>33.74666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4282,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3980,10 +4308,10 @@
         <v>33.4</v>
       </c>
       <c r="F103" t="n">
-        <v>4699.6442</v>
+        <v>3493.6088</v>
       </c>
       <c r="G103" t="n">
-        <v>33.39999999999998</v>
+        <v>33.73166666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4321,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4347,10 @@
         <v>33.4</v>
       </c>
       <c r="F104" t="n">
-        <v>12646</v>
+        <v>4699.6442</v>
       </c>
       <c r="G104" t="n">
-        <v>33.39999999999998</v>
+        <v>33.715</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4360,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4374,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C105" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="D105" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E105" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="F105" t="n">
-        <v>53.5146</v>
+        <v>12646</v>
       </c>
       <c r="G105" t="n">
-        <v>33.44999999999997</v>
+        <v>33.70166666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4399,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4413,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="C106" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D106" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="E106" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F106" t="n">
-        <v>5049.1681</v>
+        <v>53.5146</v>
       </c>
       <c r="G106" t="n">
-        <v>33.44999999999997</v>
+        <v>33.69833333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4438,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4111,19 +4455,19 @@
         <v>33.4</v>
       </c>
       <c r="C107" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D107" t="n">
         <v>33.4</v>
       </c>
       <c r="E107" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="F107" t="n">
-        <v>22599.1961</v>
+        <v>5049.1681</v>
       </c>
       <c r="G107" t="n">
-        <v>33.34999999999997</v>
+        <v>33.69499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4477,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4491,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="C108" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="D108" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E108" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="F108" t="n">
-        <v>17</v>
+        <v>22599.1961</v>
       </c>
       <c r="G108" t="n">
-        <v>33.44999999999997</v>
+        <v>33.69333333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4516,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4181,19 +4533,19 @@
         <v>33.6</v>
       </c>
       <c r="C109" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D109" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E109" t="n">
         <v>33.6</v>
       </c>
       <c r="F109" t="n">
-        <v>47750.6034</v>
+        <v>17</v>
       </c>
       <c r="G109" t="n">
-        <v>33.64999999999998</v>
+        <v>33.69666666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4555,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,7 +4569,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C110" t="n">
         <v>33.7</v>
@@ -4222,13 +4578,13 @@
         <v>33.7</v>
       </c>
       <c r="E110" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F110" t="n">
-        <v>3751.9654</v>
+        <v>47750.6034</v>
       </c>
       <c r="G110" t="n">
-        <v>33.69999999999997</v>
+        <v>33.70166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4594,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4251,19 +4611,19 @@
         <v>33.7</v>
       </c>
       <c r="C111" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="D111" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="E111" t="n">
         <v>33.7</v>
       </c>
       <c r="F111" t="n">
-        <v>3097.4981</v>
+        <v>3751.9654</v>
       </c>
       <c r="G111" t="n">
-        <v>33.74999999999997</v>
+        <v>33.71666666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4633,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4647,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C112" t="n">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="D112" t="n">
         <v>33.8</v>
       </c>
       <c r="E112" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="F112" t="n">
-        <v>1767.28994082</v>
+        <v>3097.4981</v>
       </c>
       <c r="G112" t="n">
-        <v>33.64999999999997</v>
+        <v>33.72999999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4672,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4324,16 +4692,16 @@
         <v>33.5</v>
       </c>
       <c r="D113" t="n">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="E113" t="n">
         <v>33.5</v>
       </c>
       <c r="F113" t="n">
-        <v>5486.3806</v>
+        <v>1767.28994082</v>
       </c>
       <c r="G113" t="n">
-        <v>33.49999999999997</v>
+        <v>33.72833333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4711,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4725,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C114" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D114" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E114" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F114" t="n">
-        <v>1630.8596</v>
+        <v>5486.3806</v>
       </c>
       <c r="G114" t="n">
-        <v>33.59999999999997</v>
+        <v>33.73166666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4750,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4764,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="C115" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="D115" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="E115" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="F115" t="n">
-        <v>49862.0332</v>
+        <v>1630.8596</v>
       </c>
       <c r="G115" t="n">
-        <v>33.74999999999997</v>
+        <v>33.73666666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4789,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4426,19 +4806,19 @@
         <v>33.8</v>
       </c>
       <c r="C116" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="D116" t="n">
         <v>33.8</v>
       </c>
       <c r="E116" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="F116" t="n">
-        <v>5423.1604</v>
+        <v>49862.0332</v>
       </c>
       <c r="G116" t="n">
-        <v>33.74999999999997</v>
+        <v>33.74499999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4828,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4842,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="C117" t="n">
         <v>33.7</v>
       </c>
       <c r="D117" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="E117" t="n">
         <v>33.7</v>
       </c>
       <c r="F117" t="n">
-        <v>4265.3751</v>
+        <v>5423.1604</v>
       </c>
       <c r="G117" t="n">
-        <v>33.69999999999997</v>
+        <v>33.75499999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4867,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4881,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C118" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="D118" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="E118" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="F118" t="n">
-        <v>44164.1395</v>
+        <v>4265.3751</v>
       </c>
       <c r="G118" t="n">
-        <v>33.44999999999997</v>
+        <v>33.76333333333331</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4906,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4920,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="C119" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="D119" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="E119" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="F119" t="n">
-        <v>15</v>
+        <v>44164.1395</v>
       </c>
       <c r="G119" t="n">
-        <v>33.39999999999997</v>
+        <v>33.75333333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4945,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4959,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="C120" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="D120" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="E120" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="F120" t="n">
-        <v>41713.6643</v>
+        <v>15</v>
       </c>
       <c r="G120" t="n">
-        <v>33.39999999999997</v>
+        <v>33.75166666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4984,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4998,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C121" t="n">
         <v>33.2</v>
       </c>
-      <c r="C121" t="n">
-        <v>33.1</v>
-      </c>
       <c r="D121" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E121" t="n">
         <v>33.2</v>
       </c>
-      <c r="E121" t="n">
-        <v>33.1</v>
-      </c>
       <c r="F121" t="n">
-        <v>9457.441999999999</v>
+        <v>41713.6643</v>
       </c>
       <c r="G121" t="n">
-        <v>33.14999999999998</v>
+        <v>33.74999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +5023,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +5037,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="C122" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="D122" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="E122" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="F122" t="n">
-        <v>48.3537</v>
+        <v>9457.441999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>33.34999999999997</v>
+        <v>33.74333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +5062,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +5076,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="C123" t="n">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="D123" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="E123" t="n">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="F123" t="n">
-        <v>121533.8138</v>
+        <v>48.3537</v>
       </c>
       <c r="G123" t="n">
-        <v>33.34999999999998</v>
+        <v>33.74499999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +5101,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +5115,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C124" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="D124" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E124" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>121533.8138</v>
       </c>
       <c r="G124" t="n">
-        <v>33.29999999999998</v>
+        <v>33.73499999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +5140,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,7 +5154,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C125" t="n">
         <v>33.5</v>
@@ -4747,13 +5163,13 @@
         <v>33.5</v>
       </c>
       <c r="E125" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="F125" t="n">
-        <v>120.3894</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>33.49999999999999</v>
+        <v>33.72999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +5179,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +5193,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C126" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="D126" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E126" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="F126" t="n">
-        <v>60</v>
+        <v>120.3894</v>
       </c>
       <c r="G126" t="n">
-        <v>33.39999999999998</v>
+        <v>33.72833333333332</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +5218,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +5232,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C127" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="D127" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E127" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F127" t="n">
-        <v>51235</v>
+        <v>60</v>
       </c>
       <c r="G127" t="n">
-        <v>33.24999999999999</v>
+        <v>33.72499999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +5257,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +5271,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C128" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D128" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E128" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F128" t="n">
-        <v>540</v>
+        <v>51235</v>
       </c>
       <c r="G128" t="n">
-        <v>33.14999999999998</v>
+        <v>33.71833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +5296,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4890,10 +5322,10 @@
         <v>33.1</v>
       </c>
       <c r="F129" t="n">
-        <v>83218.08930000001</v>
+        <v>540</v>
       </c>
       <c r="G129" t="n">
-        <v>33.09999999999999</v>
+        <v>33.70333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,7 +5335,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5349,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C130" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="D130" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="E130" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="F130" t="n">
-        <v>17</v>
+        <v>83218.08930000001</v>
       </c>
       <c r="G130" t="n">
-        <v>33.24999999999999</v>
+        <v>33.68833333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,7 +5374,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5388,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="C131" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="D131" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="E131" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="F131" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G131" t="n">
-        <v>33.29999999999998</v>
+        <v>33.67833333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,7 +5413,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4986,19 +5430,19 @@
         <v>33.2</v>
       </c>
       <c r="C132" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D132" t="n">
         <v>33.2</v>
       </c>
       <c r="E132" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F132" t="n">
-        <v>138770.7008</v>
+        <v>32</v>
       </c>
       <c r="G132" t="n">
-        <v>33.14999999999998</v>
+        <v>33.65999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,7 +5452,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5466,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C133" t="n">
         <v>33.1</v>
       </c>
       <c r="D133" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E133" t="n">
         <v>33.1</v>
       </c>
       <c r="F133" t="n">
-        <v>5655.8455</v>
+        <v>138770.7008</v>
       </c>
       <c r="G133" t="n">
-        <v>33.09999999999997</v>
+        <v>33.63666666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,7 +5491,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5505,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="C134" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="D134" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E134" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="F134" t="n">
-        <v>3656.7169</v>
+        <v>5655.8455</v>
       </c>
       <c r="G134" t="n">
-        <v>33.14999999999998</v>
+        <v>33.61999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,7 +5530,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5100,10 +5556,10 @@
         <v>33.2</v>
       </c>
       <c r="F135" t="n">
-        <v>33150.2759</v>
+        <v>3656.7169</v>
       </c>
       <c r="G135" t="n">
-        <v>33.19999999999997</v>
+        <v>33.59833333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,7 +5569,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5583,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C136" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D136" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E136" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F136" t="n">
-        <v>1479.29</v>
+        <v>33150.2759</v>
       </c>
       <c r="G136" t="n">
-        <v>33.14999999999997</v>
+        <v>33.58333333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,7 +5608,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5170,10 +5634,10 @@
         <v>33.1</v>
       </c>
       <c r="F137" t="n">
-        <v>13117.6926</v>
+        <v>1479.29</v>
       </c>
       <c r="G137" t="n">
-        <v>33.09999999999997</v>
+        <v>33.56333333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,7 +5647,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5661,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="C138" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D138" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E138" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F138" t="n">
-        <v>16923.5926</v>
+        <v>13117.6926</v>
       </c>
       <c r="G138" t="n">
-        <v>33.04999999999997</v>
+        <v>33.54666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,7 +5686,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5700,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="C139" t="n">
         <v>33</v>
       </c>
       <c r="D139" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="E139" t="n">
         <v>33</v>
       </c>
       <c r="F139" t="n">
-        <v>10192.3949</v>
+        <v>16923.5926</v>
       </c>
       <c r="G139" t="n">
-        <v>32.99999999999997</v>
+        <v>33.52666666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,7 +5725,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5275,10 +5751,10 @@
         <v>33</v>
       </c>
       <c r="F140" t="n">
-        <v>2917.8415</v>
+        <v>10192.3949</v>
       </c>
       <c r="G140" t="n">
-        <v>32.99999999999997</v>
+        <v>33.50833333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,7 +5764,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5310,10 +5790,10 @@
         <v>33</v>
       </c>
       <c r="F141" t="n">
-        <v>1356.0623</v>
+        <v>2917.8415</v>
       </c>
       <c r="G141" t="n">
-        <v>32.99999999999997</v>
+        <v>33.49499999999998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5803,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5345,10 +5829,10 @@
         <v>33</v>
       </c>
       <c r="F142" t="n">
-        <v>4173.9338</v>
+        <v>1356.0623</v>
       </c>
       <c r="G142" t="n">
-        <v>32.99999999999997</v>
+        <v>33.47666666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5842,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5380,10 +5868,10 @@
         <v>33</v>
       </c>
       <c r="F143" t="n">
-        <v>1949.5816</v>
+        <v>4173.9338</v>
       </c>
       <c r="G143" t="n">
-        <v>32.99999999999997</v>
+        <v>33.45833333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5881,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5415,10 +5907,10 @@
         <v>33</v>
       </c>
       <c r="F144" t="n">
-        <v>1356.0622</v>
+        <v>1949.5816</v>
       </c>
       <c r="G144" t="n">
-        <v>32.99999999999997</v>
+        <v>33.44666666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5920,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5441,19 +5937,19 @@
         <v>33</v>
       </c>
       <c r="C145" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D145" t="n">
         <v>33</v>
       </c>
       <c r="E145" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F145" t="n">
-        <v>39415.7915</v>
+        <v>1356.0622</v>
       </c>
       <c r="G145" t="n">
-        <v>32.94999999999997</v>
+        <v>33.44166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5959,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5973,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C146" t="n">
         <v>32.9</v>
       </c>
       <c r="D146" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E146" t="n">
         <v>32.9</v>
       </c>
       <c r="F146" t="n">
-        <v>2881.0063</v>
+        <v>39415.7915</v>
       </c>
       <c r="G146" t="n">
-        <v>32.89999999999998</v>
+        <v>33.43333333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5998,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +6012,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="C147" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="D147" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="E147" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F147" t="n">
-        <v>16</v>
+        <v>2881.0063</v>
       </c>
       <c r="G147" t="n">
-        <v>33.04999999999998</v>
+        <v>33.42499999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +6037,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +6051,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="C148" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="D148" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="E148" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="F148" t="n">
-        <v>89164.0003</v>
+        <v>16</v>
       </c>
       <c r="G148" t="n">
-        <v>32.99999999999999</v>
+        <v>33.42333333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +6076,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +6090,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C149" t="n">
         <v>32.8</v>
       </c>
-      <c r="C149" t="n">
-        <v>32.7</v>
-      </c>
       <c r="D149" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E149" t="n">
         <v>32.8</v>
       </c>
-      <c r="E149" t="n">
-        <v>32.7</v>
-      </c>
       <c r="F149" t="n">
-        <v>143106.5837</v>
+        <v>89164.0003</v>
       </c>
       <c r="G149" t="n">
-        <v>32.74999999999999</v>
+        <v>33.40833333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +6115,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +6129,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C150" t="n">
         <v>32.7</v>
       </c>
-      <c r="C150" t="n">
-        <v>33.2</v>
-      </c>
       <c r="D150" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="E150" t="n">
         <v>32.7</v>
       </c>
       <c r="F150" t="n">
-        <v>74083.2141</v>
+        <v>143106.5837</v>
       </c>
       <c r="G150" t="n">
-        <v>32.94999999999999</v>
+        <v>33.38333333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,7 +6154,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5651,19 +6171,19 @@
         <v>32.7</v>
       </c>
       <c r="C151" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="D151" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="E151" t="n">
         <v>32.7</v>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>74083.2141</v>
       </c>
       <c r="G151" t="n">
-        <v>32.94999999999999</v>
+        <v>33.36833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +6193,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5695,10 +6219,10 @@
         <v>32.7</v>
       </c>
       <c r="F152" t="n">
-        <v>532</v>
+        <v>20</v>
       </c>
       <c r="G152" t="n">
-        <v>32.69999999999999</v>
+        <v>33.35166666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,7 +6232,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5730,10 +6258,10 @@
         <v>32.7</v>
       </c>
       <c r="F153" t="n">
-        <v>2171.5641</v>
+        <v>532</v>
       </c>
       <c r="G153" t="n">
-        <v>32.69999999999999</v>
+        <v>33.32833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,7 +6271,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5756,19 +6288,19 @@
         <v>32.7</v>
       </c>
       <c r="C154" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D154" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="E154" t="n">
         <v>32.7</v>
       </c>
       <c r="F154" t="n">
-        <v>570</v>
+        <v>2171.5641</v>
       </c>
       <c r="G154" t="n">
-        <v>32.84999999999999</v>
+        <v>33.30499999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,7 +6310,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,7 +6324,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="C155" t="n">
         <v>33</v>
@@ -5797,13 +6333,13 @@
         <v>33</v>
       </c>
       <c r="E155" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F155" t="n">
-        <v>2028.5682</v>
+        <v>570</v>
       </c>
       <c r="G155" t="n">
-        <v>32.99999999999999</v>
+        <v>33.29499999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,7 +6349,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5823,22 +6363,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="C156" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D156" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="E156" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="F156" t="n">
-        <v>15007.6471</v>
+        <v>2028.5682</v>
       </c>
       <c r="G156" t="n">
-        <v>32.84999999999999</v>
+        <v>33.28666666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,7 +6388,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,22 +6402,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="C157" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D157" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="E157" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F157" t="n">
-        <v>16</v>
+        <v>15007.6471</v>
       </c>
       <c r="G157" t="n">
-        <v>32.84999999999999</v>
+        <v>33.26666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,7 +6427,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,36 +6441,36 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="C158" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D158" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="E158" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="F158" t="n">
-        <v>44688.3078</v>
+        <v>16</v>
       </c>
       <c r="G158" t="n">
-        <v>32.84999999999999</v>
+        <v>33.25333333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>33</v>
-      </c>
-      <c r="K158" t="n">
-        <v>33</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5944,10 +6492,10 @@
         <v>32.7</v>
       </c>
       <c r="F159" t="n">
-        <v>267</v>
+        <v>44688.3078</v>
       </c>
       <c r="G159" t="n">
-        <v>32.69999999999999</v>
+        <v>33.235</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5956,12 +6504,10 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>33</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -5976,35 +6522,31 @@
         <v>32.7</v>
       </c>
       <c r="C160" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D160" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="E160" t="n">
         <v>32.7</v>
       </c>
       <c r="F160" t="n">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="G160" t="n">
-        <v>32.84999999999999</v>
+        <v>33.21666666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K160" t="n">
-        <v>33</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -6016,10 +6558,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="C161" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D161" t="n">
         <v>33</v>
@@ -6028,10 +6570,10 @@
         <v>32.7</v>
       </c>
       <c r="F161" t="n">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="G161" t="n">
-        <v>32.84999999999999</v>
+        <v>33.205</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6040,9 +6582,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>33</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6057,22 +6597,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="C162" t="n">
         <v>32.7</v>
       </c>
       <c r="D162" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="E162" t="n">
         <v>32.7</v>
       </c>
       <c r="F162" t="n">
-        <v>1885.9987</v>
+        <v>108</v>
       </c>
       <c r="G162" t="n">
-        <v>32.69999999999999</v>
+        <v>33.19333333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6081,9 +6621,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>33</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6098,22 +6636,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C163" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D163" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E163" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F163" t="n">
-        <v>3082.4286</v>
+        <v>1885.9987</v>
       </c>
       <c r="G163" t="n">
-        <v>32.64999999999998</v>
+        <v>33.18166666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6122,9 +6660,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>33</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,19 +6678,19 @@
         <v>32.6</v>
       </c>
       <c r="C164" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="D164" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="E164" t="n">
         <v>32.6</v>
       </c>
       <c r="F164" t="n">
-        <v>5193.2894</v>
+        <v>3082.4286</v>
       </c>
       <c r="G164" t="n">
-        <v>32.64999999999998</v>
+        <v>33.16833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6163,9 +6699,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>33</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6180,10 +6714,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C165" t="n">
         <v>32.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>32.6</v>
       </c>
       <c r="D165" t="n">
         <v>32.7</v>
@@ -6192,10 +6726,10 @@
         <v>32.6</v>
       </c>
       <c r="F165" t="n">
-        <v>53932.5655</v>
+        <v>5193.2894</v>
       </c>
       <c r="G165" t="n">
-        <v>32.64999999999999</v>
+        <v>33.15666666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6204,9 +6738,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>33</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6221,22 +6753,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C166" t="n">
         <v>32.6</v>
       </c>
       <c r="D166" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E166" t="n">
         <v>32.6</v>
       </c>
       <c r="F166" t="n">
-        <v>8308.799300000001</v>
+        <v>53932.5655</v>
       </c>
       <c r="G166" t="n">
-        <v>32.59999999999999</v>
+        <v>33.14166666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6245,9 +6777,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>33</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6274,10 +6804,10 @@
         <v>32.6</v>
       </c>
       <c r="F167" t="n">
-        <v>382.25</v>
+        <v>8308.799300000001</v>
       </c>
       <c r="G167" t="n">
-        <v>32.59999999999999</v>
+        <v>33.12833333333332</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6286,9 +6816,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>33</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,10 +6843,10 @@
         <v>32.6</v>
       </c>
       <c r="F168" t="n">
-        <v>791</v>
+        <v>382.25</v>
       </c>
       <c r="G168" t="n">
-        <v>32.59999999999999</v>
+        <v>33.11666666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6327,9 +6855,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>33</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,10 +6882,10 @@
         <v>32.6</v>
       </c>
       <c r="F169" t="n">
-        <v>2028.5682</v>
+        <v>791</v>
       </c>
       <c r="G169" t="n">
-        <v>32.59999999999999</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6368,9 +6894,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>33</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6388,19 +6912,19 @@
         <v>32.6</v>
       </c>
       <c r="C170" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="D170" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="E170" t="n">
         <v>32.6</v>
       </c>
       <c r="F170" t="n">
-        <v>4925.3727</v>
+        <v>2028.5682</v>
       </c>
       <c r="G170" t="n">
-        <v>32.69999999999999</v>
+        <v>33.08166666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6409,9 +6933,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>33</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,19 +6951,19 @@
         <v>32.6</v>
       </c>
       <c r="C171" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="D171" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E171" t="n">
         <v>32.6</v>
       </c>
       <c r="F171" t="n">
-        <v>16229.8765</v>
+        <v>4925.3727</v>
       </c>
       <c r="G171" t="n">
-        <v>32.69999999999999</v>
+        <v>33.06666666666665</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6450,9 +6972,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>33</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,22 +6987,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="C172" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D172" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E172" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="F172" t="n">
-        <v>2984.34385653</v>
+        <v>16229.8765</v>
       </c>
       <c r="G172" t="n">
-        <v>32.74999999999999</v>
+        <v>33.04666666666665</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6491,9 +7011,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>33</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6508,22 +7026,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C173" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="D173" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="E173" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="F173" t="n">
-        <v>3783.7971</v>
+        <v>2984.34385653</v>
       </c>
       <c r="G173" t="n">
-        <v>32.75</v>
+        <v>33.03666666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6532,9 +7050,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>33</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,19 +7068,19 @@
         <v>32.7</v>
       </c>
       <c r="C174" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="D174" t="n">
         <v>32.7</v>
       </c>
       <c r="E174" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F174" t="n">
-        <v>2859.4152</v>
+        <v>3783.7971</v>
       </c>
       <c r="G174" t="n">
-        <v>32.65000000000001</v>
+        <v>33.02166666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6573,9 +7089,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>33</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6602,10 +7116,10 @@
         <v>32.7</v>
       </c>
       <c r="F175" t="n">
-        <v>30012.1167</v>
+        <v>2859.4152</v>
       </c>
       <c r="G175" t="n">
-        <v>32.7</v>
+        <v>33.00499999999998</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6614,9 +7128,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>33</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6643,10 +7155,10 @@
         <v>32.7</v>
       </c>
       <c r="F176" t="n">
-        <v>28588.9688</v>
+        <v>30012.1167</v>
       </c>
       <c r="G176" t="n">
-        <v>32.7</v>
+        <v>32.98666666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6655,9 +7167,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>33</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,22 +7182,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="C177" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="D177" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="E177" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F177" t="n">
-        <v>14958.6807</v>
+        <v>28588.9688</v>
       </c>
       <c r="G177" t="n">
-        <v>32.9</v>
+        <v>32.96999999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6696,9 +7206,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>33</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,22 +7221,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="C178" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="D178" t="n">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="E178" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="F178" t="n">
-        <v>1236.9914</v>
+        <v>14958.6807</v>
       </c>
       <c r="G178" t="n">
-        <v>33.3</v>
+        <v>32.95999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6737,9 +7245,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>33</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,10 +7272,10 @@
         <v>33.5</v>
       </c>
       <c r="F179" t="n">
-        <v>3463.6706</v>
+        <v>1236.9914</v>
       </c>
       <c r="G179" t="n">
-        <v>33.5</v>
+        <v>32.96499999999998</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6778,9 +7284,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>33</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,19 +7302,19 @@
         <v>33.5</v>
       </c>
       <c r="C180" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="D180" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="E180" t="n">
         <v>33.5</v>
       </c>
       <c r="F180" t="n">
-        <v>157715.97335918</v>
+        <v>3463.6706</v>
       </c>
       <c r="G180" t="n">
-        <v>33.65</v>
+        <v>32.96333333333332</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6819,9 +7323,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>33</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6836,22 +7338,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="C181" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="D181" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="E181" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="F181" t="n">
-        <v>191366.7771</v>
+        <v>157715.97335918</v>
       </c>
       <c r="G181" t="n">
-        <v>33.9</v>
+        <v>32.97333333333331</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6860,9 +7362,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>33</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,22 +7377,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C182" t="n">
         <v>34</v>
       </c>
-      <c r="C182" t="n">
-        <v>33.8</v>
-      </c>
       <c r="D182" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E182" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="F182" t="n">
-        <v>8456.400299999999</v>
+        <v>191366.7771</v>
       </c>
       <c r="G182" t="n">
-        <v>33.9</v>
+        <v>32.98833333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6901,9 +7401,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>33</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6921,19 +7419,19 @@
         <v>34</v>
       </c>
       <c r="C183" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="D183" t="n">
         <v>34</v>
       </c>
       <c r="E183" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="F183" t="n">
-        <v>21535.6726</v>
+        <v>8456.400299999999</v>
       </c>
       <c r="G183" t="n">
-        <v>33.9</v>
+        <v>32.99166666666665</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6942,9 +7440,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>33</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,22 +7455,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C184" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D184" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E184" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="F184" t="n">
-        <v>37122.4091</v>
+        <v>21535.6726</v>
       </c>
       <c r="G184" t="n">
-        <v>34.05</v>
+        <v>33.00666666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6983,9 +7479,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>33</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,7 +7497,7 @@
         <v>34.1</v>
       </c>
       <c r="C185" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="D185" t="n">
         <v>34.1</v>
@@ -7012,10 +7506,10 @@
         <v>33.8</v>
       </c>
       <c r="F185" t="n">
-        <v>24523.9404</v>
+        <v>37122.4091</v>
       </c>
       <c r="G185" t="n">
-        <v>34</v>
+        <v>33.01666666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7024,9 +7518,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>33</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,19 +7536,19 @@
         <v>34.1</v>
       </c>
       <c r="C186" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="D186" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E186" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F186" t="n">
-        <v>10303.3511</v>
+        <v>24523.9404</v>
       </c>
       <c r="G186" t="n">
-        <v>34.05</v>
+        <v>33.02333333333332</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7065,9 +7557,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>33</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,7 +7572,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="C187" t="n">
         <v>34.2</v>
@@ -7094,10 +7584,10 @@
         <v>34.1</v>
       </c>
       <c r="F187" t="n">
-        <v>113189.17270117</v>
+        <v>10303.3511</v>
       </c>
       <c r="G187" t="n">
-        <v>34.2</v>
+        <v>33.03833333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7106,9 +7596,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>33</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7123,22 +7611,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="C188" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="D188" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="E188" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F188" t="n">
-        <v>105383.0255</v>
+        <v>113189.17270117</v>
       </c>
       <c r="G188" t="n">
-        <v>34.4</v>
+        <v>33.05499999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7147,9 +7635,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>33</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,19 +7653,19 @@
         <v>34.4</v>
       </c>
       <c r="C189" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D189" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E189" t="n">
         <v>34.4</v>
       </c>
       <c r="F189" t="n">
-        <v>290.14534883</v>
+        <v>105383.0255</v>
       </c>
       <c r="G189" t="n">
-        <v>34.49999999999999</v>
+        <v>33.07999999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7188,9 +7674,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>33</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7205,22 +7689,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="C190" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D190" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E190" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="F190" t="n">
-        <v>774.8323</v>
+        <v>290.14534883</v>
       </c>
       <c r="G190" t="n">
-        <v>34.3</v>
+        <v>33.10166666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7229,17 +7713,13 @@
         <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>33</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1.031363636363636</v>
-      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7258,16 +7738,16 @@
         <v>34.2</v>
       </c>
       <c r="F191" t="n">
-        <v>43565.3629</v>
+        <v>774.8323</v>
       </c>
       <c r="G191" t="n">
-        <v>34.2</v>
+        <v>33.11499999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7281,28 +7761,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="C192" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="D192" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="E192" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="F192" t="n">
-        <v>55</v>
+        <v>43565.3629</v>
       </c>
       <c r="G192" t="n">
-        <v>34.3</v>
+        <v>33.13166666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7316,28 +7796,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C193" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D193" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E193" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F193" t="n">
-        <v>37.4469</v>
+        <v>55</v>
       </c>
       <c r="G193" t="n">
-        <v>34.35</v>
+        <v>33.15333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7351,22 +7831,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C194" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D194" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E194" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F194" t="n">
-        <v>170</v>
+        <v>37.4469</v>
       </c>
       <c r="G194" t="n">
-        <v>34.25</v>
+        <v>33.17333333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7386,22 +7866,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="C195" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D195" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E195" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="F195" t="n">
-        <v>23752.983</v>
+        <v>170</v>
       </c>
       <c r="G195" t="n">
-        <v>34.15</v>
+        <v>33.18999999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7421,7 +7901,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="C196" t="n">
         <v>34.1</v>
@@ -7430,13 +7910,13 @@
         <v>34.1</v>
       </c>
       <c r="E196" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="F196" t="n">
-        <v>147.4691</v>
+        <v>23752.983</v>
       </c>
       <c r="G196" t="n">
-        <v>34.1</v>
+        <v>33.20499999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7456,22 +7936,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="C197" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="D197" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="E197" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="F197" t="n">
-        <v>5054.4968</v>
+        <v>147.4691</v>
       </c>
       <c r="G197" t="n">
-        <v>33.95</v>
+        <v>33.22166666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7491,22 +7971,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="C198" t="n">
-        <v>32.9</v>
+        <v>33.8</v>
       </c>
       <c r="D198" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="E198" t="n">
-        <v>32.9</v>
+        <v>33.8</v>
       </c>
       <c r="F198" t="n">
-        <v>101249.4431</v>
+        <v>5054.4968</v>
       </c>
       <c r="G198" t="n">
-        <v>33.35000000000001</v>
+        <v>33.23333333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7526,22 +8006,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="C199" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D199" t="n">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="E199" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F199" t="n">
-        <v>7545.4234</v>
+        <v>101249.4431</v>
       </c>
       <c r="G199" t="n">
-        <v>32.95000000000001</v>
+        <v>33.23166666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7561,22 +8041,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="C200" t="n">
         <v>33</v>
       </c>
       <c r="D200" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="E200" t="n">
         <v>33</v>
       </c>
       <c r="F200" t="n">
-        <v>20024.5301</v>
+        <v>7545.4234</v>
       </c>
       <c r="G200" t="n">
-        <v>33.00000000000001</v>
+        <v>33.23166666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7596,22 +8076,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="C201" t="n">
-        <v>33.7</v>
+        <v>33</v>
       </c>
       <c r="D201" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="E201" t="n">
-        <v>33.7</v>
+        <v>33</v>
       </c>
       <c r="F201" t="n">
-        <v>15</v>
+        <v>20024.5301</v>
       </c>
       <c r="G201" t="n">
-        <v>33.35000000000002</v>
+        <v>33.23166666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7631,22 +8111,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="C202" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="D202" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="E202" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="F202" t="n">
-        <v>667.2548</v>
+        <v>15</v>
       </c>
       <c r="G202" t="n">
-        <v>33.40000000000002</v>
+        <v>33.24333333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7678,10 +8158,10 @@
         <v>33.1</v>
       </c>
       <c r="F203" t="n">
-        <v>17919.637</v>
+        <v>667.2548</v>
       </c>
       <c r="G203" t="n">
-        <v>33.10000000000002</v>
+        <v>33.24499999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7713,10 +8193,10 @@
         <v>33.1</v>
       </c>
       <c r="F204" t="n">
-        <v>17276.2571</v>
+        <v>17919.637</v>
       </c>
       <c r="G204" t="n">
-        <v>33.10000000000002</v>
+        <v>33.24666666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7748,10 +8228,10 @@
         <v>33.1</v>
       </c>
       <c r="F205" t="n">
-        <v>17597</v>
+        <v>17276.2571</v>
       </c>
       <c r="G205" t="n">
-        <v>33.10000000000002</v>
+        <v>33.24833333333332</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7774,19 +8254,19 @@
         <v>33.1</v>
       </c>
       <c r="C206" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="D206" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="E206" t="n">
         <v>33.1</v>
       </c>
       <c r="F206" t="n">
-        <v>789.1798</v>
+        <v>17597</v>
       </c>
       <c r="G206" t="n">
-        <v>33.20000000000002</v>
+        <v>33.25166666666665</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7806,22 +8286,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C207" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="D207" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="E207" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="F207" t="n">
-        <v>36466.4056</v>
+        <v>789.1798</v>
       </c>
       <c r="G207" t="n">
-        <v>33.10000000000002</v>
+        <v>33.25833333333332</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7841,22 +8321,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C208" t="n">
         <v>32.9</v>
       </c>
       <c r="D208" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E208" t="n">
         <v>32.9</v>
       </c>
       <c r="F208" t="n">
-        <v>18189.8169</v>
+        <v>36466.4056</v>
       </c>
       <c r="G208" t="n">
-        <v>32.90000000000003</v>
+        <v>33.25333333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7876,22 +8356,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C209" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D209" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E209" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F209" t="n">
-        <v>6690.9595</v>
+        <v>18189.8169</v>
       </c>
       <c r="G209" t="n">
-        <v>32.85000000000002</v>
+        <v>33.25499999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7911,22 +8391,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="C210" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D210" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="E210" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="F210" t="n">
-        <v>16</v>
+        <v>6690.9595</v>
       </c>
       <c r="G210" t="n">
-        <v>32.90000000000002</v>
+        <v>33.25666666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7958,10 +8438,10 @@
         <v>33</v>
       </c>
       <c r="F211" t="n">
-        <v>4915.1</v>
+        <v>16</v>
       </c>
       <c r="G211" t="n">
-        <v>33.00000000000002</v>
+        <v>33.25333333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7981,22 +8461,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C212" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D212" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E212" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F212" t="n">
-        <v>100</v>
+        <v>4915.1</v>
       </c>
       <c r="G212" t="n">
-        <v>32.95000000000002</v>
+        <v>33.25833333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8016,22 +8496,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C213" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D213" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E213" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F213" t="n">
-        <v>1928.711</v>
+        <v>100</v>
       </c>
       <c r="G213" t="n">
-        <v>32.95000000000002</v>
+        <v>33.26166666666665</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8063,10 +8543,10 @@
         <v>33</v>
       </c>
       <c r="F214" t="n">
-        <v>6656.8602</v>
+        <v>1928.711</v>
       </c>
       <c r="G214" t="n">
-        <v>33.00000000000001</v>
+        <v>33.26666666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8086,22 +8566,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C215" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D215" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E215" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F215" t="n">
-        <v>57564.3313</v>
+        <v>6656.8602</v>
       </c>
       <c r="G215" t="n">
-        <v>32.95000000000002</v>
+        <v>33.26666666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8121,22 +8601,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C216" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D216" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E216" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F216" t="n">
-        <v>9976.193799999999</v>
+        <v>57564.3313</v>
       </c>
       <c r="G216" t="n">
-        <v>32.85000000000002</v>
+        <v>33.26499999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8168,10 +8648,10 @@
         <v>32.8</v>
       </c>
       <c r="F217" t="n">
-        <v>1231.6905</v>
+        <v>9976.193799999999</v>
       </c>
       <c r="G217" t="n">
-        <v>32.80000000000001</v>
+        <v>33.26666666666665</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8191,22 +8671,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="C218" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D218" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="E218" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="F218" t="n">
-        <v>4884.733</v>
+        <v>1231.6905</v>
       </c>
       <c r="G218" t="n">
-        <v>32.90000000000001</v>
+        <v>33.26333333333331</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8226,22 +8706,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="C219" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D219" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="E219" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="F219" t="n">
-        <v>3566.3238</v>
+        <v>4884.733</v>
       </c>
       <c r="G219" t="n">
-        <v>32.90000000000001</v>
+        <v>33.26833333333332</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8273,10 +8753,10 @@
         <v>32.8</v>
       </c>
       <c r="F220" t="n">
-        <v>16944.4275</v>
+        <v>3566.3238</v>
       </c>
       <c r="G220" t="n">
-        <v>32.80000000000001</v>
+        <v>33.26999999999998</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8299,35 +8779,29 @@
         <v>32.8</v>
       </c>
       <c r="C221" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D221" t="n">
         <v>32.8</v>
       </c>
       <c r="E221" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F221" t="n">
-        <v>40801.1767</v>
+        <v>16944.4275</v>
       </c>
       <c r="G221" t="n">
-        <v>32.75000000000001</v>
+        <v>33.26666666666664</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8337,38 +8811,32 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C222" t="n">
         <v>32.7</v>
       </c>
       <c r="D222" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E222" t="n">
         <v>32.7</v>
       </c>
       <c r="F222" t="n">
-        <v>15461.0958</v>
+        <v>40801.1767</v>
       </c>
       <c r="G222" t="n">
-        <v>32.70000000000002</v>
+        <v>33.26666666666664</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8390,26 +8858,20 @@
         <v>32.7</v>
       </c>
       <c r="F223" t="n">
-        <v>1236.9914</v>
+        <v>15461.0958</v>
       </c>
       <c r="G223" t="n">
-        <v>32.70000000000002</v>
+        <v>33.26666666666664</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8419,38 +8881,32 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C224" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="D224" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E224" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="F224" t="n">
-        <v>881.4068</v>
+        <v>1236.9914</v>
       </c>
       <c r="G224" t="n">
-        <v>32.75000000000001</v>
+        <v>33.26833333333332</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8472,26 +8928,20 @@
         <v>32.8</v>
       </c>
       <c r="F225" t="n">
-        <v>9051.571900000001</v>
+        <v>881.4068</v>
       </c>
       <c r="G225" t="n">
-        <v>32.80000000000001</v>
+        <v>33.26999999999998</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8513,26 +8963,20 @@
         <v>32.8</v>
       </c>
       <c r="F226" t="n">
-        <v>37046.0131</v>
+        <v>9051.571900000001</v>
       </c>
       <c r="G226" t="n">
-        <v>32.80000000000001</v>
+        <v>33.27333333333332</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8554,26 +8998,20 @@
         <v>32.8</v>
       </c>
       <c r="F227" t="n">
-        <v>13536.5885</v>
+        <v>37046.0131</v>
       </c>
       <c r="G227" t="n">
-        <v>32.80000000000001</v>
+        <v>33.27666666666665</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8583,38 +9021,32 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C228" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D228" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="E228" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F228" t="n">
-        <v>622.9994</v>
+        <v>13536.5885</v>
       </c>
       <c r="G228" t="n">
-        <v>32.85000000000002</v>
+        <v>33.27999999999999</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8624,38 +9056,32 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C229" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D229" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E229" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F229" t="n">
-        <v>12471.5368</v>
+        <v>622.9994</v>
       </c>
       <c r="G229" t="n">
-        <v>32.85000000000002</v>
+        <v>33.28499999999999</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8665,38 +9091,32 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C230" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D230" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="E230" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F230" t="n">
-        <v>3410.971</v>
+        <v>12471.5368</v>
       </c>
       <c r="G230" t="n">
-        <v>32.85000000000001</v>
+        <v>33.28833333333332</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8718,10 +9138,10 @@
         <v>32.9</v>
       </c>
       <c r="F231" t="n">
-        <v>622.9994</v>
+        <v>3410.971</v>
       </c>
       <c r="G231" t="n">
-        <v>32.90000000000001</v>
+        <v>33.28999999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8731,11 +9151,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8745,22 +9161,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C232" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D232" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E232" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F232" t="n">
-        <v>25973.2878</v>
+        <v>622.9994</v>
       </c>
       <c r="G232" t="n">
-        <v>32.95000000000002</v>
+        <v>33.29499999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8770,11 +9186,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8796,10 +9208,10 @@
         <v>33</v>
       </c>
       <c r="F233" t="n">
-        <v>946.3723</v>
+        <v>25973.2878</v>
       </c>
       <c r="G233" t="n">
-        <v>33.00000000000001</v>
+        <v>33.29666666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8809,11 +9221,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8826,19 +9234,19 @@
         <v>33</v>
       </c>
       <c r="C234" t="n">
-        <v>33.7</v>
+        <v>33</v>
       </c>
       <c r="D234" t="n">
-        <v>33.7</v>
+        <v>33</v>
       </c>
       <c r="E234" t="n">
         <v>33</v>
       </c>
       <c r="F234" t="n">
-        <v>1070</v>
+        <v>946.3723</v>
       </c>
       <c r="G234" t="n">
-        <v>33.35000000000002</v>
+        <v>33.30333333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8848,11 +9256,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8862,22 +9266,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C235" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="D235" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="E235" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F235" t="n">
-        <v>703.1317</v>
+        <v>1070</v>
       </c>
       <c r="G235" t="n">
-        <v>33.40000000000002</v>
+        <v>33.31999999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8887,11 +9291,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8913,10 +9313,10 @@
         <v>33.1</v>
       </c>
       <c r="F236" t="n">
-        <v>60.07</v>
+        <v>703.1317</v>
       </c>
       <c r="G236" t="n">
-        <v>33.10000000000002</v>
+        <v>33.32666666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8926,11 +9326,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8952,10 +9348,10 @@
         <v>33.1</v>
       </c>
       <c r="F237" t="n">
-        <v>242.3325</v>
+        <v>60.07</v>
       </c>
       <c r="G237" t="n">
-        <v>33.10000000000002</v>
+        <v>33.33333333333332</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8965,11 +9361,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8979,22 +9371,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C238" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="D238" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E238" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="F238" t="n">
-        <v>17729.6176</v>
+        <v>242.3325</v>
       </c>
       <c r="G238" t="n">
-        <v>33.00000000000003</v>
+        <v>33.33333333333332</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9004,11 +9396,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9018,10 +9406,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>33</v>
+      </c>
+      <c r="C239" t="n">
         <v>32.9</v>
-      </c>
-      <c r="C239" t="n">
-        <v>33</v>
       </c>
       <c r="D239" t="n">
         <v>33</v>
@@ -9030,10 +9418,10 @@
         <v>32.9</v>
       </c>
       <c r="F239" t="n">
-        <v>7900</v>
+        <v>17729.6176</v>
       </c>
       <c r="G239" t="n">
-        <v>32.95000000000003</v>
+        <v>33.32333333333332</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9043,11 +9431,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9057,22 +9441,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C240" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D240" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="E240" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F240" t="n">
-        <v>139252.221</v>
+        <v>7900</v>
       </c>
       <c r="G240" t="n">
-        <v>32.90000000000003</v>
+        <v>33.31499999999999</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9082,11 +9466,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9108,10 +9488,10 @@
         <v>32.8</v>
       </c>
       <c r="F241" t="n">
-        <v>801.8789</v>
+        <v>139252.221</v>
       </c>
       <c r="G241" t="n">
-        <v>32.80000000000003</v>
+        <v>33.29833333333332</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9121,11 +9501,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9135,22 +9511,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="C242" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D242" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="E242" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="F242" t="n">
-        <v>16</v>
+        <v>801.8789</v>
       </c>
       <c r="G242" t="n">
-        <v>32.90000000000003</v>
+        <v>33.27833333333332</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9160,11 +9536,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9177,19 +9549,19 @@
         <v>33</v>
       </c>
       <c r="C243" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D243" t="n">
         <v>33</v>
       </c>
       <c r="E243" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F243" t="n">
-        <v>56442.2333</v>
+        <v>16</v>
       </c>
       <c r="G243" t="n">
-        <v>32.95000000000004</v>
+        <v>33.26499999999999</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9199,11 +9571,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9213,22 +9581,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C244" t="n">
         <v>32.9</v>
       </c>
       <c r="D244" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E244" t="n">
         <v>32.9</v>
       </c>
       <c r="F244" t="n">
-        <v>77727.7377</v>
+        <v>56442.2333</v>
       </c>
       <c r="G244" t="n">
-        <v>32.90000000000003</v>
+        <v>33.24666666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9238,11 +9606,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9264,10 +9628,10 @@
         <v>32.9</v>
       </c>
       <c r="F245" t="n">
-        <v>625.9188</v>
+        <v>77727.7377</v>
       </c>
       <c r="G245" t="n">
-        <v>32.90000000000003</v>
+        <v>33.22666666666666</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9277,11 +9641,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9291,22 +9651,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C246" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D246" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E246" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F246" t="n">
-        <v>7035.1692</v>
+        <v>625.9188</v>
       </c>
       <c r="G246" t="n">
-        <v>32.85000000000004</v>
+        <v>33.20999999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9316,11 +9676,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9330,22 +9686,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C247" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D247" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="E247" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F247" t="n">
-        <v>5838.427</v>
+        <v>7035.1692</v>
       </c>
       <c r="G247" t="n">
-        <v>32.85000000000004</v>
+        <v>33.18666666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9355,11 +9711,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9369,22 +9721,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C248" t="n">
-        <v>33.7</v>
+        <v>32.9</v>
       </c>
       <c r="D248" t="n">
-        <v>33.8</v>
+        <v>32.9</v>
       </c>
       <c r="E248" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F248" t="n">
-        <v>30438.3233</v>
+        <v>5838.427</v>
       </c>
       <c r="G248" t="n">
-        <v>33.30000000000004</v>
+        <v>33.16499999999999</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9394,11 +9746,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9408,22 +9756,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="C249" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="D249" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="E249" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="F249" t="n">
-        <v>7760</v>
+        <v>30438.3233</v>
       </c>
       <c r="G249" t="n">
-        <v>33.50000000000004</v>
+        <v>33.15</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9433,11 +9781,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9447,22 +9791,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C250" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
       <c r="D250" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E250" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
       <c r="F250" t="n">
-        <v>112350.6619</v>
+        <v>7760</v>
       </c>
       <c r="G250" t="n">
-        <v>33.05000000000004</v>
+        <v>33.13166666666666</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9472,11 +9816,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9486,22 +9826,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C251" t="n">
-        <v>33.4</v>
+        <v>32.8</v>
       </c>
       <c r="D251" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E251" t="n">
-        <v>33.4</v>
+        <v>32.8</v>
       </c>
       <c r="F251" t="n">
-        <v>15</v>
+        <v>112350.6619</v>
       </c>
       <c r="G251" t="n">
-        <v>33.10000000000004</v>
+        <v>33.10833333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9511,11 +9851,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9525,22 +9861,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C252" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D252" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="E252" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="F252" t="n">
-        <v>2865.4391</v>
+        <v>15</v>
       </c>
       <c r="G252" t="n">
-        <v>33.20000000000005</v>
+        <v>33.09499999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9550,11 +9886,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9564,22 +9896,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C253" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D253" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E253" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F253" t="n">
-        <v>1611.7454</v>
+        <v>2865.4391</v>
       </c>
       <c r="G253" t="n">
-        <v>32.95000000000005</v>
+        <v>33.07166666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9589,11 +9921,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9603,22 +9931,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C254" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D254" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E254" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F254" t="n">
-        <v>16</v>
+        <v>1611.7454</v>
       </c>
       <c r="G254" t="n">
-        <v>32.95000000000005</v>
+        <v>33.04833333333332</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9628,11 +9956,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9654,10 +9978,10 @@
         <v>33</v>
       </c>
       <c r="F255" t="n">
-        <v>975.263</v>
+        <v>16</v>
       </c>
       <c r="G255" t="n">
-        <v>33.00000000000004</v>
+        <v>33.02833333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9667,11 +9991,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9693,10 +10013,10 @@
         <v>33</v>
       </c>
       <c r="F256" t="n">
-        <v>18152.2291</v>
+        <v>975.263</v>
       </c>
       <c r="G256" t="n">
-        <v>33.00000000000004</v>
+        <v>33.01</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9706,11 +10026,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9732,10 +10048,10 @@
         <v>33</v>
       </c>
       <c r="F257" t="n">
-        <v>2780.0045</v>
+        <v>18152.2291</v>
       </c>
       <c r="G257" t="n">
-        <v>33.00000000000004</v>
+        <v>32.99166666666666</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9745,11 +10061,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9771,10 +10083,10 @@
         <v>33</v>
       </c>
       <c r="F258" t="n">
-        <v>1073.059</v>
+        <v>2780.0045</v>
       </c>
       <c r="G258" t="n">
-        <v>33.00000000000004</v>
+        <v>32.97833333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9784,11 +10096,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9810,10 +10118,10 @@
         <v>33</v>
       </c>
       <c r="F259" t="n">
-        <v>290.1453</v>
+        <v>1073.059</v>
       </c>
       <c r="G259" t="n">
-        <v>33.00000000000004</v>
+        <v>32.98</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9823,11 +10131,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9837,22 +10141,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C260" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D260" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E260" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F260" t="n">
-        <v>75</v>
+        <v>290.1453</v>
       </c>
       <c r="G260" t="n">
-        <v>33.10000000000004</v>
+        <v>32.98</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9862,11 +10166,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9888,10 +10188,10 @@
         <v>33.2</v>
       </c>
       <c r="F261" t="n">
-        <v>120.3894</v>
+        <v>75</v>
       </c>
       <c r="G261" t="n">
-        <v>33.20000000000005</v>
+        <v>32.98333333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9901,11 +10201,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9915,22 +10211,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C262" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="D262" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="E262" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F262" t="n">
-        <v>13351.8035</v>
+        <v>120.3894</v>
       </c>
       <c r="G262" t="n">
-        <v>33.25000000000004</v>
+        <v>32.97499999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9940,11 +10236,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9954,22 +10246,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C263" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D263" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E263" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F263" t="n">
-        <v>250</v>
+        <v>13351.8035</v>
       </c>
       <c r="G263" t="n">
-        <v>33.35000000000004</v>
+        <v>32.97833333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9979,12 +10271,43 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C264" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E264" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F264" t="n">
+        <v>250</v>
+      </c>
+      <c r="G264" t="n">
+        <v>32.98333333333333</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>129150.32827195</v>
       </c>
       <c r="G2" t="n">
+        <v>33.97333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>31.59333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>308426.36397365</v>
       </c>
       <c r="G3" t="n">
+        <v>34.06666666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>31.66333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>64424.5535</v>
       </c>
       <c r="G4" t="n">
+        <v>34.14666666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>31.72833333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>11782.0893</v>
       </c>
       <c r="G5" t="n">
+        <v>34.25333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>31.79833333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>255770.2178</v>
       </c>
       <c r="G6" t="n">
+        <v>34.37333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>31.87333333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>134412.8153</v>
       </c>
       <c r="G7" t="n">
+        <v>34.47333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>31.95166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>179232.5641</v>
       </c>
       <c r="G8" t="n">
+        <v>34.53333333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>32.02166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>57224.8023</v>
       </c>
       <c r="G9" t="n">
+        <v>34.59333333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>32.09333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>99786.545</v>
       </c>
       <c r="G10" t="n">
+        <v>34.59333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>32.165</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>73653.427</v>
       </c>
       <c r="G11" t="n">
+        <v>34.56666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>32.23</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>89457.9975</v>
       </c>
       <c r="G12" t="n">
+        <v>34.54666666666669</v>
+      </c>
+      <c r="H12" t="n">
         <v>32.30166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>6112.4245</v>
       </c>
       <c r="G13" t="n">
+        <v>34.55333333333336</v>
+      </c>
+      <c r="H13" t="n">
         <v>32.37</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>66025.5996</v>
       </c>
       <c r="G14" t="n">
+        <v>34.48666666666669</v>
+      </c>
+      <c r="H14" t="n">
         <v>32.435</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>17013.61</v>
       </c>
       <c r="G15" t="n">
+        <v>34.41333333333335</v>
+      </c>
+      <c r="H15" t="n">
         <v>32.49666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>51868.6699</v>
       </c>
       <c r="G16" t="n">
+        <v>34.38666666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>32.57000000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>53123.9817</v>
       </c>
       <c r="G17" t="n">
+        <v>34.36666666666669</v>
+      </c>
+      <c r="H17" t="n">
         <v>32.645</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>15796.7327</v>
       </c>
       <c r="G18" t="n">
+        <v>34.32666666666669</v>
+      </c>
+      <c r="H18" t="n">
         <v>32.71666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>15571.4814</v>
       </c>
       <c r="G19" t="n">
+        <v>34.30666666666669</v>
+      </c>
+      <c r="H19" t="n">
         <v>32.785</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>200964.712</v>
       </c>
       <c r="G20" t="n">
+        <v>34.28000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>32.85</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>124952.3125</v>
       </c>
       <c r="G21" t="n">
+        <v>34.26000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>32.91</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>30</v>
       </c>
       <c r="G22" t="n">
+        <v>34.24666666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>32.96833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>106.9654</v>
       </c>
       <c r="G23" t="n">
+        <v>34.26666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>33.035</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>49195.6747</v>
       </c>
       <c r="G24" t="n">
+        <v>34.25333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>33.095</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,24 +1327,21 @@
         <v>67396.9259</v>
       </c>
       <c r="G25" t="n">
+        <v>34.23333333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>33.15166666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.1</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,22 +1365,21 @@
         <v>90810.3496</v>
       </c>
       <c r="G26" t="n">
+        <v>34.23333333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>33.20333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1333,22 +1403,21 @@
         <v>22651.50383529</v>
       </c>
       <c r="G27" t="n">
+        <v>34.21333333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>33.26000000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,22 +1441,21 @@
         <v>200</v>
       </c>
       <c r="G28" t="n">
+        <v>34.20666666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>33.31666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,22 +1479,21 @@
         <v>65000</v>
       </c>
       <c r="G29" t="n">
+        <v>34.23333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>33.37833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1450,22 +1517,21 @@
         <v>688747.3719</v>
       </c>
       <c r="G30" t="n">
+        <v>34.28000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>33.44500000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1489,22 +1555,21 @@
         <v>334934.09154514</v>
       </c>
       <c r="G31" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="H31" t="n">
         <v>33.51333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,22 +1593,21 @@
         <v>68275.3894</v>
       </c>
       <c r="G32" t="n">
+        <v>34.29333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>33.575</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,22 +1631,21 @@
         <v>48730.48880259</v>
       </c>
       <c r="G33" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="H33" t="n">
         <v>33.63666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,22 +1669,21 @@
         <v>178654.0495</v>
       </c>
       <c r="G34" t="n">
+        <v>34.30666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>33.68833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,22 +1707,21 @@
         <v>35338.2226</v>
       </c>
       <c r="G35" t="n">
+        <v>34.28666666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>33.73333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1684,22 +1745,21 @@
         <v>48997.6112</v>
       </c>
       <c r="G36" t="n">
+        <v>34.26000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>33.78666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1723,22 +1783,21 @@
         <v>178984.2561</v>
       </c>
       <c r="G37" t="n">
+        <v>34.23333333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>33.83166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1762,22 +1821,21 @@
         <v>64530.469</v>
       </c>
       <c r="G38" t="n">
+        <v>34.20666666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>33.87833333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1801,22 +1859,21 @@
         <v>13589.2962</v>
       </c>
       <c r="G39" t="n">
+        <v>34.19333333333335</v>
+      </c>
+      <c r="H39" t="n">
         <v>33.93000000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1840,22 +1897,21 @@
         <v>37674.7057</v>
       </c>
       <c r="G40" t="n">
+        <v>34.22666666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>33.98666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1879,22 +1935,21 @@
         <v>8108.6688</v>
       </c>
       <c r="G41" t="n">
+        <v>34.26666666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>34.04000000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,22 +1973,21 @@
         <v>10452.018</v>
       </c>
       <c r="G42" t="n">
+        <v>34.28666666666668</v>
+      </c>
+      <c r="H42" t="n">
         <v>34.08000000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,22 +2011,21 @@
         <v>23666.7178</v>
       </c>
       <c r="G43" t="n">
+        <v>34.30666666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>34.11333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,22 +2049,21 @@
         <v>30</v>
       </c>
       <c r="G44" t="n">
+        <v>34.31333333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>34.15000000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2035,22 +2087,21 @@
         <v>45</v>
       </c>
       <c r="G45" t="n">
+        <v>34.28000000000002</v>
+      </c>
+      <c r="H45" t="n">
         <v>34.18</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,22 +2125,21 @@
         <v>210965.01</v>
       </c>
       <c r="G46" t="n">
+        <v>34.20666666666669</v>
+      </c>
+      <c r="H46" t="n">
         <v>34.19166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,22 +2163,21 @@
         <v>68516.2135</v>
       </c>
       <c r="G47" t="n">
+        <v>34.15333333333336</v>
+      </c>
+      <c r="H47" t="n">
         <v>34.19666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,24 +2201,21 @@
         <v>159382.3513</v>
       </c>
       <c r="G48" t="n">
+        <v>34.08666666666669</v>
+      </c>
+      <c r="H48" t="n">
         <v>34.195</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2193,24 +2239,21 @@
         <v>15490.3375</v>
       </c>
       <c r="G49" t="n">
+        <v>34.02000000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>34.195</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2234,24 +2277,21 @@
         <v>176</v>
       </c>
       <c r="G50" t="n">
+        <v>33.98000000000003</v>
+      </c>
+      <c r="H50" t="n">
         <v>34.2</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,24 +2315,21 @@
         <v>402756.5389</v>
       </c>
       <c r="G51" t="n">
+        <v>33.89333333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>34.19666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,24 +2353,21 @@
         <v>11208.9589</v>
       </c>
       <c r="G52" t="n">
+        <v>33.82666666666669</v>
+      </c>
+      <c r="H52" t="n">
         <v>34.19500000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2357,24 +2391,21 @@
         <v>56552.5312</v>
       </c>
       <c r="G53" t="n">
+        <v>33.79333333333336</v>
+      </c>
+      <c r="H53" t="n">
         <v>34.2</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2398,24 +2429,21 @@
         <v>1549.9938</v>
       </c>
       <c r="G54" t="n">
+        <v>33.75333333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>34.19833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,22 +2467,21 @@
         <v>470</v>
       </c>
       <c r="G55" t="n">
+        <v>33.68000000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>34.18333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,22 +2505,21 @@
         <v>860.0554</v>
       </c>
       <c r="G56" t="n">
+        <v>33.60000000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>34.16666666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2517,22 +2543,21 @@
         <v>22153.8388</v>
       </c>
       <c r="G57" t="n">
+        <v>33.52666666666669</v>
+      </c>
+      <c r="H57" t="n">
         <v>34.14333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,22 +2581,21 @@
         <v>18740.5068</v>
       </c>
       <c r="G58" t="n">
+        <v>33.45333333333335</v>
+      </c>
+      <c r="H58" t="n">
         <v>34.13</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,22 +2619,21 @@
         <v>139252.22102477</v>
       </c>
       <c r="G59" t="n">
+        <v>33.41333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>34.11166666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,22 +2657,21 @@
         <v>58644.65797238</v>
       </c>
       <c r="G60" t="n">
+        <v>33.38000000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>34.08833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,22 +2695,21 @@
         <v>111716.6461</v>
       </c>
       <c r="G61" t="n">
+        <v>33.35333333333336</v>
+      </c>
+      <c r="H61" t="n">
         <v>34.06166666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,22 +2733,21 @@
         <v>1633.7862</v>
       </c>
       <c r="G62" t="n">
+        <v>33.34666666666669</v>
+      </c>
+      <c r="H62" t="n">
         <v>34.04</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2751,22 +2771,21 @@
         <v>83766.1476</v>
       </c>
       <c r="G63" t="n">
+        <v>33.35333333333336</v>
+      </c>
+      <c r="H63" t="n">
         <v>34.01666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,22 +2809,21 @@
         <v>9141.3496</v>
       </c>
       <c r="G64" t="n">
+        <v>33.37333333333336</v>
+      </c>
+      <c r="H64" t="n">
         <v>34.00166666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,22 +2847,21 @@
         <v>20684.5044</v>
       </c>
       <c r="G65" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="H65" t="n">
         <v>33.98666666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,22 +2885,21 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
+        <v>33.45333333333336</v>
+      </c>
+      <c r="H66" t="n">
         <v>33.96666666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2907,22 +2923,21 @@
         <v>1387.1617</v>
       </c>
       <c r="G67" t="n">
+        <v>33.48666666666669</v>
+      </c>
+      <c r="H67" t="n">
         <v>33.94833333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,22 +2961,21 @@
         <v>264.481</v>
       </c>
       <c r="G68" t="n">
+        <v>33.48666666666669</v>
+      </c>
+      <c r="H68" t="n">
         <v>33.93833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,22 +2999,21 @@
         <v>20301.0394</v>
       </c>
       <c r="G69" t="n">
+        <v>33.53333333333336</v>
+      </c>
+      <c r="H69" t="n">
         <v>33.93333333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,22 +3037,21 @@
         <v>44085.7887</v>
       </c>
       <c r="G70" t="n">
+        <v>33.57333333333337</v>
+      </c>
+      <c r="H70" t="n">
         <v>33.92833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,22 +3075,21 @@
         <v>155</v>
       </c>
       <c r="G71" t="n">
+        <v>33.62000000000003</v>
+      </c>
+      <c r="H71" t="n">
         <v>33.92999999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,22 +3113,21 @@
         <v>11590</v>
       </c>
       <c r="G72" t="n">
+        <v>33.70000000000003</v>
+      </c>
+      <c r="H72" t="n">
         <v>33.93166666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3141,22 +3151,21 @@
         <v>301227.0898</v>
       </c>
       <c r="G73" t="n">
+        <v>33.7866666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>33.93833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,22 +3189,21 @@
         <v>4801.765</v>
       </c>
       <c r="G74" t="n">
+        <v>33.80666666666669</v>
+      </c>
+      <c r="H74" t="n">
         <v>33.94166666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3219,22 +3227,21 @@
         <v>15</v>
       </c>
       <c r="G75" t="n">
+        <v>33.86000000000003</v>
+      </c>
+      <c r="H75" t="n">
         <v>33.95</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,22 +3265,21 @@
         <v>159.98550724</v>
       </c>
       <c r="G76" t="n">
+        <v>33.91333333333336</v>
+      </c>
+      <c r="H76" t="n">
         <v>33.94333333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3297,22 +3303,21 @@
         <v>2584.8971</v>
       </c>
       <c r="G77" t="n">
+        <v>33.96666666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>33.93999999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,22 +3341,21 @@
         <v>100801.4651</v>
       </c>
       <c r="G78" t="n">
+        <v>34.00666666666669</v>
+      </c>
+      <c r="H78" t="n">
         <v>33.93666666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3375,22 +3379,21 @@
         <v>223.1234</v>
       </c>
       <c r="G79" t="n">
+        <v>34.04000000000003</v>
+      </c>
+      <c r="H79" t="n">
         <v>33.935</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,22 +3417,21 @@
         <v>10192.8797</v>
       </c>
       <c r="G80" t="n">
+        <v>34.06000000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>33.93166666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,22 +3455,21 @@
         <v>18359.2304</v>
       </c>
       <c r="G81" t="n">
+        <v>34.07333333333336</v>
+      </c>
+      <c r="H81" t="n">
         <v>33.91999999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,22 +3493,21 @@
         <v>842.5214999999999</v>
       </c>
       <c r="G82" t="n">
+        <v>34.11333333333336</v>
+      </c>
+      <c r="H82" t="n">
         <v>33.91499999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3531,22 +3531,21 @@
         <v>880.5581</v>
       </c>
       <c r="G83" t="n">
+        <v>34.14666666666669</v>
+      </c>
+      <c r="H83" t="n">
         <v>33.90833333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,22 +3569,21 @@
         <v>37251</v>
       </c>
       <c r="G84" t="n">
+        <v>34.12666666666669</v>
+      </c>
+      <c r="H84" t="n">
         <v>33.90166666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3609,22 +3607,21 @@
         <v>173994.3783</v>
       </c>
       <c r="G85" t="n">
+        <v>34.08000000000003</v>
+      </c>
+      <c r="H85" t="n">
         <v>33.88999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,22 +3645,21 @@
         <v>13857.3808</v>
       </c>
       <c r="G86" t="n">
+        <v>34.04000000000003</v>
+      </c>
+      <c r="H86" t="n">
         <v>33.88166666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3687,22 +3683,21 @@
         <v>48214.8109</v>
       </c>
       <c r="G87" t="n">
+        <v>33.98000000000003</v>
+      </c>
+      <c r="H87" t="n">
         <v>33.87333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,22 +3721,21 @@
         <v>13098.7412</v>
       </c>
       <c r="G88" t="n">
+        <v>33.90000000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>33.86166666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3765,22 +3759,21 @@
         <v>88</v>
       </c>
       <c r="G89" t="n">
+        <v>33.87333333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>33.85166666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,22 +3797,21 @@
         <v>61449.56309883</v>
       </c>
       <c r="G90" t="n">
+        <v>33.85333333333336</v>
+      </c>
+      <c r="H90" t="n">
         <v>33.84333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,22 +3835,21 @@
         <v>4073.0516</v>
       </c>
       <c r="G91" t="n">
+        <v>33.85333333333336</v>
+      </c>
+      <c r="H91" t="n">
         <v>33.83166666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,22 +3873,21 @@
         <v>1915.0881</v>
       </c>
       <c r="G92" t="n">
+        <v>33.81333333333336</v>
+      </c>
+      <c r="H92" t="n">
         <v>33.82</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,22 +3911,21 @@
         <v>10568.276</v>
       </c>
       <c r="G93" t="n">
+        <v>33.81333333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>33.81499999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,22 +3949,21 @@
         <v>183</v>
       </c>
       <c r="G94" t="n">
+        <v>33.80666666666669</v>
+      </c>
+      <c r="H94" t="n">
         <v>33.80999999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,22 +3987,21 @@
         <v>12644.0256</v>
       </c>
       <c r="G95" t="n">
+        <v>33.77333333333335</v>
+      </c>
+      <c r="H95" t="n">
         <v>33.80333333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,22 +4025,21 @@
         <v>21529.6219</v>
       </c>
       <c r="G96" t="n">
+        <v>33.75333333333336</v>
+      </c>
+      <c r="H96" t="n">
         <v>33.79333333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4077,22 +4063,21 @@
         <v>55</v>
       </c>
       <c r="G97" t="n">
+        <v>33.74000000000002</v>
+      </c>
+      <c r="H97" t="n">
         <v>33.79166666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,22 +4101,21 @@
         <v>8235.7016</v>
       </c>
       <c r="G98" t="n">
+        <v>33.72000000000002</v>
+      </c>
+      <c r="H98" t="n">
         <v>33.78666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4155,22 +4139,21 @@
         <v>73.0977</v>
       </c>
       <c r="G99" t="n">
+        <v>33.72666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>33.785</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,22 +4177,21 @@
         <v>915.7591</v>
       </c>
       <c r="G100" t="n">
+        <v>33.76000000000002</v>
+      </c>
+      <c r="H100" t="n">
         <v>33.77333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,22 +4215,21 @@
         <v>5886.8789</v>
       </c>
       <c r="G101" t="n">
+        <v>33.78000000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>33.76</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,22 +4253,21 @@
         <v>33349.4072</v>
       </c>
       <c r="G102" t="n">
+        <v>33.78000000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>33.74666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4311,22 +4291,21 @@
         <v>3493.6088</v>
       </c>
       <c r="G103" t="n">
+        <v>33.78666666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>33.73166666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,22 +4329,21 @@
         <v>4699.6442</v>
       </c>
       <c r="G104" t="n">
+        <v>33.76666666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>33.715</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4389,22 +4367,21 @@
         <v>12646</v>
       </c>
       <c r="G105" t="n">
+        <v>33.71333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>33.70166666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,22 +4405,21 @@
         <v>53.5146</v>
       </c>
       <c r="G106" t="n">
+        <v>33.67333333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>33.69833333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,22 +4443,21 @@
         <v>5049.1681</v>
       </c>
       <c r="G107" t="n">
+        <v>33.65333333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>33.69499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,22 +4481,21 @@
         <v>22599.1961</v>
       </c>
       <c r="G108" t="n">
+        <v>33.60000000000002</v>
+      </c>
+      <c r="H108" t="n">
         <v>33.69333333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,22 +4519,21 @@
         <v>17</v>
       </c>
       <c r="G109" t="n">
+        <v>33.56666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>33.69666666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,22 +4557,21 @@
         <v>47750.6034</v>
       </c>
       <c r="G110" t="n">
+        <v>33.57333333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>33.70166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,22 +4595,21 @@
         <v>3751.9654</v>
       </c>
       <c r="G111" t="n">
+        <v>33.58666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>33.71666666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,22 +4633,21 @@
         <v>3097.4981</v>
       </c>
       <c r="G112" t="n">
+        <v>33.58000000000002</v>
+      </c>
+      <c r="H112" t="n">
         <v>33.72999999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,22 +4671,21 @@
         <v>1767.28994082</v>
       </c>
       <c r="G113" t="n">
+        <v>33.56000000000002</v>
+      </c>
+      <c r="H113" t="n">
         <v>33.72833333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,22 +4709,21 @@
         <v>5486.3806</v>
       </c>
       <c r="G114" t="n">
+        <v>33.54000000000002</v>
+      </c>
+      <c r="H114" t="n">
         <v>33.73166666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,22 +4747,21 @@
         <v>1630.8596</v>
       </c>
       <c r="G115" t="n">
+        <v>33.53333333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>33.73666666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,22 +4785,21 @@
         <v>49862.0332</v>
       </c>
       <c r="G116" t="n">
+        <v>33.54000000000002</v>
+      </c>
+      <c r="H116" t="n">
         <v>33.74499999999998</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,22 +4823,21 @@
         <v>5423.1604</v>
       </c>
       <c r="G117" t="n">
+        <v>33.56000000000002</v>
+      </c>
+      <c r="H117" t="n">
         <v>33.75499999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,22 +4861,21 @@
         <v>4265.3751</v>
       </c>
       <c r="G118" t="n">
+        <v>33.58000000000003</v>
+      </c>
+      <c r="H118" t="n">
         <v>33.76333333333331</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4935,22 +4899,21 @@
         <v>44164.1395</v>
       </c>
       <c r="G119" t="n">
+        <v>33.5666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>33.75333333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,22 +4937,21 @@
         <v>15</v>
       </c>
       <c r="G120" t="n">
+        <v>33.58000000000003</v>
+      </c>
+      <c r="H120" t="n">
         <v>33.75166666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5013,22 +4975,21 @@
         <v>41713.6643</v>
       </c>
       <c r="G121" t="n">
+        <v>33.56000000000004</v>
+      </c>
+      <c r="H121" t="n">
         <v>33.74999999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,22 +5013,21 @@
         <v>9457.441999999999</v>
       </c>
       <c r="G122" t="n">
+        <v>33.54000000000004</v>
+      </c>
+      <c r="H122" t="n">
         <v>33.74333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,22 +5051,21 @@
         <v>48.3537</v>
       </c>
       <c r="G123" t="n">
+        <v>33.56000000000004</v>
+      </c>
+      <c r="H123" t="n">
         <v>33.74499999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,22 +5089,21 @@
         <v>121533.8138</v>
       </c>
       <c r="G124" t="n">
+        <v>33.52666666666671</v>
+      </c>
+      <c r="H124" t="n">
         <v>33.73499999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,22 +5127,21 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
+        <v>33.51333333333337</v>
+      </c>
+      <c r="H125" t="n">
         <v>33.72999999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,22 +5165,21 @@
         <v>120.3894</v>
       </c>
       <c r="G126" t="n">
+        <v>33.50000000000004</v>
+      </c>
+      <c r="H126" t="n">
         <v>33.72833333333332</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,22 +5203,21 @@
         <v>60</v>
       </c>
       <c r="G127" t="n">
+        <v>33.4666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>33.72499999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5286,22 +5241,21 @@
         <v>51235</v>
       </c>
       <c r="G128" t="n">
+        <v>33.4466666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>33.71833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5325,22 +5279,21 @@
         <v>540</v>
       </c>
       <c r="G129" t="n">
+        <v>33.42000000000004</v>
+      </c>
+      <c r="H129" t="n">
         <v>33.70333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,22 +5317,21 @@
         <v>83218.08930000001</v>
       </c>
       <c r="G130" t="n">
+        <v>33.38000000000004</v>
+      </c>
+      <c r="H130" t="n">
         <v>33.68833333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,22 +5355,21 @@
         <v>17</v>
       </c>
       <c r="G131" t="n">
+        <v>33.35333333333337</v>
+      </c>
+      <c r="H131" t="n">
         <v>33.67833333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,22 +5393,21 @@
         <v>32</v>
       </c>
       <c r="G132" t="n">
+        <v>33.32000000000004</v>
+      </c>
+      <c r="H132" t="n">
         <v>33.65999999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5481,22 +5431,21 @@
         <v>138770.7008</v>
       </c>
       <c r="G133" t="n">
+        <v>33.28000000000004</v>
+      </c>
+      <c r="H133" t="n">
         <v>33.63666666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,22 +5469,21 @@
         <v>5655.8455</v>
       </c>
       <c r="G134" t="n">
+        <v>33.27333333333337</v>
+      </c>
+      <c r="H134" t="n">
         <v>33.61999999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,22 +5507,21 @@
         <v>3656.7169</v>
       </c>
       <c r="G135" t="n">
+        <v>33.2466666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>33.59833333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,22 +5545,21 @@
         <v>33150.2759</v>
       </c>
       <c r="G136" t="n">
+        <v>33.24666666666671</v>
+      </c>
+      <c r="H136" t="n">
         <v>33.58333333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5637,22 +5583,21 @@
         <v>1479.29</v>
       </c>
       <c r="G137" t="n">
+        <v>33.2466666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>33.56333333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,22 +5621,21 @@
         <v>13117.6926</v>
       </c>
       <c r="G138" t="n">
+        <v>33.21333333333337</v>
+      </c>
+      <c r="H138" t="n">
         <v>33.54666666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,22 +5659,21 @@
         <v>16923.5926</v>
       </c>
       <c r="G139" t="n">
+        <v>33.2066666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>33.52666666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,22 +5697,21 @@
         <v>10192.3949</v>
       </c>
       <c r="G140" t="n">
+        <v>33.17333333333337</v>
+      </c>
+      <c r="H140" t="n">
         <v>33.50833333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5793,22 +5735,21 @@
         <v>2917.8415</v>
       </c>
       <c r="G141" t="n">
+        <v>33.14000000000003</v>
+      </c>
+      <c r="H141" t="n">
         <v>33.49499999999998</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,22 +5773,21 @@
         <v>1356.0623</v>
       </c>
       <c r="G142" t="n">
+        <v>33.12000000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>33.47666666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5871,22 +5811,21 @@
         <v>4173.9338</v>
       </c>
       <c r="G143" t="n">
+        <v>33.1066666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>33.45833333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,22 +5849,21 @@
         <v>1949.5816</v>
       </c>
       <c r="G144" t="n">
+        <v>33.10000000000002</v>
+      </c>
+      <c r="H144" t="n">
         <v>33.44666666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5949,22 +5887,21 @@
         <v>1356.0622</v>
       </c>
       <c r="G145" t="n">
+        <v>33.09333333333336</v>
+      </c>
+      <c r="H145" t="n">
         <v>33.44166666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,22 +5925,21 @@
         <v>39415.7915</v>
       </c>
       <c r="G146" t="n">
+        <v>33.06000000000002</v>
+      </c>
+      <c r="H146" t="n">
         <v>33.43333333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6027,22 +5963,21 @@
         <v>2881.0063</v>
       </c>
       <c r="G147" t="n">
+        <v>33.04000000000002</v>
+      </c>
+      <c r="H147" t="n">
         <v>33.42499999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,22 +6001,21 @@
         <v>16</v>
       </c>
       <c r="G148" t="n">
+        <v>33.04666666666669</v>
+      </c>
+      <c r="H148" t="n">
         <v>33.42333333333332</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6105,22 +6039,21 @@
         <v>89164.0003</v>
       </c>
       <c r="G149" t="n">
+        <v>33.02666666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>33.40833333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6144,22 +6077,21 @@
         <v>143106.5837</v>
       </c>
       <c r="G150" t="n">
+        <v>32.99333333333335</v>
+      </c>
+      <c r="H150" t="n">
         <v>33.38333333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6183,22 +6115,21 @@
         <v>74083.2141</v>
       </c>
       <c r="G151" t="n">
+        <v>32.99333333333335</v>
+      </c>
+      <c r="H151" t="n">
         <v>33.36833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,22 +6153,21 @@
         <v>20</v>
       </c>
       <c r="G152" t="n">
+        <v>32.96666666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>33.35166666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,22 +6191,21 @@
         <v>532</v>
       </c>
       <c r="G153" t="n">
+        <v>32.94000000000002</v>
+      </c>
+      <c r="H153" t="n">
         <v>33.32833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,22 +6229,21 @@
         <v>2171.5641</v>
       </c>
       <c r="G154" t="n">
+        <v>32.92000000000002</v>
+      </c>
+      <c r="H154" t="n">
         <v>33.30499999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6339,22 +6267,21 @@
         <v>570</v>
       </c>
       <c r="G155" t="n">
+        <v>32.92000000000002</v>
+      </c>
+      <c r="H155" t="n">
         <v>33.29499999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6378,22 +6305,21 @@
         <v>2028.5682</v>
       </c>
       <c r="G156" t="n">
+        <v>32.92000000000002</v>
+      </c>
+      <c r="H156" t="n">
         <v>33.28666666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,22 +6343,21 @@
         <v>15007.6471</v>
       </c>
       <c r="G157" t="n">
+        <v>32.90000000000002</v>
+      </c>
+      <c r="H157" t="n">
         <v>33.26666666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6456,22 +6381,21 @@
         <v>16</v>
       </c>
       <c r="G158" t="n">
+        <v>32.90000000000002</v>
+      </c>
+      <c r="H158" t="n">
         <v>33.25333333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6495,22 +6419,21 @@
         <v>44688.3078</v>
       </c>
       <c r="G159" t="n">
+        <v>32.88000000000002</v>
+      </c>
+      <c r="H159" t="n">
         <v>33.235</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,22 +6457,21 @@
         <v>267</v>
       </c>
       <c r="G160" t="n">
+        <v>32.86000000000003</v>
+      </c>
+      <c r="H160" t="n">
         <v>33.21666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,22 +6495,21 @@
         <v>371</v>
       </c>
       <c r="G161" t="n">
+        <v>32.8666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>33.205</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,22 +6533,21 @@
         <v>108</v>
       </c>
       <c r="G162" t="n">
+        <v>32.85333333333337</v>
+      </c>
+      <c r="H162" t="n">
         <v>33.19333333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6651,22 +6571,21 @@
         <v>1885.9987</v>
       </c>
       <c r="G163" t="n">
+        <v>32.82000000000004</v>
+      </c>
+      <c r="H163" t="n">
         <v>33.18166666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,22 +6609,21 @@
         <v>3082.4286</v>
       </c>
       <c r="G164" t="n">
+        <v>32.8066666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>33.16833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,22 +6647,27 @@
         <v>5193.2894</v>
       </c>
       <c r="G165" t="n">
+        <v>32.8066666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>33.15666666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,22 +6691,27 @@
         <v>53932.5655</v>
       </c>
       <c r="G166" t="n">
+        <v>32.7666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>33.14166666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6807,22 +6735,27 @@
         <v>8308.799300000001</v>
       </c>
       <c r="G167" t="n">
+        <v>32.76000000000003</v>
+      </c>
+      <c r="H167" t="n">
         <v>33.12833333333332</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6846,22 +6779,27 @@
         <v>382.25</v>
       </c>
       <c r="G168" t="n">
+        <v>32.75333333333337</v>
+      </c>
+      <c r="H168" t="n">
         <v>33.11666666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6885,22 +6823,27 @@
         <v>791</v>
       </c>
       <c r="G169" t="n">
+        <v>32.7466666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>33.09999999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,22 +6867,27 @@
         <v>2028.5682</v>
       </c>
       <c r="G170" t="n">
+        <v>32.72000000000003</v>
+      </c>
+      <c r="H170" t="n">
         <v>33.08166666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6963,22 +6911,27 @@
         <v>4925.3727</v>
       </c>
       <c r="G171" t="n">
+        <v>32.70666666666669</v>
+      </c>
+      <c r="H171" t="n">
         <v>33.06666666666665</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7002,22 +6955,27 @@
         <v>16229.8765</v>
       </c>
       <c r="G172" t="n">
+        <v>32.70000000000002</v>
+      </c>
+      <c r="H172" t="n">
         <v>33.04666666666665</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7041,22 +6999,27 @@
         <v>2984.34385653</v>
       </c>
       <c r="G173" t="n">
+        <v>32.69333333333336</v>
+      </c>
+      <c r="H173" t="n">
         <v>33.03666666666665</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7080,22 +7043,27 @@
         <v>3783.7971</v>
       </c>
       <c r="G174" t="n">
+        <v>32.6866666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>33.02166666666665</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,22 +7087,27 @@
         <v>2859.4152</v>
       </c>
       <c r="G175" t="n">
+        <v>32.6866666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>33.00499999999998</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7158,22 +7131,27 @@
         <v>30012.1167</v>
       </c>
       <c r="G176" t="n">
+        <v>32.6666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>32.98666666666665</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7197,22 +7175,27 @@
         <v>28588.9688</v>
       </c>
       <c r="G177" t="n">
+        <v>32.6666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>32.96999999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7236,22 +7219,27 @@
         <v>14958.6807</v>
       </c>
       <c r="G178" t="n">
+        <v>32.69333333333336</v>
+      </c>
+      <c r="H178" t="n">
         <v>32.95999999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7275,22 +7263,27 @@
         <v>1236.9914</v>
       </c>
       <c r="G179" t="n">
+        <v>32.75333333333337</v>
+      </c>
+      <c r="H179" t="n">
         <v>32.96499999999998</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7314,22 +7307,27 @@
         <v>3463.6706</v>
       </c>
       <c r="G180" t="n">
+        <v>32.8066666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>32.96333333333332</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7353,22 +7351,25 @@
         <v>157715.97335918</v>
       </c>
       <c r="G181" t="n">
+        <v>32.8866666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>32.97333333333331</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7392,22 +7393,25 @@
         <v>191366.7771</v>
       </c>
       <c r="G182" t="n">
+        <v>32.98000000000003</v>
+      </c>
+      <c r="H182" t="n">
         <v>32.98833333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,22 +7435,25 @@
         <v>8456.400299999999</v>
       </c>
       <c r="G183" t="n">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="H183" t="n">
         <v>32.99166666666665</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7470,22 +7477,25 @@
         <v>21535.6726</v>
       </c>
       <c r="G184" t="n">
+        <v>33.15333333333336</v>
+      </c>
+      <c r="H184" t="n">
         <v>33.00666666666665</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7509,22 +7519,25 @@
         <v>37122.4091</v>
       </c>
       <c r="G185" t="n">
+        <v>33.25333333333336</v>
+      </c>
+      <c r="H185" t="n">
         <v>33.01666666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7548,22 +7561,25 @@
         <v>24523.9404</v>
       </c>
       <c r="G186" t="n">
+        <v>33.32666666666669</v>
+      </c>
+      <c r="H186" t="n">
         <v>33.02333333333332</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,22 +7603,25 @@
         <v>10303.3511</v>
       </c>
       <c r="G187" t="n">
+        <v>33.43333333333336</v>
+      </c>
+      <c r="H187" t="n">
         <v>33.03833333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,22 +7645,25 @@
         <v>113189.17270117</v>
       </c>
       <c r="G188" t="n">
+        <v>33.52000000000002</v>
+      </c>
+      <c r="H188" t="n">
         <v>33.05499999999999</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7665,22 +7687,25 @@
         <v>105383.0255</v>
       </c>
       <c r="G189" t="n">
+        <v>33.65333333333336</v>
+      </c>
+      <c r="H189" t="n">
         <v>33.07999999999999</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,22 +7729,27 @@
         <v>290.14534883</v>
       </c>
       <c r="G190" t="n">
+        <v>33.76666666666669</v>
+      </c>
+      <c r="H190" t="n">
         <v>33.10166666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7741,18 +7771,25 @@
         <v>774.8323</v>
       </c>
       <c r="G191" t="n">
+        <v>33.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>33.11499999999999</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7776,18 +7813,25 @@
         <v>43565.3629</v>
       </c>
       <c r="G192" t="n">
+        <v>33.96666666666669</v>
+      </c>
+      <c r="H192" t="n">
         <v>33.13166666666665</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7811,18 +7855,25 @@
         <v>55</v>
       </c>
       <c r="G193" t="n">
+        <v>34.05333333333336</v>
+      </c>
+      <c r="H193" t="n">
         <v>33.15333333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7846,18 +7897,25 @@
         <v>37.4469</v>
       </c>
       <c r="G194" t="n">
+        <v>34.10666666666669</v>
+      </c>
+      <c r="H194" t="n">
         <v>33.17333333333332</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7881,18 +7939,25 @@
         <v>170</v>
       </c>
       <c r="G195" t="n">
+        <v>34.15333333333336</v>
+      </c>
+      <c r="H195" t="n">
         <v>33.18999999999999</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,18 +7981,25 @@
         <v>23752.983</v>
       </c>
       <c r="G196" t="n">
+        <v>34.17333333333337</v>
+      </c>
+      <c r="H196" t="n">
         <v>33.20499999999999</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7951,18 +8023,25 @@
         <v>147.4691</v>
       </c>
       <c r="G197" t="n">
+        <v>34.18000000000004</v>
+      </c>
+      <c r="H197" t="n">
         <v>33.22166666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7986,18 +8065,25 @@
         <v>5054.4968</v>
       </c>
       <c r="G198" t="n">
+        <v>34.18000000000004</v>
+      </c>
+      <c r="H198" t="n">
         <v>33.23333333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8021,18 +8107,25 @@
         <v>101249.4431</v>
       </c>
       <c r="G199" t="n">
+        <v>34.1066666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>33.23166666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8056,18 +8149,25 @@
         <v>7545.4234</v>
       </c>
       <c r="G200" t="n">
+        <v>34.03333333333337</v>
+      </c>
+      <c r="H200" t="n">
         <v>33.23166666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8091,18 +8191,25 @@
         <v>20024.5301</v>
       </c>
       <c r="G201" t="n">
+        <v>33.97333333333336</v>
+      </c>
+      <c r="H201" t="n">
         <v>33.23166666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8126,18 +8233,25 @@
         <v>15</v>
       </c>
       <c r="G202" t="n">
+        <v>33.94000000000003</v>
+      </c>
+      <c r="H202" t="n">
         <v>33.24333333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8161,18 +8275,25 @@
         <v>667.2548</v>
       </c>
       <c r="G203" t="n">
+        <v>33.8666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>33.24499999999999</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,18 +8317,25 @@
         <v>17919.637</v>
       </c>
       <c r="G204" t="n">
+        <v>33.76666666666669</v>
+      </c>
+      <c r="H204" t="n">
         <v>33.24666666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8231,18 +8359,25 @@
         <v>17276.2571</v>
       </c>
       <c r="G205" t="n">
+        <v>33.68000000000004</v>
+      </c>
+      <c r="H205" t="n">
         <v>33.24833333333332</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8266,18 +8401,25 @@
         <v>17597</v>
       </c>
       <c r="G206" t="n">
+        <v>33.6066666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>33.25166666666665</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8301,18 +8443,25 @@
         <v>789.1798</v>
       </c>
       <c r="G207" t="n">
+        <v>33.5466666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>33.25833333333332</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8336,18 +8485,25 @@
         <v>36466.4056</v>
       </c>
       <c r="G208" t="n">
+        <v>33.44666666666671</v>
+      </c>
+      <c r="H208" t="n">
         <v>33.25333333333332</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8371,18 +8527,25 @@
         <v>18189.8169</v>
       </c>
       <c r="G209" t="n">
+        <v>33.35333333333337</v>
+      </c>
+      <c r="H209" t="n">
         <v>33.25499999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8406,18 +8569,25 @@
         <v>6690.9595</v>
       </c>
       <c r="G210" t="n">
+        <v>33.26000000000004</v>
+      </c>
+      <c r="H210" t="n">
         <v>33.25666666666665</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8441,18 +8611,25 @@
         <v>16</v>
       </c>
       <c r="G211" t="n">
+        <v>33.1866666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>33.25333333333332</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8476,18 +8653,25 @@
         <v>4915.1</v>
       </c>
       <c r="G212" t="n">
+        <v>33.11333333333337</v>
+      </c>
+      <c r="H212" t="n">
         <v>33.25833333333332</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8511,18 +8695,25 @@
         <v>100</v>
       </c>
       <c r="G213" t="n">
+        <v>33.05333333333336</v>
+      </c>
+      <c r="H213" t="n">
         <v>33.26166666666665</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8546,18 +8737,25 @@
         <v>1928.711</v>
       </c>
       <c r="G214" t="n">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="H214" t="n">
         <v>33.26666666666665</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8581,18 +8779,25 @@
         <v>6656.8602</v>
       </c>
       <c r="G215" t="n">
+        <v>33.06000000000003</v>
+      </c>
+      <c r="H215" t="n">
         <v>33.26666666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8616,18 +8821,25 @@
         <v>57564.3313</v>
       </c>
       <c r="G216" t="n">
+        <v>33.05333333333336</v>
+      </c>
+      <c r="H216" t="n">
         <v>33.26499999999999</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8651,18 +8863,25 @@
         <v>9976.193799999999</v>
       </c>
       <c r="G217" t="n">
+        <v>32.99333333333336</v>
+      </c>
+      <c r="H217" t="n">
         <v>33.26666666666665</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8686,18 +8905,25 @@
         <v>1231.6905</v>
       </c>
       <c r="G218" t="n">
+        <v>32.97333333333336</v>
+      </c>
+      <c r="H218" t="n">
         <v>33.26333333333331</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8721,18 +8947,25 @@
         <v>4884.733</v>
       </c>
       <c r="G219" t="n">
+        <v>32.96666666666669</v>
+      </c>
+      <c r="H219" t="n">
         <v>33.26833333333332</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8756,18 +8989,25 @@
         <v>3566.3238</v>
       </c>
       <c r="G220" t="n">
+        <v>32.94666666666669</v>
+      </c>
+      <c r="H220" t="n">
         <v>33.26999999999998</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8791,18 +9031,25 @@
         <v>16944.4275</v>
       </c>
       <c r="G221" t="n">
+        <v>32.92666666666668</v>
+      </c>
+      <c r="H221" t="n">
         <v>33.26666666666664</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8826,18 +9073,25 @@
         <v>40801.1767</v>
       </c>
       <c r="G222" t="n">
+        <v>32.88666666666668</v>
+      </c>
+      <c r="H222" t="n">
         <v>33.26666666666664</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8861,18 +9115,25 @@
         <v>15461.0958</v>
       </c>
       <c r="G223" t="n">
+        <v>32.87333333333335</v>
+      </c>
+      <c r="H223" t="n">
         <v>33.26666666666664</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8896,18 +9157,25 @@
         <v>1236.9914</v>
       </c>
       <c r="G224" t="n">
+        <v>32.86000000000002</v>
+      </c>
+      <c r="H224" t="n">
         <v>33.26833333333332</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8931,18 +9199,25 @@
         <v>881.4068</v>
       </c>
       <c r="G225" t="n">
+        <v>32.86000000000002</v>
+      </c>
+      <c r="H225" t="n">
         <v>33.26999999999998</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8966,18 +9241,25 @@
         <v>9051.571900000001</v>
       </c>
       <c r="G226" t="n">
+        <v>32.84666666666669</v>
+      </c>
+      <c r="H226" t="n">
         <v>33.27333333333332</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9001,18 +9283,25 @@
         <v>37046.0131</v>
       </c>
       <c r="G227" t="n">
+        <v>32.83333333333335</v>
+      </c>
+      <c r="H227" t="n">
         <v>33.27666666666665</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9036,18 +9325,25 @@
         <v>13536.5885</v>
       </c>
       <c r="G228" t="n">
+        <v>32.82666666666668</v>
+      </c>
+      <c r="H228" t="n">
         <v>33.27999999999999</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9071,18 +9367,25 @@
         <v>622.9994</v>
       </c>
       <c r="G229" t="n">
+        <v>32.82000000000001</v>
+      </c>
+      <c r="H229" t="n">
         <v>33.28499999999999</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9106,18 +9409,25 @@
         <v>12471.5368</v>
       </c>
       <c r="G230" t="n">
+        <v>32.80666666666668</v>
+      </c>
+      <c r="H230" t="n">
         <v>33.28833333333332</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9141,18 +9451,25 @@
         <v>3410.971</v>
       </c>
       <c r="G231" t="n">
+        <v>32.80666666666668</v>
+      </c>
+      <c r="H231" t="n">
         <v>33.28999999999999</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9176,18 +9493,25 @@
         <v>622.9994</v>
       </c>
       <c r="G232" t="n">
+        <v>32.81333333333334</v>
+      </c>
+      <c r="H232" t="n">
         <v>33.29499999999999</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9211,18 +9535,25 @@
         <v>25973.2878</v>
       </c>
       <c r="G233" t="n">
+        <v>32.82666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>33.29666666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9246,18 +9577,25 @@
         <v>946.3723</v>
       </c>
       <c r="G234" t="n">
+        <v>32.82666666666668</v>
+      </c>
+      <c r="H234" t="n">
         <v>33.30333333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9281,18 +9619,25 @@
         <v>1070</v>
       </c>
       <c r="G235" t="n">
+        <v>32.88666666666668</v>
+      </c>
+      <c r="H235" t="n">
         <v>33.31999999999999</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9316,18 +9661,25 @@
         <v>703.1317</v>
       </c>
       <c r="G236" t="n">
+        <v>32.90666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>33.32666666666666</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9351,18 +9703,25 @@
         <v>60.07</v>
       </c>
       <c r="G237" t="n">
+        <v>32.93333333333334</v>
+      </c>
+      <c r="H237" t="n">
         <v>33.33333333333332</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9386,18 +9745,25 @@
         <v>242.3325</v>
       </c>
       <c r="G238" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="H238" t="n">
         <v>33.33333333333332</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9421,18 +9787,25 @@
         <v>17729.6176</v>
       </c>
       <c r="G239" t="n">
+        <v>32.97333333333334</v>
+      </c>
+      <c r="H239" t="n">
         <v>33.32333333333332</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9456,18 +9829,25 @@
         <v>7900</v>
       </c>
       <c r="G240" t="n">
+        <v>32.98666666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>33.31499999999999</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9491,18 +9871,25 @@
         <v>139252.221</v>
       </c>
       <c r="G241" t="n">
+        <v>32.98666666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>33.29833333333332</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,18 +9913,25 @@
         <v>801.8789</v>
       </c>
       <c r="G242" t="n">
+        <v>32.98666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>33.27833333333332</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9561,18 +9955,25 @@
         <v>16</v>
       </c>
       <c r="G243" t="n">
+        <v>33.00000000000001</v>
+      </c>
+      <c r="H243" t="n">
         <v>33.26499999999999</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9596,18 +9997,25 @@
         <v>56442.2333</v>
       </c>
       <c r="G244" t="n">
+        <v>33.00000000000001</v>
+      </c>
+      <c r="H244" t="n">
         <v>33.24666666666666</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9631,18 +10039,25 @@
         <v>77727.7377</v>
       </c>
       <c r="G245" t="n">
+        <v>33.00666666666668</v>
+      </c>
+      <c r="H245" t="n">
         <v>33.22666666666666</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9666,18 +10081,25 @@
         <v>625.9188</v>
       </c>
       <c r="G246" t="n">
+        <v>33.00666666666668</v>
+      </c>
+      <c r="H246" t="n">
         <v>33.20999999999999</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9701,18 +10123,25 @@
         <v>7035.1692</v>
       </c>
       <c r="G247" t="n">
+        <v>33.00000000000001</v>
+      </c>
+      <c r="H247" t="n">
         <v>33.18666666666666</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9736,18 +10165,25 @@
         <v>5838.427</v>
       </c>
       <c r="G248" t="n">
+        <v>32.99333333333335</v>
+      </c>
+      <c r="H248" t="n">
         <v>33.16499999999999</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9771,18 +10207,25 @@
         <v>30438.3233</v>
       </c>
       <c r="G249" t="n">
+        <v>33.04000000000001</v>
+      </c>
+      <c r="H249" t="n">
         <v>33.15</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9806,18 +10249,25 @@
         <v>7760</v>
       </c>
       <c r="G250" t="n">
+        <v>33.01333333333335</v>
+      </c>
+      <c r="H250" t="n">
         <v>33.13166666666666</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9841,18 +10291,25 @@
         <v>112350.6619</v>
       </c>
       <c r="G251" t="n">
+        <v>32.99333333333335</v>
+      </c>
+      <c r="H251" t="n">
         <v>33.10833333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9876,18 +10333,25 @@
         <v>15</v>
       </c>
       <c r="G252" t="n">
+        <v>33.01333333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>33.09499999999999</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9911,18 +10375,25 @@
         <v>2865.4391</v>
       </c>
       <c r="G253" t="n">
+        <v>33.00666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>33.07166666666666</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9946,18 +10417,25 @@
         <v>1611.7454</v>
       </c>
       <c r="G254" t="n">
+        <v>33.00666666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>33.04833333333332</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9981,18 +10459,25 @@
         <v>16</v>
       </c>
       <c r="G255" t="n">
+        <v>33.00666666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>33.02833333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10016,18 +10501,27 @@
         <v>975.263</v>
       </c>
       <c r="G256" t="n">
+        <v>33.02000000000001</v>
+      </c>
+      <c r="H256" t="n">
         <v>33.01</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>33</v>
+      </c>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10051,18 +10545,27 @@
         <v>18152.2291</v>
       </c>
       <c r="G257" t="n">
+        <v>33.03333333333335</v>
+      </c>
+      <c r="H257" t="n">
         <v>32.99166666666666</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>33</v>
+      </c>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10086,18 +10589,27 @@
         <v>2780.0045</v>
       </c>
       <c r="G258" t="n">
+        <v>33.03333333333335</v>
+      </c>
+      <c r="H258" t="n">
         <v>32.97833333333333</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>33</v>
+      </c>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10121,18 +10633,27 @@
         <v>1073.059</v>
       </c>
       <c r="G259" t="n">
+        <v>33.04000000000001</v>
+      </c>
+      <c r="H259" t="n">
         <v>32.98</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>33</v>
+      </c>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10156,18 +10677,27 @@
         <v>290.1453</v>
       </c>
       <c r="G260" t="n">
+        <v>33.04666666666669</v>
+      </c>
+      <c r="H260" t="n">
         <v>32.98</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>33</v>
+      </c>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10191,18 +10721,27 @@
         <v>75</v>
       </c>
       <c r="G261" t="n">
+        <v>33.06666666666669</v>
+      </c>
+      <c r="H261" t="n">
         <v>32.98333333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>33</v>
+      </c>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10226,18 +10765,27 @@
         <v>120.3894</v>
       </c>
       <c r="G262" t="n">
+        <v>33.09333333333336</v>
+      </c>
+      <c r="H262" t="n">
         <v>32.97499999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>33.2</v>
+      </c>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10261,18 +10809,27 @@
         <v>13351.8035</v>
       </c>
       <c r="G263" t="n">
+        <v>33.12000000000003</v>
+      </c>
+      <c r="H263" t="n">
         <v>32.97833333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>33.2</v>
+      </c>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10296,18 +10853,449 @@
         <v>250</v>
       </c>
       <c r="G264" t="n">
+        <v>33.10000000000003</v>
+      </c>
+      <c r="H264" t="n">
         <v>32.98333333333333</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>33.3</v>
+      </c>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C265" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4702.76</v>
+      </c>
+      <c r="G265" t="n">
+        <v>33.12000000000003</v>
+      </c>
+      <c r="H265" t="n">
+        <v>32.99166666666667</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E266" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F266" t="n">
+        <v>7589.4712</v>
+      </c>
+      <c r="G266" t="n">
+        <v>33.17333333333335</v>
+      </c>
+      <c r="H266" t="n">
+        <v>33</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C267" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E267" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1184.8105</v>
+      </c>
+      <c r="G267" t="n">
+        <v>33.18666666666669</v>
+      </c>
+      <c r="H267" t="n">
+        <v>33.005</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E268" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F268" t="n">
+        <v>15</v>
+      </c>
+      <c r="G268" t="n">
+        <v>33.22666666666669</v>
+      </c>
+      <c r="H268" t="n">
+        <v>33.01666666666667</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C269" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D269" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E269" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F269" t="n">
+        <v>15</v>
+      </c>
+      <c r="G269" t="n">
+        <v>33.28666666666668</v>
+      </c>
+      <c r="H269" t="n">
+        <v>33.03166666666666</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C270" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E270" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12015.1621</v>
+      </c>
+      <c r="G270" t="n">
+        <v>33.32666666666669</v>
+      </c>
+      <c r="H270" t="n">
+        <v>33.04499999999999</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C271" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E271" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F271" t="n">
+        <v>458.7962</v>
+      </c>
+      <c r="G271" t="n">
+        <v>33.36666666666669</v>
+      </c>
+      <c r="H271" t="n">
+        <v>33.05499999999999</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D272" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E272" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>59</v>
+      </c>
+      <c r="G272" t="n">
+        <v>33.40000000000002</v>
+      </c>
+      <c r="H272" t="n">
+        <v>33.06333333333333</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C273" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D273" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E273" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>12074.9312</v>
+      </c>
+      <c r="G273" t="n">
+        <v>33.42666666666669</v>
+      </c>
+      <c r="H273" t="n">
+        <v>33.07166666666666</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D274" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E274" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6182.7649</v>
+      </c>
+      <c r="G274" t="n">
+        <v>33.45333333333335</v>
+      </c>
+      <c r="H274" t="n">
+        <v>33.07833333333333</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N332"/>
+  <dimension ref="A1:M332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +649,15 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>30</v>
-      </c>
-      <c r="K8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,26 +682,15 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
-      <c r="K9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +715,15 @@
         <v>174487.6437039801</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30</v>
-      </c>
-      <c r="K10" t="n">
-        <v>30</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,22 +748,15 @@
         <v>175317.4525039801</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,26 +781,19 @@
         <v>175317.4525039801</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="K12" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,26 +818,21 @@
         <v>175407.3205039801</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>30</v>
       </c>
-      <c r="K13" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,22 +857,23 @@
         <v>175392.3402039801</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="J14" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -968,26 +898,19 @@
         <v>171966.2057039801</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="J15" t="n">
         <v>30.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1012,26 +935,23 @@
         <v>171966.2057039801</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>30.1</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1056,26 +976,23 @@
         <v>171988.8038039801</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>30.1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1100,26 +1017,23 @@
         <v>194223.5391039801</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>30.2</v>
       </c>
       <c r="J18" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>30.1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1144,26 +1058,23 @@
         <v>637650.7094039801</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="J19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>30.1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1188,24 +1099,23 @@
         <v>637650.7094039801</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>30.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1232,22 +1142,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1274,22 +1181,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1316,22 +1220,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,22 +1259,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1400,22 +1298,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1442,22 +1337,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1484,22 +1376,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1526,22 +1415,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1568,22 +1454,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1610,22 +1493,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1652,22 +1532,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1694,22 +1571,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1736,22 +1610,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1778,22 +1649,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1820,22 +1688,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1862,22 +1727,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1904,22 +1766,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1946,22 +1805,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1988,22 +1844,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2030,22 +1883,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2072,22 +1922,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2114,22 +1961,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2156,22 +2000,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2198,22 +2039,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2240,22 +2078,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2282,22 +2117,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2324,22 +2156,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2366,22 +2195,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2408,22 +2234,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2450,22 +2273,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2492,22 +2312,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2534,22 +2351,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2576,22 +2390,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2618,22 +2429,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2660,22 +2468,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2702,22 +2507,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2744,22 +2546,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2786,22 +2585,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2828,22 +2624,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2870,22 +2663,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2912,22 +2702,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2954,22 +2741,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2996,22 +2780,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3038,22 +2819,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3080,22 +2858,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3122,22 +2897,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3164,22 +2936,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3206,22 +2975,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3248,22 +3014,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3290,22 +3053,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3332,22 +3092,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3374,24 +3131,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1.113811881188119</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1.026755852842809</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3416,18 +3168,21 @@
         <v>4051926.53270696</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3452,18 +3207,21 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3488,18 +3246,21 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3524,18 +3285,21 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3562,16 +3326,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3598,16 +3365,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3632,18 +3402,21 @@
         <v>4212950.78240696</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3668,18 +3441,21 @@
         <v>4212920.78240696</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3704,18 +3480,21 @@
         <v>4213027.74780696</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3740,18 +3519,21 @@
         <v>4163832.07310696</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3778,16 +3560,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3814,16 +3599,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3850,16 +3638,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3886,16 +3677,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3922,16 +3716,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3958,16 +3755,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3994,16 +3794,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4030,16 +3833,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4066,16 +3872,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4102,16 +3911,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4138,16 +3950,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4174,16 +3989,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4210,16 +4028,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4246,16 +4067,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4282,16 +4106,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4318,16 +4145,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4354,16 +4184,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4390,16 +4223,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4426,16 +4262,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4462,16 +4301,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4498,16 +4340,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4534,16 +4379,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4570,16 +4418,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4606,16 +4457,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4642,16 +4496,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4678,16 +4535,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4714,16 +4574,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4750,16 +4613,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4786,16 +4652,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4822,16 +4691,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4858,16 +4730,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4894,16 +4769,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4930,16 +4808,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4966,16 +4847,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5002,16 +4886,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5038,16 +4925,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5074,16 +4964,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5110,16 +5003,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5146,16 +5042,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5182,16 +5081,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5218,16 +5120,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5254,16 +5159,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5290,16 +5198,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5326,16 +5237,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5362,16 +5276,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5398,16 +5315,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5434,16 +5354,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5470,16 +5393,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5506,16 +5432,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5542,16 +5471,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5578,16 +5510,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5614,16 +5549,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5650,16 +5588,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5686,16 +5627,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5722,16 +5666,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5758,16 +5705,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5794,16 +5744,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5830,16 +5783,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5866,16 +5822,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5902,16 +5861,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5938,16 +5900,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5974,16 +5939,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6010,16 +5978,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6046,16 +6017,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6082,16 +6056,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6118,16 +6095,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6154,16 +6134,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6190,16 +6173,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6226,16 +6212,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6262,16 +6251,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6298,16 +6290,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6334,16 +6329,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6370,16 +6368,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6406,16 +6407,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6442,16 +6446,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6478,16 +6485,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6514,16 +6524,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6550,16 +6563,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6586,16 +6602,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6622,16 +6641,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6658,16 +6680,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6694,16 +6719,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6730,16 +6758,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6766,16 +6797,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6802,16 +6836,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6838,16 +6875,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6874,16 +6914,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6910,16 +6953,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6946,16 +6992,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6982,16 +7031,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7018,16 +7070,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7054,16 +7109,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7090,16 +7148,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7126,16 +7187,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7162,16 +7226,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7198,16 +7265,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7234,16 +7304,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7270,16 +7343,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7306,16 +7382,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7342,16 +7421,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7378,16 +7460,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7414,16 +7499,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7450,16 +7538,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7486,16 +7577,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7522,16 +7616,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7558,16 +7655,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7594,16 +7694,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7630,16 +7733,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7666,16 +7772,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7702,16 +7811,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7738,16 +7850,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7774,16 +7889,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7810,16 +7928,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7846,16 +7967,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7882,16 +8006,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7918,16 +8045,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7954,16 +8084,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7990,16 +8123,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8026,16 +8162,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8062,16 +8201,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8098,16 +8240,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8134,16 +8279,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8170,16 +8318,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8206,16 +8357,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8242,16 +8396,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8278,16 +8435,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8314,16 +8474,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8350,16 +8513,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8386,16 +8552,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8422,16 +8591,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8458,16 +8630,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8494,16 +8669,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8530,16 +8708,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8566,16 +8747,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8602,16 +8786,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8638,16 +8825,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8674,16 +8864,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8710,16 +8903,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8746,16 +8942,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8782,16 +8981,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8818,16 +9020,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8854,16 +9059,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8890,16 +9098,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8926,16 +9137,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8962,16 +9176,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8998,16 +9215,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9034,16 +9254,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9070,16 +9293,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9106,16 +9332,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9142,16 +9371,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9178,16 +9410,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9214,16 +9449,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9250,16 +9488,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9286,16 +9527,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9322,16 +9566,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9358,16 +9605,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9394,16 +9644,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9430,16 +9683,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9464,18 +9720,23 @@
         <v>3844027.906470971</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1.117923588039867</v>
+      </c>
       <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>1.026755852842809</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9500,18 +9761,15 @@
         <v>3865563.579070971</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9538,16 +9796,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9572,18 +9827,15 @@
         <v>3878162.047770971</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9608,18 +9860,15 @@
         <v>3888465.398870971</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9644,18 +9893,15 @@
         <v>3888465.398870971</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9682,16 +9928,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9716,18 +9959,15 @@
         <v>3993558.27902214</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9752,18 +9992,15 @@
         <v>3992783.446722141</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9788,18 +10025,15 @@
         <v>3992783.446722141</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9824,18 +10058,15 @@
         <v>3992838.446722141</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9860,18 +10091,15 @@
         <v>3992800.999822141</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9896,18 +10124,15 @@
         <v>3992630.999822141</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9932,18 +10157,15 @@
         <v>3968878.016822141</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9968,18 +10190,15 @@
         <v>3968878.016822141</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10004,18 +10223,15 @@
         <v>3963823.520022141</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10042,16 +10258,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10078,16 +10291,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10114,16 +10324,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10150,16 +10357,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10186,16 +10390,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10222,16 +10423,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10258,16 +10456,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10294,16 +10489,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10330,16 +10522,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10366,16 +10555,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10402,16 +10588,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10438,16 +10621,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10474,16 +10654,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10510,16 +10687,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10546,16 +10720,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10582,16 +10753,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10618,16 +10786,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10654,16 +10819,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10690,16 +10852,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10726,16 +10885,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10762,16 +10918,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10798,16 +10951,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10834,16 +10984,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10870,16 +11017,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10906,16 +11050,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10942,16 +11083,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10978,16 +11116,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11014,16 +11149,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11050,16 +11182,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11086,16 +11215,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11122,16 +11248,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11158,16 +11281,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11194,16 +11314,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11230,16 +11347,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11266,16 +11380,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11302,16 +11413,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11338,16 +11446,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11374,16 +11479,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11410,16 +11512,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11446,16 +11545,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11482,16 +11578,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11518,16 +11611,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11554,16 +11644,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11590,16 +11677,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11626,16 +11710,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11662,16 +11743,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11698,16 +11776,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11734,16 +11809,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11770,16 +11842,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11806,16 +11875,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11842,16 +11908,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11878,16 +11941,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11914,16 +11974,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11950,16 +12007,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11986,16 +12040,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12022,16 +12073,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12058,16 +12106,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12094,16 +12139,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12130,16 +12172,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12166,16 +12205,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12202,16 +12238,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12238,16 +12271,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12274,16 +12304,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12310,16 +12337,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12346,16 +12370,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12382,16 +12403,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12418,16 +12436,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12454,16 +12469,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12490,16 +12502,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12526,16 +12535,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12562,16 +12568,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12598,16 +12601,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12634,16 +12634,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12670,16 +12667,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12706,16 +12700,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12742,18 +12733,15 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,10 +616,14 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +653,19 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +694,19 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,10 +735,14 @@
         <v>174487.6437039801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,11 +772,19 @@
         <v>175317.4525039801</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,7 +813,7 @@
         <v>175317.4525039801</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>30</v>
@@ -789,7 +821,11 @@
       <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,17 +854,15 @@
         <v>175407.3205039801</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
       <c r="J13" t="n">
         <v>30</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -857,7 +891,7 @@
         <v>175392.3402039801</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>30.3</v>
@@ -898,15 +932,19 @@
         <v>171966.2057039801</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>30.1</v>
       </c>
       <c r="J15" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -935,13 +973,13 @@
         <v>171966.2057039801</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -976,13 +1014,13 @@
         <v>171988.8038039801</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1017,13 +1055,13 @@
         <v>194223.5391039801</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>30.2</v>
       </c>
       <c r="J18" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1058,13 +1096,13 @@
         <v>637650.7094039801</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>30.4</v>
       </c>
       <c r="J19" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1099,13 +1137,13 @@
         <v>637650.7094039801</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>30.9</v>
       </c>
       <c r="J20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1144,7 +1182,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1183,7 +1221,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1222,7 +1260,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1257,11 +1295,13 @@
         <v>637667.7094039801</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J24" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1300,7 +1340,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1335,11 +1375,13 @@
         <v>627469.7094039801</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J26" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1374,11 +1416,13 @@
         <v>627469.7094039801</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J27" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1413,11 +1457,13 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J28" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1452,11 +1498,13 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J29" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1491,11 +1539,13 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1530,11 +1580,13 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J31" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1573,7 +1625,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1612,7 +1664,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1651,7 +1703,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1690,7 +1742,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1729,7 +1781,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1768,7 +1820,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1807,7 +1859,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1846,7 +1898,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1885,7 +1937,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1924,7 +1976,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1963,7 +2015,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2002,7 +2054,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2041,7 +2093,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2080,7 +2132,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2119,7 +2171,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2158,7 +2210,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2197,7 +2249,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2236,7 +2288,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2275,7 +2327,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2314,7 +2366,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2353,7 +2405,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2392,7 +2444,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2431,7 +2483,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2470,7 +2522,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2509,7 +2561,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2548,7 +2600,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2587,7 +2639,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2626,7 +2678,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2665,7 +2717,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2704,7 +2756,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2743,7 +2795,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2782,7 +2834,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2821,7 +2873,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2860,7 +2912,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2899,7 +2951,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2938,7 +2990,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2977,7 +3029,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3016,7 +3068,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3055,7 +3107,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3094,7 +3146,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3133,7 +3185,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3168,11 +3220,11 @@
         <v>4051926.53270696</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3207,11 +3259,11 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3246,11 +3298,11 @@
         <v>4103795.20260696</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3285,21 +3337,23 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>1.138333333333333</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.026755852842809</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3324,17 +3378,11 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3363,17 +3411,11 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3402,17 +3444,11 @@
         <v>4212950.78240696</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3441,17 +3477,11 @@
         <v>4212920.78240696</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3480,17 +3510,11 @@
         <v>4213027.74780696</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3519,17 +3543,11 @@
         <v>4163832.07310696</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3558,17 +3576,11 @@
         <v>4096435.14720696</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3597,17 +3609,11 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3636,17 +3642,11 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3675,17 +3675,11 @@
         <v>4005824.79760696</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3711,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3744,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3777,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3843,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3876,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3909,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3942,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4026,17 +3972,11 @@
         <v>4860906.004152101</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4065,17 +4005,11 @@
         <v>4925436.4731521</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4104,17 +4038,11 @@
         <v>4911847.1769521</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4143,17 +4071,11 @@
         <v>4949521.8826521</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4182,17 +4104,11 @@
         <v>4949521.8826521</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4221,17 +4137,11 @@
         <v>4939069.8646521</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4260,17 +4170,11 @@
         <v>4962736.5824521</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4299,17 +4203,11 @@
         <v>4962766.5824521</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4338,17 +4236,11 @@
         <v>4962721.5824521</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4377,17 +4269,11 @@
         <v>4751756.5724521</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4416,17 +4302,11 @@
         <v>4683240.3589521</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4455,17 +4335,11 @@
         <v>4523858.0076521</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4494,17 +4368,11 @@
         <v>4523858.0076521</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4533,17 +4401,11 @@
         <v>4523858.0076521</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4572,17 +4434,11 @@
         <v>4121101.4687521</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4611,17 +4467,11 @@
         <v>4132310.4276521</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4650,17 +4500,11 @@
         <v>4188862.9588521</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4689,17 +4533,11 @@
         <v>4187312.9650521</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4728,17 +4566,11 @@
         <v>4187782.9650521</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4767,17 +4599,11 @@
         <v>4186922.9096521</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4806,17 +4632,11 @@
         <v>4164769.0708521</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4845,17 +4665,11 @@
         <v>4183509.5776521</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4884,17 +4698,11 @@
         <v>4322761.798676871</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4923,17 +4731,11 @@
         <v>4264117.140704491</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4962,17 +4764,11 @@
         <v>4152400.494604491</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5001,17 +4797,11 @@
         <v>4154034.280804491</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5040,17 +4830,11 @@
         <v>4154034.280804491</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5079,17 +4863,11 @@
         <v>4163175.630404491</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5118,17 +4896,11 @@
         <v>4183860.134804491</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5160,14 +4932,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5199,14 +4965,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5274,17 +5028,11 @@
         <v>4203018.493504491</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5313,17 +5061,11 @@
         <v>4203018.493504491</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5352,17 +5094,11 @@
         <v>4203018.493504491</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5391,17 +5127,11 @@
         <v>4214608.493504491</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5433,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5469,17 +5193,11 @@
         <v>4511033.818304491</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5508,17 +5226,11 @@
         <v>4511048.818304491</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5550,14 +5262,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +5295,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5628,14 +5328,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5667,14 +5361,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5706,14 +5394,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +5460,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +5493,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5526,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5898,17 +5556,11 @@
         <v>4173940.421297251</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5937,17 +5589,11 @@
         <v>4187797.802097251</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5976,17 +5622,11 @@
         <v>4187797.802097251</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6015,17 +5655,11 @@
         <v>4174699.060897251</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6054,17 +5688,11 @@
         <v>4174787.060897251</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6093,17 +5721,11 @@
         <v>4236236.623996081</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6132,17 +5754,11 @@
         <v>4232163.572396081</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6171,17 +5787,11 @@
         <v>4230248.484296081</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6210,17 +5820,11 @@
         <v>4240816.76029608</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6249,17 +5853,11 @@
         <v>4240816.76029608</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6288,17 +5886,11 @@
         <v>4228172.73469608</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6327,17 +5919,11 @@
         <v>4206643.11279608</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6366,17 +5952,11 @@
         <v>4206698.11279608</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6405,17 +5985,11 @@
         <v>4198462.41119608</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6444,17 +6018,11 @@
         <v>4198462.41119608</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6483,17 +6051,11 @@
         <v>4198462.41119608</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6522,17 +6084,11 @@
         <v>4192575.53229608</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6561,17 +6117,11 @@
         <v>4159226.12509608</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6603,14 +6153,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6642,14 +6186,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6681,14 +6219,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6720,14 +6252,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6759,14 +6285,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6798,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6837,14 +6351,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6876,14 +6384,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6912,17 +6414,11 @@
         <v>4179398.87889608</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6951,17 +6447,11 @@
         <v>4182496.37699608</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6990,17 +6480,11 @@
         <v>4180729.08705526</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7032,14 +6516,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7068,17 +6546,11 @@
         <v>4182359.94665526</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7107,17 +6579,11 @@
         <v>4232221.979855261</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7146,17 +6612,11 @@
         <v>4226798.81945526</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7185,17 +6645,11 @@
         <v>4226798.81945526</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7224,17 +6678,11 @@
         <v>4182634.67995526</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7263,17 +6711,11 @@
         <v>4182649.67995526</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7302,17 +6744,11 @@
         <v>4140936.015655261</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7341,17 +6777,11 @@
         <v>4131478.573655261</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7380,17 +6810,11 @@
         <v>4131526.927355261</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7419,17 +6843,11 @@
         <v>4009993.11355526</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7458,17 +6876,11 @@
         <v>4010093.11355526</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7497,17 +6909,11 @@
         <v>4010093.11355526</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7536,17 +6942,11 @@
         <v>4010033.11355526</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7578,14 +6978,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7614,17 +7008,11 @@
         <v>3958258.11355526</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7653,17 +7041,11 @@
         <v>3958258.11355526</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7692,17 +7074,11 @@
         <v>3958275.11355526</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7731,17 +7107,11 @@
         <v>3958243.11355526</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +7143,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7812,14 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +7209,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7887,17 +7239,11 @@
         <v>3823129.12965526</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7926,17 +7272,11 @@
         <v>3821649.83965526</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7965,17 +7305,11 @@
         <v>3821649.83965526</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8004,17 +7338,11 @@
         <v>3804726.24705526</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8043,17 +7371,11 @@
         <v>3804726.24705526</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8082,17 +7404,11 @@
         <v>3804726.24705526</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +7440,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +7473,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +7506,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +7539,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8280,14 +7572,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +7605,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8358,14 +7638,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8397,14 +7671,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8436,14 +7704,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8475,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8514,14 +7770,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8553,14 +7803,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8592,14 +7836,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +7869,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +7902,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +7935,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8748,14 +7968,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +8001,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +8034,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8865,14 +8067,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8904,14 +8100,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8943,14 +8133,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +8166,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9021,14 +8199,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9060,14 +8232,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9099,14 +8265,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9138,14 +8298,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9177,14 +8331,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9216,14 +8364,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9255,14 +8397,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9294,14 +8430,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9333,14 +8463,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +8496,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9411,14 +8529,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9450,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9489,14 +8595,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9528,14 +8628,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9567,14 +8661,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9606,14 +8694,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +8727,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9684,14 +8760,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9720,23 +8790,15 @@
         <v>3844027.906470971</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
-        <v>1.117923588039867</v>
-      </c>
-      <c r="M241" t="n">
-        <v>1.026755852842809</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9761,7 +8823,7 @@
         <v>3865563.579070971</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9827,7 +8889,7 @@
         <v>3878162.047770971</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9860,7 +8922,7 @@
         <v>3888465.398870971</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9893,7 +8955,7 @@
         <v>3888465.398870971</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9959,7 +9021,7 @@
         <v>3993558.27902214</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9992,7 +9054,7 @@
         <v>3992783.446722141</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10025,7 +9087,7 @@
         <v>3992783.446722141</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10058,7 +9120,7 @@
         <v>3992838.446722141</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10091,7 +9153,7 @@
         <v>3992800.999822141</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10124,7 +9186,7 @@
         <v>3992630.999822141</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10157,7 +9219,7 @@
         <v>3968878.016822141</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10190,7 +9252,7 @@
         <v>3968878.016822141</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10223,7 +9285,7 @@
         <v>3963823.520022141</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10322,7 +9384,7 @@
         <v>3870119.500322141</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10355,7 +9417,7 @@
         <v>3870134.500322141</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10388,7 +9450,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10421,7 +9483,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10454,7 +9516,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10487,7 +9549,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10520,7 +9582,7 @@
         <v>3870256.425322141</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10586,7 +9648,7 @@
         <v>3833790.019722141</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10619,7 +9681,7 @@
         <v>3827099.060222141</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10850,7 +9912,7 @@
         <v>3761403.246122141</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10883,7 +9945,7 @@
         <v>3761403.246122141</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10916,7 +9978,7 @@
         <v>3766287.979122141</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -12742,6 +11804,6 @@
       <c r="M332" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29.9</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -622,9 +626,13 @@
         <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>29.9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -659,7 +667,7 @@
         <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -702,48 +710,48 @@
       <c r="J9" t="n">
         <v>30</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7881.2948</v>
+      </c>
+      <c r="G10" t="n">
+        <v>174487.6437039801</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7881.2948</v>
-      </c>
-      <c r="G10" t="n">
-        <v>174487.6437039801</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -821,48 +829,48 @@
       <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>89.86799999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>175407.3205039801</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>89.86799999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>175407.3205039801</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>30</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -938,13 +946,9 @@
         <v>30.1</v>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,7 +983,7 @@
         <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1020,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1061,7 +1065,7 @@
         <v>30.2</v>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1102,7 +1106,7 @@
         <v>30.4</v>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1137,13 +1141,11 @@
         <v>637650.7094039801</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1182,7 +1184,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1221,7 +1223,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1260,7 +1262,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1295,13 +1297,11 @@
         <v>637667.7094039801</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1375,13 +1375,11 @@
         <v>627469.7094039801</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1416,13 +1414,11 @@
         <v>627469.7094039801</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1457,13 +1453,11 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1498,13 +1492,11 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1539,13 +1531,11 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1580,13 +1570,11 @@
         <v>731541.8187039801</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1625,7 +1613,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1664,7 +1652,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1703,7 +1691,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1742,7 +1730,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1781,7 +1769,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1820,7 +1808,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1859,7 +1847,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1898,7 +1886,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1937,7 +1925,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1976,7 +1964,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2015,7 +2003,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2054,7 +2042,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2093,7 +2081,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2132,7 +2120,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2167,21 +2155,23 @@
         <v>2170197.51710398</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>1.107956810631229</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.026755852842809</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2206,17 +2196,11 @@
         <v>2059275.1869154</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>30</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2245,17 +2229,11 @@
         <v>2048717.2881154</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>30</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2284,17 +2262,11 @@
         <v>2036075.9126154</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>30</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2323,17 +2295,11 @@
         <v>2070689.0576154</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>30</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2362,17 +2328,11 @@
         <v>2119773.0200154</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>30</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2401,17 +2361,11 @@
         <v>2237527.9846154</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>30</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2440,17 +2394,11 @@
         <v>2811903.6122154</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>30</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2479,17 +2427,11 @@
         <v>2811903.6122154</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>30</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2518,17 +2460,11 @@
         <v>2958874.0869154</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>30</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2557,17 +2493,11 @@
         <v>2872630.3601154</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>30</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2529,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>30</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2562,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>30</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2595,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>30</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2716,14 +2628,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>30</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2755,14 +2661,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>30</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>30</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2833,14 +2727,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>30</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2872,14 +2760,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>30</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2793,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>30</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2826,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>30</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2989,14 +2859,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>30</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3028,14 +2892,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>30</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3067,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>30</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3106,14 +2958,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>30</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +2991,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>30</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +3024,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>30</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +3057,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>30</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>30</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +3123,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>30</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3337,23 +3153,15 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>30</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.138333333333333</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.026755852842809</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3378,7 +3186,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3411,7 +3219,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3444,7 +3252,7 @@
         <v>4212950.78240696</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3477,7 +3285,7 @@
         <v>4212920.78240696</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3510,7 +3318,7 @@
         <v>4213027.74780696</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3543,7 +3351,7 @@
         <v>4163832.07310696</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3576,7 +3384,7 @@
         <v>4096435.14720696</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3609,7 +3417,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3642,7 +3450,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3708,7 +3516,7 @@
         <v>4070824.79760696</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3972,7 +3780,7 @@
         <v>4860906.004152101</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4005,7 +3813,7 @@
         <v>4925436.4731521</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4038,7 +3846,7 @@
         <v>4911847.1769521</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4071,7 +3879,7 @@
         <v>4949521.8826521</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4104,7 +3912,7 @@
         <v>4949521.8826521</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4137,7 +3945,7 @@
         <v>4939069.8646521</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4170,7 +3978,7 @@
         <v>4962736.5824521</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4203,7 +4011,7 @@
         <v>4962766.5824521</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4236,7 +4044,7 @@
         <v>4962721.5824521</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4269,7 +4077,7 @@
         <v>4751756.5724521</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4302,7 +4110,7 @@
         <v>4683240.3589521</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4335,7 +4143,7 @@
         <v>4523858.0076521</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4368,7 +4176,7 @@
         <v>4523858.0076521</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4401,7 +4209,7 @@
         <v>4523858.0076521</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4434,7 +4242,7 @@
         <v>4121101.4687521</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4467,7 +4275,7 @@
         <v>4132310.4276521</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4500,7 +4308,7 @@
         <v>4188862.9588521</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4533,7 +4341,7 @@
         <v>4187312.9650521</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4566,7 +4374,7 @@
         <v>4187782.9650521</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4599,7 +4407,7 @@
         <v>4186922.9096521</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4632,7 +4440,7 @@
         <v>4164769.0708521</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4665,7 +4473,7 @@
         <v>4183509.5776521</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4698,7 +4506,7 @@
         <v>4322761.798676871</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4731,7 +4539,7 @@
         <v>4264117.140704491</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4764,7 +4572,7 @@
         <v>4152400.494604491</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4797,7 +4605,7 @@
         <v>4154034.280804491</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4830,7 +4638,7 @@
         <v>4154034.280804491</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4863,7 +4671,7 @@
         <v>4163175.630404491</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4896,7 +4704,7 @@
         <v>4183860.134804491</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5028,7 +4836,7 @@
         <v>4203018.493504491</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5061,7 +4869,7 @@
         <v>4203018.493504491</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5094,7 +4902,7 @@
         <v>4203018.493504491</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5127,7 +4935,7 @@
         <v>4214608.493504491</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5193,7 +5001,7 @@
         <v>4511033.818304491</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5226,7 +5034,7 @@
         <v>4511048.818304491</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5556,7 +5364,7 @@
         <v>4173940.421297251</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5589,7 +5397,7 @@
         <v>4187797.802097251</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5622,7 +5430,7 @@
         <v>4187797.802097251</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5655,7 +5463,7 @@
         <v>4174699.060897251</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5688,7 +5496,7 @@
         <v>4174787.060897251</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5721,7 +5529,7 @@
         <v>4236236.623996081</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5754,7 +5562,7 @@
         <v>4232163.572396081</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5787,7 +5595,7 @@
         <v>4230248.484296081</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5820,7 +5628,7 @@
         <v>4240816.76029608</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5853,7 +5661,7 @@
         <v>4240816.76029608</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5886,7 +5694,7 @@
         <v>4228172.73469608</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5919,7 +5727,7 @@
         <v>4206643.11279608</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5952,7 +5760,7 @@
         <v>4206698.11279608</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5985,7 +5793,7 @@
         <v>4198462.41119608</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6018,7 +5826,7 @@
         <v>4198462.41119608</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6051,7 +5859,7 @@
         <v>4198462.41119608</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6084,7 +5892,7 @@
         <v>4192575.53229608</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6117,7 +5925,7 @@
         <v>4159226.12509608</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6414,7 +6222,7 @@
         <v>4179398.87889608</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6447,7 +6255,7 @@
         <v>4182496.37699608</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6480,7 +6288,7 @@
         <v>4180729.08705526</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6546,7 +6354,7 @@
         <v>4182359.94665526</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6579,7 +6387,7 @@
         <v>4232221.979855261</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6612,7 +6420,7 @@
         <v>4226798.81945526</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6645,7 +6453,7 @@
         <v>4226798.81945526</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6678,7 +6486,7 @@
         <v>4182634.67995526</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6711,7 +6519,7 @@
         <v>4182649.67995526</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6744,7 +6552,7 @@
         <v>4140936.015655261</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6777,7 +6585,7 @@
         <v>4131478.573655261</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6810,7 +6618,7 @@
         <v>4131526.927355261</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6843,7 +6651,7 @@
         <v>4009993.11355526</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6876,7 +6684,7 @@
         <v>4010093.11355526</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6909,7 +6717,7 @@
         <v>4010093.11355526</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6942,7 +6750,7 @@
         <v>4010033.11355526</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7008,7 +6816,7 @@
         <v>3958258.11355526</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7041,7 +6849,7 @@
         <v>3958258.11355526</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7074,7 +6882,7 @@
         <v>3958275.11355526</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7107,7 +6915,7 @@
         <v>3958243.11355526</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7239,7 +7047,7 @@
         <v>3823129.12965526</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7272,7 +7080,7 @@
         <v>3821649.83965526</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7305,7 +7113,7 @@
         <v>3821649.83965526</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7338,7 +7146,7 @@
         <v>3804726.24705526</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7371,7 +7179,7 @@
         <v>3804726.24705526</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7404,7 +7212,7 @@
         <v>3804726.24705526</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -9384,7 +9192,7 @@
         <v>3870119.500322141</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9417,7 +9225,7 @@
         <v>3870134.500322141</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9450,7 +9258,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9483,7 +9291,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9516,7 +9324,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9549,7 +9357,7 @@
         <v>3869467.245522141</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9582,7 +9390,7 @@
         <v>3870256.425322141</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9648,7 +9456,7 @@
         <v>3833790.019722141</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9681,7 +9489,7 @@
         <v>3827099.060222141</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9912,7 +9720,7 @@
         <v>3761403.246122141</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9945,7 +9753,7 @@
         <v>3761403.246122141</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9978,7 +9786,7 @@
         <v>3766287.979122141</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11804,6 +11612,6 @@
       <c r="M332" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -583,14 +583,10 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,19 +649,11 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,14 +682,10 @@
         <v>182368.9385039801</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>30</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -747,11 +723,7 @@
       <c r="J10" t="n">
         <v>30</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -829,7 +801,11 @@
       <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -866,11 +842,7 @@
       <c r="J13" t="n">
         <v>30</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -946,9 +918,13 @@
         <v>30.1</v>
       </c>
       <c r="J15" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -983,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1024,7 +1000,7 @@
         <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1065,7 +1041,7 @@
         <v>30.2</v>
       </c>
       <c r="J18" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,7 +1082,7 @@
         <v>30.4</v>
       </c>
       <c r="J19" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1145,7 +1121,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1184,7 +1160,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,7 +1199,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1262,7 +1238,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1301,7 +1277,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1340,7 +1316,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1379,7 +1355,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1418,7 +1394,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1457,7 +1433,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1496,7 +1472,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1535,7 +1511,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1574,7 +1550,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1613,7 +1589,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1652,7 +1628,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1691,7 +1667,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1730,7 +1706,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1769,7 +1745,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1808,7 +1784,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1847,7 +1823,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1886,7 +1862,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1925,7 +1901,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1964,7 +1940,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2003,7 +1979,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2042,7 +2018,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2081,7 +2057,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2120,7 +2096,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2155,980 +2131,1154 @@
         <v>2170197.51710398</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>110922.33018858</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2059275.1869154</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>30</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>33</v>
+      </c>
+      <c r="C48" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>33</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10557.8988</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2048717.2881154</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>30</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>33</v>
+      </c>
+      <c r="C49" t="n">
+        <v>33</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33</v>
+      </c>
+      <c r="E49" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12641.3755</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2036075.9126154</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>30</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>33</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>33</v>
+      </c>
+      <c r="F50" t="n">
+        <v>34613.145</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2070689.0576154</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>49083.9624</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2119773.0200154</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>30</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E52" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>117754.9646</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2237527.9846154</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>30</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>574375.6276</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2811903.6122154</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>30</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>243276.1596</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2811903.6122154</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>30</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>146970.4747</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2958874.0869154</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>30</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>34</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>86243.7268</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2872630.3601154</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>30</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>34</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>35</v>
+      </c>
+      <c r="E57" t="n">
+        <v>34</v>
+      </c>
+      <c r="F57" t="n">
+        <v>716084.97436704</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3588715.33448244</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>30</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>35</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>498775.69832282</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4087491.03280526</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>30</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>122227.8687</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3965263.16410526</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>30</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>129150.32827195</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3836112.83583331</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>308426.36397365</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4144539.19980696</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>30</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>64424.5535</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4080114.64630696</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>30</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C63" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D63" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11782.0893</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4091896.73560696</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>30</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>255770.2178</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4347666.95340696</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>30</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>35</v>
+      </c>
+      <c r="E65" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>134412.8153</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4213254.13810696</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>30</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>179232.5641</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4034021.57400696</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>30</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>57224.8023</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4091246.37630696</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>30</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>99786.545</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4091246.37630696</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>30</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>73653.427</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4017592.94930696</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>30</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>89457.9975</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4107050.94680696</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>30</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>34</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6112.4245</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4100938.52230696</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>30</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>34</v>
+      </c>
+      <c r="C72" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>34</v>
+      </c>
+      <c r="E72" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>66025.5996</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4034912.92270696</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>30</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>34</v>
+      </c>
+      <c r="D73" t="n">
+        <v>34</v>
+      </c>
+      <c r="E73" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>17013.61</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4051926.53270696</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>51868.6699</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4103795.20260696</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>30</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>53123.9817</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4103795.20260696</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>30</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1.107956810631229</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="L75" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="M75" t="n">
         <v>1.026755852842809</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D47" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>110922.33018858</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2059275.1869154</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>33</v>
-      </c>
-      <c r="C48" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>33</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10557.8988</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2048717.2881154</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>33</v>
-      </c>
-      <c r="C49" t="n">
-        <v>33</v>
-      </c>
-      <c r="D49" t="n">
-        <v>33</v>
-      </c>
-      <c r="E49" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F49" t="n">
-        <v>12641.3755</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2036075.9126154</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>33</v>
-      </c>
-      <c r="C50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>33</v>
-      </c>
-      <c r="F50" t="n">
-        <v>34613.145</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2070689.0576154</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D51" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>49083.9624</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2119773.0200154</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D52" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>117754.9646</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2237527.9846154</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="C53" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>574375.6276</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2811903.6122154</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>243276.1596</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2811903.6122154</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E55" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>146970.4747</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2958874.0869154</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>34</v>
-      </c>
-      <c r="D56" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E56" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>86243.7268</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2872630.3601154</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>34</v>
-      </c>
-      <c r="C57" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D57" t="n">
-        <v>35</v>
-      </c>
-      <c r="E57" t="n">
-        <v>34</v>
-      </c>
-      <c r="F57" t="n">
-        <v>716084.97436704</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3588715.33448244</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>35</v>
-      </c>
-      <c r="C58" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>498775.69832282</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4087491.03280526</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>122227.8687</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3965263.16410526</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E60" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>129150.32827195</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3836112.83583331</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D61" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E61" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F61" t="n">
-        <v>308426.36397365</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4144539.19980696</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D62" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F62" t="n">
-        <v>64424.5535</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4080114.64630696</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D63" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F63" t="n">
-        <v>11782.0893</v>
-      </c>
-      <c r="G63" t="n">
-        <v>4091896.73560696</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>255770.2178</v>
-      </c>
-      <c r="G64" t="n">
-        <v>4347666.95340696</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D65" t="n">
-        <v>35</v>
-      </c>
-      <c r="E65" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>134412.8153</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4213254.13810696</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C66" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E66" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>179232.5641</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4034021.57400696</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D67" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E67" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F67" t="n">
-        <v>57224.8023</v>
-      </c>
-      <c r="G67" t="n">
-        <v>4091246.37630696</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E68" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>99786.545</v>
-      </c>
-      <c r="G68" t="n">
-        <v>4091246.37630696</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D69" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>73653.427</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4017592.94930696</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F70" t="n">
-        <v>89457.9975</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4107050.94680696</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E71" t="n">
-        <v>34</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6112.4245</v>
-      </c>
-      <c r="G71" t="n">
-        <v>4100938.52230696</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>34</v>
-      </c>
-      <c r="C72" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D72" t="n">
-        <v>34</v>
-      </c>
-      <c r="E72" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F72" t="n">
-        <v>66025.5996</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4034912.92270696</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C73" t="n">
-        <v>34</v>
-      </c>
-      <c r="D73" t="n">
-        <v>34</v>
-      </c>
-      <c r="E73" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F73" t="n">
-        <v>17013.61</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4051926.53270696</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>51868.6699</v>
-      </c>
-      <c r="G74" t="n">
-        <v>4103795.20260696</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F75" t="n">
-        <v>53123.9817</v>
-      </c>
-      <c r="G75" t="n">
-        <v>4103795.20260696</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3153,7 +3303,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3186,7 +3336,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3219,7 +3369,7 @@
         <v>4087998.46990696</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3252,7 +3402,7 @@
         <v>4212950.78240696</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3285,7 +3435,7 @@
         <v>4212920.78240696</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3318,7 +3468,7 @@
         <v>4213027.74780696</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3351,7 +3501,7 @@
         <v>4163832.07310696</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3384,7 +3534,7 @@
         <v>4096435.14720696</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3417,7 +3567,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3450,7 +3600,7 @@
         <v>4005624.79760696</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3516,7 +3666,7 @@
         <v>4070824.79760696</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3549,7 +3699,7 @@
         <v>4759572.16950696</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3582,7 +3732,7 @@
         <v>5094506.2610521</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3615,7 +3765,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3648,7 +3798,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3681,7 +3831,7 @@
         <v>5026230.8716521</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3714,7 +3864,7 @@
         <v>4990892.6490521</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3747,7 +3897,7 @@
         <v>5039890.2602521</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3945,7 +4095,7 @@
         <v>4939069.8646521</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>

--- a/BackTest/2019-11-24 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-24 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M332"/>
+  <dimension ref="A1:L332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>300.3322</v>
       </c>
       <c r="G2" t="n">
-        <v>209788.3680039801</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>810.631</v>
       </c>
       <c r="G3" t="n">
-        <v>208977.7370039801</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>26336.7982</v>
       </c>
       <c r="G4" t="n">
-        <v>182640.9388039801</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>338.0003</v>
       </c>
       <c r="G5" t="n">
-        <v>182302.9385039801</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>182368.9385039801</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>182368.9385039801</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>23940.1499</v>
       </c>
       <c r="G8" t="n">
-        <v>182368.9385039801</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6589.2239</v>
       </c>
       <c r="G9" t="n">
-        <v>182368.9385039801</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,22 +683,15 @@
         <v>7881.2948</v>
       </c>
       <c r="G10" t="n">
-        <v>174487.6437039801</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,350 +713,275 @@
         <v>829.8088</v>
       </c>
       <c r="G11" t="n">
-        <v>175317.4525039801</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>30</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18.9062</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>89.86799999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.9803</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3426.1345</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22.5981</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>22234.7353</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>443427.1703</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30</v>
-      </c>
-      <c r="F12" t="n">
-        <v>18.9062</v>
-      </c>
-      <c r="G12" t="n">
-        <v>175317.4525039801</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>30</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>89.86799999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>175407.3205039801</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>30</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14.9803</v>
-      </c>
-      <c r="G14" t="n">
-        <v>175392.3402039801</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>30</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" t="n">
-        <v>30</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3426.1345</v>
-      </c>
-      <c r="G15" t="n">
-        <v>171966.2057039801</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>30</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>171966.2057039801</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>22.5981</v>
-      </c>
-      <c r="G17" t="n">
-        <v>171988.8038039801</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>22234.7353</v>
-      </c>
-      <c r="G18" t="n">
-        <v>194223.5391039801</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>443427.1703</v>
-      </c>
-      <c r="G19" t="n">
-        <v>637650.7094039801</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>30</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,24 +1003,15 @@
         <v>1066</v>
       </c>
       <c r="G20" t="n">
-        <v>637650.7094039801</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>30</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,24 +1033,15 @@
         <v>88</v>
       </c>
       <c r="G21" t="n">
-        <v>637562.7094039801</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>30</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,24 +1063,15 @@
         <v>88</v>
       </c>
       <c r="G22" t="n">
-        <v>637562.7094039801</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>30</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1231,24 +1093,15 @@
         <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>637650.7094039801</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>30</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,24 +1123,15 @@
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>637667.7094039801</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>30</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1309,24 +1153,15 @@
         <v>10280</v>
       </c>
       <c r="G25" t="n">
-        <v>627387.7094039801</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>30</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1348,24 +1183,15 @@
         <v>82</v>
       </c>
       <c r="G26" t="n">
-        <v>627469.7094039801</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>30</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1387,24 +1213,15 @@
         <v>1318</v>
       </c>
       <c r="G27" t="n">
-        <v>627469.7094039801</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>30</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1426,24 +1243,15 @@
         <v>104072.1093</v>
       </c>
       <c r="G28" t="n">
-        <v>731541.8187039801</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>30</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1465,24 +1273,15 @@
         <v>5717.5336</v>
       </c>
       <c r="G29" t="n">
-        <v>731541.8187039801</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>30</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1504,24 +1303,15 @@
         <v>5720</v>
       </c>
       <c r="G30" t="n">
-        <v>731541.8187039801</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>30</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1543,24 +1333,15 @@
         <v>2510</v>
       </c>
       <c r="G31" t="n">
-        <v>731541.8187039801</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,24 +1363,15 @@
         <v>25607</v>
       </c>
       <c r="G32" t="n">
-        <v>757148.8187039801</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>30</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1621,24 +1393,15 @@
         <v>17163.5097</v>
       </c>
       <c r="G33" t="n">
-        <v>757148.8187039801</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>30</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1660,24 +1423,15 @@
         <v>54501.9248</v>
       </c>
       <c r="G34" t="n">
-        <v>702646.89390398</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>30</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1699,24 +1453,15 @@
         <v>49154.889</v>
       </c>
       <c r="G35" t="n">
-        <v>751801.78290398</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>30</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1738,24 +1483,15 @@
         <v>52794.5902</v>
       </c>
       <c r="G36" t="n">
-        <v>751801.78290398</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>30</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1777,24 +1513,15 @@
         <v>8442.2327</v>
       </c>
       <c r="G37" t="n">
-        <v>743359.5502039799</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>30</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1816,24 +1543,15 @@
         <v>47829.5274</v>
       </c>
       <c r="G38" t="n">
-        <v>791189.07760398</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>30</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1855,24 +1573,15 @@
         <v>133004.1979</v>
       </c>
       <c r="G39" t="n">
-        <v>924193.27550398</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>30</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1894,24 +1603,15 @@
         <v>266631.6165</v>
       </c>
       <c r="G40" t="n">
-        <v>1190824.89200398</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>30</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1933,24 +1633,15 @@
         <v>67206.6419</v>
       </c>
       <c r="G41" t="n">
-        <v>1258031.53390398</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>30</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1972,24 +1663,15 @@
         <v>82962.5799</v>
       </c>
       <c r="G42" t="n">
-        <v>1175068.95400398</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>30</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2011,24 +1693,15 @@
         <v>84928.4143</v>
       </c>
       <c r="G43" t="n">
-        <v>1259997.36830398</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>30</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2050,24 +1723,15 @@
         <v>465114.9809</v>
       </c>
       <c r="G44" t="n">
-        <v>1725112.34920398</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>30</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2089,24 +1753,15 @@
         <v>323874.61598858</v>
       </c>
       <c r="G45" t="n">
-        <v>2048986.96519256</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>30</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2128,24 +1783,15 @@
         <v>121210.55191142</v>
       </c>
       <c r="G46" t="n">
-        <v>2170197.51710398</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>30</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2167,24 +1813,15 @@
         <v>110922.33018858</v>
       </c>
       <c r="G47" t="n">
-        <v>2059275.1869154</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>30</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2206,24 +1843,15 @@
         <v>10557.8988</v>
       </c>
       <c r="G48" t="n">
-        <v>2048717.2881154</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>30</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2245,24 +1873,15 @@
         <v>12641.3755</v>
       </c>
       <c r="G49" t="n">
-        <v>2036075.9126154</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>30</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2284,24 +1903,15 @@
         <v>34613.145</v>
       </c>
       <c r="G50" t="n">
-        <v>2070689.0576154</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>30</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2323,24 +1933,15 @@
         <v>49083.9624</v>
       </c>
       <c r="G51" t="n">
-        <v>2119773.0200154</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>30</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2362,24 +1963,15 @@
         <v>117754.9646</v>
       </c>
       <c r="G52" t="n">
-        <v>2237527.9846154</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>30</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2401,24 +1993,15 @@
         <v>574375.6276</v>
       </c>
       <c r="G53" t="n">
-        <v>2811903.6122154</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>30</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2440,24 +2023,15 @@
         <v>243276.1596</v>
       </c>
       <c r="G54" t="n">
-        <v>2811903.6122154</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>30</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2479,24 +2053,15 @@
         <v>146970.4747</v>
       </c>
       <c r="G55" t="n">
-        <v>2958874.0869154</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>30</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2518,24 +2083,15 @@
         <v>86243.7268</v>
       </c>
       <c r="G56" t="n">
-        <v>2872630.3601154</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>30</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2557,24 +2113,15 @@
         <v>716084.97436704</v>
       </c>
       <c r="G57" t="n">
-        <v>3588715.33448244</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>30</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2596,24 +2143,15 @@
         <v>498775.69832282</v>
       </c>
       <c r="G58" t="n">
-        <v>4087491.03280526</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>30</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2635,24 +2173,15 @@
         <v>122227.8687</v>
       </c>
       <c r="G59" t="n">
-        <v>3965263.16410526</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>30</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2674,24 +2203,15 @@
         <v>129150.32827195</v>
       </c>
       <c r="G60" t="n">
-        <v>3836112.83583331</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>30</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2713,24 +2233,15 @@
         <v>308426.36397365</v>
       </c>
       <c r="G61" t="n">
-        <v>4144539.19980696</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>30</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2752,24 +2263,15 @@
         <v>64424.5535</v>
       </c>
       <c r="G62" t="n">
-        <v>4080114.64630696</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>30</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2791,24 +2293,15 @@
         <v>11782.0893</v>
       </c>
       <c r="G63" t="n">
-        <v>4091896.73560696</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>30</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2830,24 +2323,15 @@
         <v>255770.2178</v>
       </c>
       <c r="G64" t="n">
-        <v>4347666.95340696</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>30</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2869,24 +2353,15 @@
         <v>134412.8153</v>
       </c>
       <c r="G65" t="n">
-        <v>4213254.13810696</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>30</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2908,24 +2383,15 @@
         <v>179232.5641</v>
       </c>
       <c r="G66" t="n">
-        <v>4034021.57400696</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>30</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2947,24 +2413,15 @@
         <v>57224.8023</v>
       </c>
       <c r="G67" t="n">
-        <v>4091246.37630696</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>30</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2986,24 +2443,15 @@
         <v>99786.545</v>
       </c>
       <c r="G68" t="n">
-        <v>4091246.37630696</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>30</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3025,24 +2473,15 @@
         <v>73653.427</v>
       </c>
       <c r="G69" t="n">
-        <v>4017592.94930696</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>30</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3064,24 +2503,15 @@
         <v>89457.9975</v>
       </c>
       <c r="G70" t="n">
-        <v>4107050.94680696</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>30</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3103,24 +2533,15 @@
         <v>6112.4245</v>
       </c>
       <c r="G71" t="n">
-        <v>4100938.52230696</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>30</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3142,24 +2563,15 @@
         <v>66025.5996</v>
       </c>
       <c r="G72" t="n">
-        <v>4034912.92270696</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>30</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3181,24 +2593,15 @@
         <v>17013.61</v>
       </c>
       <c r="G73" t="n">
-        <v>4051926.53270696</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>30</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3220,24 +2623,15 @@
         <v>51868.6699</v>
       </c>
       <c r="G74" t="n">
-        <v>4103795.20260696</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>30</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3259,26 +2653,15 @@
         <v>53123.9817</v>
       </c>
       <c r="G75" t="n">
-        <v>4103795.20260696</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>30</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1.145</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.026755852842809</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3300,18 +2683,15 @@
         <v>15796.7327</v>
       </c>
       <c r="G76" t="n">
-        <v>4087998.46990696</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3333,18 +2713,15 @@
         <v>15571.4814</v>
       </c>
       <c r="G77" t="n">
-        <v>4087998.46990696</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3366,18 +2743,15 @@
         <v>200964.712</v>
       </c>
       <c r="G78" t="n">
-        <v>4087998.46990696</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3399,18 +2773,15 @@
         <v>124952.3125</v>
       </c>
       <c r="G79" t="n">
-        <v>4212950.78240696</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3432,18 +2803,15 @@
         <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>4212920.78240696</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3465,18 +2833,15 @@
         <v>106.9654</v>
       </c>
       <c r="G81" t="n">
-        <v>4213027.74780696</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3498,18 +2863,15 @@
         <v>49195.6747</v>
       </c>
       <c r="G82" t="n">
-        <v>4163832.07310696</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3531,18 +2893,15 @@
         <v>67396.9259</v>
       </c>
       <c r="G83" t="n">
-        <v>4096435.14720696</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3564,18 +2923,15 @@
         <v>90810.3496</v>
       </c>
       <c r="G84" t="n">
-        <v>4005624.79760696</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3597,18 +2953,15 @@
         <v>22651.50383529</v>
       </c>
       <c r="G85" t="n">
-        <v>4005624.79760696</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3630,18 +2983,15 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>4005824.79760696</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3663,18 +3013,15 @@
         <v>65000</v>
       </c>
       <c r="G87" t="n">
-        <v>4070824.79760696</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3696,18 +3043,15 @@
         <v>688747.3719</v>
       </c>
       <c r="G88" t="n">
-        <v>4759572.16950696</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3729,18 +3073,15 @@
         <v>334934.09154514</v>
       </c>
       <c r="G89" t="n">
-        <v>5094506.2610521</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3762,18 +3103,15 @@
         <v>68275.3894</v>
       </c>
       <c r="G90" t="n">
-        <v>5026230.8716521</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3795,18 +3133,15 @@
         <v>48730.48880259</v>
       </c>
       <c r="G91" t="n">
-        <v>5026230.8716521</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3828,18 +3163,15 @@
         <v>178654.0495</v>
       </c>
       <c r="G92" t="n">
-        <v>5026230.8716521</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3861,18 +3193,15 @@
         <v>35338.2226</v>
       </c>
       <c r="G93" t="n">
-        <v>4990892.6490521</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3894,18 +3223,15 @@
         <v>48997.6112</v>
       </c>
       <c r="G94" t="n">
-        <v>5039890.2602521</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3927,18 +3253,15 @@
         <v>178984.2561</v>
       </c>
       <c r="G95" t="n">
-        <v>4860906.004152101</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3960,18 +3283,15 @@
         <v>64530.469</v>
       </c>
       <c r="G96" t="n">
-        <v>4925436.4731521</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3993,18 +3313,15 @@
         <v>13589.2962</v>
       </c>
       <c r="G97" t="n">
-        <v>4911847.1769521</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4026,18 +3343,15 @@
         <v>37674.7057</v>
       </c>
       <c r="G98" t="n">
-        <v>4949521.8826521</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4059,18 +3373,15 @@
         <v>8108.6688</v>
       </c>
       <c r="G99" t="n">
-        <v>4949521.8826521</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4092,18 +3403,15 @@
         <v>10452.018</v>
       </c>
       <c r="G100" t="n">
-        <v>4939069.8646521</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4125,18 +3433,15 @@
         <v>23666.7178</v>
       </c>
       <c r="G101" t="n">
-        <v>4962736.5824521</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4158,18 +3463,15 @@
         <v>30</v>
       </c>
       <c r="G102" t="n">
-        <v>4962766.5824521</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4191,18 +3493,15 @@
         <v>45</v>
       </c>
       <c r="G103" t="n">
-        <v>4962721.5824521</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,18 +3523,15 @@
         <v>210965.01</v>
       </c>
       <c r="G104" t="n">
-        <v>4751756.5724521</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4257,18 +3553,15 @@
         <v>68516.2135</v>
       </c>
       <c r="G105" t="n">
-        <v>4683240.3589521</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4290,18 +3583,15 @@
         <v>159382.3513</v>
       </c>
       <c r="G106" t="n">
-        <v>4523858.0076521</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4323,18 +3613,15 @@
         <v>15490.3375</v>
       </c>
       <c r="G107" t="n">
-        <v>4523858.0076521</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4356,18 +3643,15 @@
         <v>176</v>
       </c>
       <c r="G108" t="n">
-        <v>4523858.0076521</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4389,18 +3673,15 @@
         <v>402756.5389</v>
       </c>
       <c r="G109" t="n">
-        <v>4121101.4687521</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4422,18 +3703,15 @@
         <v>11208.9589</v>
       </c>
       <c r="G110" t="n">
-        <v>4132310.4276521</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4455,18 +3733,15 @@
         <v>56552.5312</v>
       </c>
       <c r="G111" t="n">
-        <v>4188862.9588521</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4488,18 +3763,15 @@
         <v>1549.9938</v>
       </c>
       <c r="G112" t="n">
-        <v>4187312.9650521</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4521,18 +3793,15 @@
         <v>470</v>
       </c>
       <c r="G113" t="n">
-        <v>4187782.9650521</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4554,18 +3823,15 @@
         <v>860.0554</v>
       </c>
       <c r="G114" t="n">
-        <v>4186922.9096521</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4587,18 +3853,15 @@
         <v>22153.8388</v>
       </c>
       <c r="G115" t="n">
-        <v>4164769.0708521</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4620,18 +3883,15 @@
         <v>18740.5068</v>
       </c>
       <c r="G116" t="n">
-        <v>4183509.5776521</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4653,18 +3913,15 @@
         <v>139252.22102477</v>
       </c>
       <c r="G117" t="n">
-        <v>4322761.798676871</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4686,18 +3943,15 @@
         <v>58644.65797238</v>
       </c>
       <c r="G118" t="n">
-        <v>4264117.140704491</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4719,18 +3973,15 @@
         <v>111716.6461</v>
       </c>
       <c r="G119" t="n">
-        <v>4152400.494604491</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4752,18 +4003,15 @@
         <v>1633.7862</v>
       </c>
       <c r="G120" t="n">
-        <v>4154034.280804491</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4785,18 +4033,15 @@
         <v>83766.1476</v>
       </c>
       <c r="G121" t="n">
-        <v>4154034.280804491</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4818,18 +4063,15 @@
         <v>9141.3496</v>
       </c>
       <c r="G122" t="n">
-        <v>4163175.630404491</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4851,18 +4093,15 @@
         <v>20684.5044</v>
       </c>
       <c r="G123" t="n">
-        <v>4183860.134804491</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4884,18 +4123,15 @@
         <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>4183840.134804491</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4917,18 +4153,15 @@
         <v>1387.1617</v>
       </c>
       <c r="G125" t="n">
-        <v>4182452.973104491</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4950,18 +4183,15 @@
         <v>264.481</v>
       </c>
       <c r="G126" t="n">
-        <v>4182717.454104491</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4983,18 +4213,15 @@
         <v>20301.0394</v>
       </c>
       <c r="G127" t="n">
-        <v>4203018.493504491</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5016,18 +4243,15 @@
         <v>44085.7887</v>
       </c>
       <c r="G128" t="n">
-        <v>4203018.493504491</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5049,18 +4273,15 @@
         <v>155</v>
       </c>
       <c r="G129" t="n">
-        <v>4203018.493504491</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5082,18 +4303,15 @@
         <v>11590</v>
       </c>
       <c r="G130" t="n">
-        <v>4214608.493504491</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5115,18 +4333,15 @@
         <v>301227.0898</v>
       </c>
       <c r="G131" t="n">
-        <v>4515835.583304491</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5148,18 +4363,15 @@
         <v>4801.765</v>
       </c>
       <c r="G132" t="n">
-        <v>4511033.818304491</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5181,18 +4393,15 @@
         <v>15</v>
       </c>
       <c r="G133" t="n">
-        <v>4511048.818304491</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5214,18 +4423,15 @@
         <v>159.98550724</v>
       </c>
       <c r="G134" t="n">
-        <v>4510888.832797252</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5247,18 +4453,15 @@
         <v>2584.8971</v>
       </c>
       <c r="G135" t="n">
-        <v>4513473.729897251</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4483,15 @@
         <v>100801.4651</v>
       </c>
       <c r="G136" t="n">
-        <v>4412672.264797252</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5313,18 +4513,15 @@
         <v>223.1234</v>
       </c>
       <c r="G137" t="n">
-        <v>4412895.388197252</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5346,18 +4543,15 @@
         <v>10192.8797</v>
       </c>
       <c r="G138" t="n">
-        <v>4402702.508497251</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5379,18 +4573,15 @@
         <v>18359.2304</v>
       </c>
       <c r="G139" t="n">
-        <v>4384343.278097251</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5412,18 +4603,15 @@
         <v>842.5214999999999</v>
       </c>
       <c r="G140" t="n">
-        <v>4385185.799597251</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5445,18 +4633,15 @@
         <v>880.5581</v>
       </c>
       <c r="G141" t="n">
-        <v>4385185.799597251</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5478,18 +4663,15 @@
         <v>37251</v>
       </c>
       <c r="G142" t="n">
-        <v>4347934.799597251</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5511,18 +4693,15 @@
         <v>173994.3783</v>
       </c>
       <c r="G143" t="n">
-        <v>4173940.421297251</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5544,18 +4723,15 @@
         <v>13857.3808</v>
       </c>
       <c r="G144" t="n">
-        <v>4187797.802097251</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5577,18 +4753,15 @@
         <v>48214.8109</v>
       </c>
       <c r="G145" t="n">
-        <v>4187797.802097251</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5610,18 +4783,15 @@
         <v>13098.7412</v>
       </c>
       <c r="G146" t="n">
-        <v>4174699.060897251</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5643,18 +4813,15 @@
         <v>88</v>
       </c>
       <c r="G147" t="n">
-        <v>4174787.060897251</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5676,18 +4843,15 @@
         <v>61449.56309883</v>
       </c>
       <c r="G148" t="n">
-        <v>4236236.623996081</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5709,18 +4873,15 @@
         <v>4073.0516</v>
       </c>
       <c r="G149" t="n">
-        <v>4232163.572396081</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5742,18 +4903,15 @@
         <v>1915.0881</v>
       </c>
       <c r="G150" t="n">
-        <v>4230248.484296081</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5775,18 +4933,15 @@
         <v>10568.276</v>
       </c>
       <c r="G151" t="n">
-        <v>4240816.76029608</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5808,18 +4963,15 @@
         <v>183</v>
       </c>
       <c r="G152" t="n">
-        <v>4240816.76029608</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5841,18 +4993,15 @@
         <v>12644.0256</v>
       </c>
       <c r="G153" t="n">
-        <v>4228172.73469608</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5874,18 +5023,15 @@
         <v>21529.6219</v>
       </c>
       <c r="G154" t="n">
-        <v>4206643.11279608</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5907,18 +5053,15 @@
         <v>55</v>
       </c>
       <c r="G155" t="n">
-        <v>4206698.11279608</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5940,18 +5083,15 @@
         <v>8235.7016</v>
       </c>
       <c r="G156" t="n">
-        <v>4198462.41119608</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5973,18 +5113,15 @@
         <v>73.0977</v>
       </c>
       <c r="G157" t="n">
-        <v>4198462.41119608</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6006,18 +5143,15 @@
         <v>915.7591</v>
       </c>
       <c r="G158" t="n">
-        <v>4198462.41119608</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6039,18 +5173,15 @@
         <v>5886.8789</v>
       </c>
       <c r="G159" t="n">
-        <v>4192575.53229608</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6072,18 +5203,15 @@
         <v>33349.4072</v>
       </c>
       <c r="G160" t="n">
-        <v>4159226.12509608</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6105,18 +5233,15 @@
         <v>3493.6088</v>
       </c>
       <c r="G161" t="n">
-        <v>4159226.12509608</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6138,18 +5263,15 @@
         <v>4699.6442</v>
       </c>
       <c r="G162" t="n">
-        <v>4159226.12509608</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6171,18 +5293,15 @@
         <v>12646</v>
       </c>
       <c r="G163" t="n">
-        <v>4159226.12509608</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6204,18 +5323,15 @@
         <v>53.5146</v>
       </c>
       <c r="G164" t="n">
-        <v>4159279.63969608</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6237,18 +5353,15 @@
         <v>5049.1681</v>
       </c>
       <c r="G165" t="n">
-        <v>4154230.47159608</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6270,18 +5383,15 @@
         <v>22599.1961</v>
       </c>
       <c r="G166" t="n">
-        <v>4131631.275496081</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6303,18 +5413,15 @@
         <v>17</v>
       </c>
       <c r="G167" t="n">
-        <v>4131648.275496081</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6336,18 +5443,15 @@
         <v>47750.6034</v>
       </c>
       <c r="G168" t="n">
-        <v>4179398.87889608</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6369,18 +5473,15 @@
         <v>3751.9654</v>
       </c>
       <c r="G169" t="n">
-        <v>4179398.87889608</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6402,18 +5503,15 @@
         <v>3097.4981</v>
       </c>
       <c r="G170" t="n">
-        <v>4182496.37699608</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6435,18 +5533,15 @@
         <v>1767.28994082</v>
       </c>
       <c r="G171" t="n">
-        <v>4180729.08705526</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6468,18 +5563,15 @@
         <v>5486.3806</v>
       </c>
       <c r="G172" t="n">
-        <v>4180729.08705526</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6501,18 +5593,15 @@
         <v>1630.8596</v>
       </c>
       <c r="G173" t="n">
-        <v>4182359.94665526</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6534,18 +5623,15 @@
         <v>49862.0332</v>
       </c>
       <c r="G174" t="n">
-        <v>4232221.979855261</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6567,18 +5653,15 @@
         <v>5423.1604</v>
       </c>
       <c r="G175" t="n">
-        <v>4226798.81945526</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6600,18 +5683,15 @@
         <v>4265.3751</v>
       </c>
       <c r="G176" t="n">
-        <v>4226798.81945526</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6633,18 +5713,15 @@
         <v>44164.1395</v>
       </c>
       <c r="G177" t="n">
-        <v>4182634.67995526</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6666,18 +5743,15 @@
         <v>15</v>
       </c>
       <c r="G178" t="n">
-        <v>4182649.67995526</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6699,18 +5773,15 @@
         <v>41713.6643</v>
       </c>
       <c r="G179" t="n">
-        <v>4140936.015655261</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6732,18 +5803,15 @@
         <v>9457.441999999999</v>
       </c>
       <c r="G180" t="n">
-        <v>4131478.573655261</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6765,18 +5833,15 @@
         <v>48.3537</v>
       </c>
       <c r="G181" t="n">
-        <v>4131526.927355261</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6798,18 +5863,15 @@
         <v>121533.8138</v>
       </c>
       <c r="G182" t="n">
-        <v>4009993.11355526</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6831,18 +5893,15 @@
         <v>100</v>
       </c>
       <c r="G183" t="n">
-        <v>4010093.11355526</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6864,18 +5923,15 @@
         <v>120.3894</v>
       </c>
       <c r="G184" t="n">
-        <v>4010093.11355526</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6897,18 +5953,15 @@
         <v>60</v>
       </c>
       <c r="G185" t="n">
-        <v>4010033.11355526</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6930,18 +5983,15 @@
         <v>51235</v>
       </c>
       <c r="G186" t="n">
-        <v>3958798.11355526</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6963,18 +6013,15 @@
         <v>540</v>
       </c>
       <c r="G187" t="n">
-        <v>3958258.11355526</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6996,18 +6043,15 @@
         <v>83218.08930000001</v>
       </c>
       <c r="G188" t="n">
-        <v>3958258.11355526</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7029,18 +6073,15 @@
         <v>17</v>
       </c>
       <c r="G189" t="n">
-        <v>3958275.11355526</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7062,18 +6103,15 @@
         <v>32</v>
       </c>
       <c r="G190" t="n">
-        <v>3958243.11355526</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7095,18 +6133,15 @@
         <v>138770.7008</v>
       </c>
       <c r="G191" t="n">
-        <v>3819472.41275526</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7128,18 +6163,15 @@
         <v>5655.8455</v>
       </c>
       <c r="G192" t="n">
-        <v>3819472.41275526</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7161,18 +6193,15 @@
         <v>3656.7169</v>
       </c>
       <c r="G193" t="n">
-        <v>3823129.12965526</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7194,18 +6223,15 @@
         <v>33150.2759</v>
       </c>
       <c r="G194" t="n">
-        <v>3823129.12965526</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7227,18 +6253,15 @@
         <v>1479.29</v>
       </c>
       <c r="G195" t="n">
-        <v>3821649.83965526</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7260,18 +6283,15 @@
         <v>13117.6926</v>
       </c>
       <c r="G196" t="n">
-        <v>3821649.83965526</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7293,18 +6313,15 @@
         <v>16923.5926</v>
       </c>
       <c r="G197" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7326,18 +6343,15 @@
         <v>10192.3949</v>
       </c>
       <c r="G198" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7359,18 +6373,15 @@
         <v>2917.8415</v>
       </c>
       <c r="G199" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7392,18 +6403,15 @@
         <v>1356.0623</v>
       </c>
       <c r="G200" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7425,18 +6433,15 @@
         <v>4173.9338</v>
       </c>
       <c r="G201" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7458,18 +6463,15 @@
         <v>1949.5816</v>
       </c>
       <c r="G202" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7491,18 +6493,15 @@
         <v>1356.0622</v>
       </c>
       <c r="G203" t="n">
-        <v>3804726.24705526</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7524,18 +6523,15 @@
         <v>39415.7915</v>
       </c>
       <c r="G204" t="n">
-        <v>3765310.45555526</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7557,18 +6553,15 @@
         <v>2881.0063</v>
       </c>
       <c r="G205" t="n">
-        <v>3765310.45555526</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7590,18 +6583,15 @@
         <v>16</v>
       </c>
       <c r="G206" t="n">
-        <v>3765326.45555526</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7623,18 +6613,15 @@
         <v>89164.0003</v>
       </c>
       <c r="G207" t="n">
-        <v>3676162.45525526</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7656,18 +6643,15 @@
         <v>143106.5837</v>
       </c>
       <c r="G208" t="n">
-        <v>3533055.87155526</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7689,18 +6673,15 @@
         <v>74083.2141</v>
       </c>
       <c r="G209" t="n">
-        <v>3607139.08565526</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7722,18 +6703,15 @@
         <v>20</v>
       </c>
       <c r="G210" t="n">
-        <v>3607119.08565526</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7755,18 +6733,15 @@
         <v>532</v>
       </c>
       <c r="G211" t="n">
-        <v>3607119.08565526</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7788,18 +6763,15 @@
         <v>2171.5641</v>
       </c>
       <c r="G212" t="n">
-        <v>3607119.08565526</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7821,18 +6793,15 @@
         <v>570</v>
       </c>
       <c r="G213" t="n">
-        <v>3607689.08565526</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7854,18 +6823,15 @@
         <v>2028.5682</v>
       </c>
       <c r="G214" t="n">
-        <v>3607689.08565526</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7887,18 +6853,15 @@
         <v>15007.6471</v>
       </c>
       <c r="G215" t="n">
-        <v>3592681.43855526</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7920,18 +6883,15 @@
         <v>16</v>
       </c>
       <c r="G216" t="n">
-        <v>3592697.43855526</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7953,18 +6913,15 @@
         <v>44688.3078</v>
       </c>
       <c r="G217" t="n">
-        <v>3548009.13075526</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7986,18 +6943,15 @@
         <v>267</v>
       </c>
       <c r="G218" t="n">
-        <v>3548009.13075526</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8019,18 +6973,15 @@
         <v>371</v>
       </c>
       <c r="G219" t="n">
-        <v>3548380.13075526</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8052,18 +7003,15 @@
         <v>108</v>
       </c>
       <c r="G220" t="n">
-        <v>3548272.13075526</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8085,18 +7033,15 @@
         <v>1885.9987</v>
       </c>
       <c r="G221" t="n">
-        <v>3548272.13075526</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8118,18 +7063,15 @@
         <v>3082.4286</v>
       </c>
       <c r="G222" t="n">
-        <v>3545189.70215526</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8151,18 +7093,15 @@
         <v>5193.2894</v>
       </c>
       <c r="G223" t="n">
-        <v>3550382.99155526</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8184,18 +7123,15 @@
         <v>53932.5655</v>
       </c>
       <c r="G224" t="n">
-        <v>3496450.42605526</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8217,18 +7153,15 @@
         <v>8308.799300000001</v>
       </c>
       <c r="G225" t="n">
-        <v>3496450.42605526</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8250,18 +7183,15 @@
         <v>382.25</v>
       </c>
       <c r="G226" t="n">
-        <v>3496450.42605526</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8283,18 +7213,15 @@
         <v>791</v>
       </c>
       <c r="G227" t="n">
-        <v>3496450.42605526</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8316,18 +7243,15 @@
         <v>2028.5682</v>
       </c>
       <c r="G228" t="n">
-        <v>3496450.42605526</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8349,18 +7273,15 @@
         <v>4925.3727</v>
       </c>
       <c r="G229" t="n">
-        <v>3501375.79875526</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8382,18 +7303,15 @@
         <v>16229.8765</v>
       </c>
       <c r="G230" t="n">
-        <v>3485145.92225526</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8415,18 +7333,15 @@
         <v>2984.34385653</v>
       </c>
       <c r="G231" t="n">
-        <v>3488130.26611179</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8448,18 +7363,15 @@
         <v>3783.7971</v>
       </c>
       <c r="G232" t="n">
-        <v>3484346.46901179</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8481,18 +7393,15 @@
         <v>2859.4152</v>
       </c>
       <c r="G233" t="n">
-        <v>3487205.88421179</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8514,18 +7423,15 @@
         <v>30012.1167</v>
       </c>
       <c r="G234" t="n">
-        <v>3487205.88421179</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8547,18 +7453,15 @@
         <v>28588.9688</v>
       </c>
       <c r="G235" t="n">
-        <v>3487205.88421179</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8580,18 +7483,15 @@
         <v>14958.6807</v>
       </c>
       <c r="G236" t="n">
-        <v>3502164.56491179</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8613,18 +7513,15 @@
         <v>1236.9914</v>
       </c>
       <c r="G237" t="n">
-        <v>3503401.55631179</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8646,18 +7543,15 @@
         <v>3463.6706</v>
       </c>
       <c r="G238" t="n">
-        <v>3503401.55631179</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8679,18 +7573,15 @@
         <v>157715.97335918</v>
       </c>
       <c r="G239" t="n">
-        <v>3661117.529670971</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8712,18 +7603,15 @@
         <v>191366.7771</v>
       </c>
       <c r="G240" t="n">
-        <v>3852484.306770971</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8745,18 +7633,15 @@
         <v>8456.400299999999</v>
       </c>
       <c r="G241" t="n">
-        <v>3844027.906470971</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8778,18 +7663,15 @@
         <v>21535.6726</v>
       </c>
       <c r="G242" t="n">
-        <v>3865563.579070971</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8811,18 +7693,15 @@
         <v>37122.4091</v>
       </c>
       <c r="G243" t="n">
-        <v>3902685.988170971</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8844,18 +7723,15 @@
         <v>24523.9404</v>
       </c>
       <c r="G244" t="n">
-        <v>3878162.047770971</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8877,18 +7753,15 @@
         <v>10303.3511</v>
       </c>
       <c r="G245" t="n">
-        <v>3888465.398870971</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8910,18 +7783,15 @@
         <v>113189.17270117</v>
       </c>
       <c r="G246" t="n">
-        <v>3888465.398870971</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8943,18 +7813,15 @@
         <v>105383.0255</v>
       </c>
       <c r="G247" t="n">
-        <v>3993848.424370971</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8976,18 +7843,15 @@
         <v>290.14534883</v>
       </c>
       <c r="G248" t="n">
-        <v>3993558.27902214</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9009,18 +7873,15 @@
         <v>774.8323</v>
       </c>
       <c r="G249" t="n">
-        <v>3992783.446722141</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9042,18 +7903,15 @@
         <v>43565.3629</v>
       </c>
       <c r="G250" t="n">
-        <v>3992783.446722141</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9075,18 +7933,15 @@
         <v>55</v>
       </c>
       <c r="G251" t="n">
-        <v>3992838.446722141</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9108,18 +7963,15 @@
         <v>37.4469</v>
       </c>
       <c r="G252" t="n">
-        <v>3992800.999822141</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9141,18 +7993,15 @@
         <v>170</v>
       </c>
       <c r="G253" t="n">
-        <v>3992630.999822141</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9174,18 +8023,15 @@
         <v>23752.983</v>
       </c>
       <c r="G254" t="n">
-        <v>3968878.016822141</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9207,18 +8053,15 @@
         <v>147.4691</v>
       </c>
       <c r="G255" t="n">
-        <v>3968878.016822141</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9240,18 +8083,15 @@
         <v>5054.4968</v>
       </c>
       <c r="G256" t="n">
-        <v>3963823.520022141</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9273,18 +8113,15 @@
         <v>101249.4431</v>
       </c>
       <c r="G257" t="n">
-        <v>3862574.076922141</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9306,18 +8143,15 @@
         <v>7545.4234</v>
       </c>
       <c r="G258" t="n">
-        <v>3870119.500322141</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9339,18 +8173,15 @@
         <v>20024.5301</v>
       </c>
       <c r="G259" t="n">
-        <v>3870119.500322141</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9372,18 +8203,15 @@
         <v>15</v>
       </c>
       <c r="G260" t="n">
-        <v>3870134.500322141</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9405,18 +8233,15 @@
         <v>667.2548</v>
       </c>
       <c r="G261" t="n">
-        <v>3869467.245522141</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9438,18 +8263,15 @@
         <v>17919.637</v>
       </c>
       <c r="G262" t="n">
-        <v>3869467.245522141</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9471,18 +8293,15 @@
         <v>17276.2571</v>
       </c>
       <c r="G263" t="n">
-        <v>3869467.245522141</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9504,18 +8323,15 @@
         <v>17597</v>
       </c>
       <c r="G264" t="n">
-        <v>3869467.245522141</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9537,18 +8353,15 @@
         <v>789.1798</v>
       </c>
       <c r="G265" t="n">
-        <v>3870256.425322141</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9570,18 +8383,15 @@
         <v>36466.4056</v>
       </c>
       <c r="G266" t="n">
-        <v>3833790.019722141</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9603,18 +8413,15 @@
         <v>18189.8169</v>
       </c>
       <c r="G267" t="n">
-        <v>3833790.019722141</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9636,18 +8443,15 @@
         <v>6690.9595</v>
       </c>
       <c r="G268" t="n">
-        <v>3827099.060222141</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9669,18 +8473,15 @@
         <v>16</v>
       </c>
       <c r="G269" t="n">
-        <v>3827115.060222141</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9702,18 +8503,15 @@
         <v>4915.1</v>
       </c>
       <c r="G270" t="n">
-        <v>3827115.060222141</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9735,18 +8533,15 @@
         <v>100</v>
       </c>
       <c r="G271" t="n">
-        <v>3827015.060222141</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9768,18 +8563,15 @@
         <v>1928.711</v>
       </c>
       <c r="G272" t="n">
-        <v>3828943.771222141</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9801,18 +8593,15 @@
         <v>6656.8602</v>
       </c>
       <c r="G273" t="n">
-        <v>3828943.771222141</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9834,18 +8623,15 @@
         <v>57564.3313</v>
       </c>
       <c r="G274" t="n">
-        <v>3771379.439922141</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9867,18 +8653,15 @@
         <v>9976.193799999999</v>
       </c>
       <c r="G275" t="n">
-        <v>3761403.246122141</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9900,18 +8683,15 @@
         <v>1231.6905</v>
       </c>
       <c r="G276" t="n">
-        <v>3761403.246122141</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9933,18 +8713,15 @@
         <v>4884.733</v>
       </c>
       <c r="G277" t="n">
-        <v>3766287.979122141</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9966,18 +8743,15 @@
         <v>3566.3238</v>
       </c>
       <c r="G278" t="n">
-        <v>3762721.655322141</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9999,18 +8773,15 @@
         <v>16944.4275</v>
       </c>
       <c r="G279" t="n">
-        <v>3762721.655322141</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10032,18 +8803,15 @@
         <v>40801.1767</v>
       </c>
       <c r="G280" t="n">
-        <v>3721920.478622141</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10065,18 +8833,15 @@
         <v>15461.0958</v>
       </c>
       <c r="G281" t="n">
-        <v>3721920.478622141</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10098,18 +8863,15 @@
         <v>1236.9914</v>
       </c>
       <c r="G282" t="n">
-        <v>3721920.478622141</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10131,18 +8893,15 @@
         <v>881.4068</v>
       </c>
       <c r="G283" t="n">
-        <v>3722801.885422141</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10164,18 +8923,15 @@
         <v>9051.571900000001</v>
       </c>
       <c r="G284" t="n">
-        <v>3722801.885422141</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10197,18 +8953,15 @@
         <v>37046.0131</v>
       </c>
       <c r="G285" t="n">
-        <v>3722801.885422141</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10230,18 +8983,15 @@
         <v>13536.5885</v>
       </c>
       <c r="G286" t="n">
-        <v>3722801.885422141</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10263,18 +9013,15 @@
         <v>622.9994</v>
       </c>
       <c r="G287" t="n">
-        <v>3723424.884822141</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10296,18 +9043,15 @@
         <v>12471.5368</v>
       </c>
       <c r="G288" t="n">
-        <v>3710953.348022141</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10329,18 +9073,15 @@
         <v>3410.971</v>
       </c>
       <c r="G289" t="n">
-        <v>3714364.319022141</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10362,18 +9103,15 @@
         <v>622.9994</v>
       </c>
       <c r="G290" t="n">
-        <v>3714364.319022141</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10395,18 +9133,15 @@
         <v>25973.2878</v>
       </c>
       <c r="G291" t="n">
-        <v>3740337.606822141</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10428,18 +9163,15 @@
         <v>946.3723</v>
       </c>
       <c r="G292" t="n">
-        <v>3740337.606822141</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10461,18 +9193,15 @@
         <v>1070</v>
       </c>
       <c r="G293" t="n">
-        <v>3741407.606822141</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10494,18 +9223,15 @@
         <v>703.1317</v>
       </c>
       <c r="G294" t="n">
-        <v>3740704.475122141</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10527,18 +9253,15 @@
         <v>60.07</v>
       </c>
       <c r="G295" t="n">
-        <v>3740704.475122141</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10560,18 +9283,15 @@
         <v>242.3325</v>
       </c>
       <c r="G296" t="n">
-        <v>3740704.475122141</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10593,18 +9313,15 @@
         <v>17729.6176</v>
       </c>
       <c r="G297" t="n">
-        <v>3722974.857522141</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10626,18 +9343,15 @@
         <v>7900</v>
       </c>
       <c r="G298" t="n">
-        <v>3730874.857522141</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10659,18 +9373,15 @@
         <v>139252.221</v>
       </c>
       <c r="G299" t="n">
-        <v>3591622.636522141</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10692,18 +9403,15 @@
         <v>801.8789</v>
       </c>
       <c r="G300" t="n">
-        <v>3591622.636522141</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10725,18 +9433,15 @@
         <v>16</v>
       </c>
       <c r="G301" t="n">
-        <v>3591638.636522141</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10758,18 +9463,15 @@
         <v>56442.2333</v>
       </c>
       <c r="G302" t="n">
-        <v>3535196.403222141</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10791,18 +9493,15 @@
         <v>77727.7377</v>
       </c>
       <c r="G303" t="n">
-        <v>3535196.403222141</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10824,18 +9523,15 @@
         <v>625.9188</v>
       </c>
       <c r="G304" t="n">
-        <v>3535196.403222141</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10857,18 +9553,15 @@
         <v>7035.1692</v>
       </c>
       <c r="G305" t="n">
-        <v>3528161.234022141</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10890,18 +9583,15 @@
         <v>5838.427</v>
       </c>
       <c r="G306" t="n">
-        <v>3533999.661022142</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10923,18 +9613,15 @@
         <v>30438.3233</v>
       </c>
       <c r="G307" t="n">
-        <v>3564437.984322141</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10956,18 +9643,15 @@
         <v>7760</v>
       </c>
       <c r="G308" t="n">
-        <v>3556677.984322141</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10989,18 +9673,15 @@
         <v>112350.6619</v>
       </c>
       <c r="G309" t="n">
-        <v>3444327.322422141</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11022,18 +9703,15 @@
         <v>15</v>
       </c>
       <c r="G310" t="n">
-        <v>3444342.322422141</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11055,18 +9733,15 @@
         <v>2865.4391</v>
       </c>
       <c r="G311" t="n">
-        <v>3441476.883322141</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11088,18 +9763,15 @@
         <v>1611.7454</v>
       </c>
       <c r="G312" t="n">
-        <v>3439865.137922141</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11121,18 +9793,15 @@
         <v>16</v>
       </c>
       <c r="G313" t="n">
-        <v>3439881.137922141</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11154,18 +9823,15 @@
         <v>975.263</v>
       </c>
       <c r="G314" t="n">
-        <v>3439881.137922141</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11187,18 +9853,15 @@
         <v>18152.2291</v>
       </c>
       <c r="G315" t="n">
-        <v>3439881.137922141</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11220,18 +9883,15 @@
         <v>2780.0045</v>
       </c>
       <c r="G316" t="n">
-        <v>3439881.137922141</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11253,18 +9913,15 @@
         <v>1073.059</v>
       </c>
       <c r="G317" t="n">
-        <v>3439881.137922141</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11286,18 +9943,15 @@
         <v>290.1453</v>
       </c>
       <c r="G318" t="n">
-        <v>3439881.137922141</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11319,18 +9973,15 @@
         <v>75</v>
       </c>
       <c r="G319" t="n">
-        <v>3439956.137922141</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11352,18 +10003,15 @@
         <v>120.3894</v>
       </c>
       <c r="G320" t="n">
-        <v>3439956.137922141</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11385,18 +10033,15 @@
         <v>13351.8035</v>
       </c>
       <c r="G321" t="n">
-        <v>3453307.941422141</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11418,18 +10063,15 @@
         <v>250</v>
       </c>
       <c r="G322" t="n">
-        <v>3453557.941422141</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11451,18 +10093,15 @@
         <v>4702.76</v>
       </c>
       <c r="G323" t="n">
-        <v>3458260.701422141</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11484,18 +10123,15 @@
         <v>7589.4712</v>
       </c>
       <c r="G324" t="n">
-        <v>3458260.701422141</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11517,18 +10153,15 @@
         <v>1184.8105</v>
       </c>
       <c r="G325" t="n">
-        <v>3458260.701422141</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11550,18 +10183,15 @@
         <v>15</v>
       </c>
       <c r="G326" t="n">
-        <v>3458260.701422141</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11583,18 +10213,15 @@
         <v>15</v>
       </c>
       <c r="G327" t="n">
-        <v>3458275.701422141</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11616,18 +10243,15 @@
         <v>12015.1621</v>
       </c>
       <c r="G328" t="n">
-        <v>3446260.539322141</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11649,18 +10273,15 @@
         <v>458.7962</v>
       </c>
       <c r="G329" t="n">
-        <v>3446260.539322141</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11682,18 +10303,15 @@
         <v>59</v>
       </c>
       <c r="G330" t="n">
-        <v>3446201.539322141</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11715,18 +10333,15 @@
         <v>12074.9312</v>
       </c>
       <c r="G331" t="n">
-        <v>3434126.608122141</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11748,18 +10363,15 @@
         <v>6182.7649</v>
       </c>
       <c r="G332" t="n">
-        <v>3434126.608122141</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
